--- a/Data/GIS Data Repositories.xlsx
+++ b/Data/GIS Data Repositories.xlsx
@@ -1,20 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arusso.OS\Documents\GitHub\HumanitarianDataRegistry\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2EC1093-7F7C-4CE8-A918-A96562533AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Master List" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Read Me" sheetId="2" r:id="rId5"/>
+    <sheet name="Master List" sheetId="1" r:id="rId1"/>
+    <sheet name="Read Me" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Master List'!$A$1:$AD$679</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Master List'!$A$1:$AD$679</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5968" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5994" uniqueCount="1967">
   <si>
     <t>Type</t>
   </si>
@@ -5897,97 +5919,153 @@
   </si>
   <si>
     <t>https://transboundarywaters.science.oregonstate.edu/content/data-and-datasets</t>
+  </si>
+  <si>
+    <t>http://geosampa.prefeitura.sp.gov.br/PaginasPublicas/_SBC.aspx</t>
+  </si>
+  <si>
+    <t>https://www.data.rio/</t>
+  </si>
+  <si>
+    <t>http://datapoa.com.br/</t>
+  </si>
+  <si>
+    <t>April 11, 2022 request to add</t>
+  </si>
+  <si>
+    <t>Data Portal</t>
+  </si>
+  <si>
+    <t>Map Application Portal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0B5394"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF0B5394"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color rgb="FF317EAC"/>
       <name val="Telex"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -5995,7 +6073,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -6017,143 +6095,111 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -6343,34 +6389,37 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K821"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A594" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I645" sqref="I645"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.71"/>
-    <col customWidth="1" min="2" max="2" width="20.71"/>
-    <col customWidth="1" min="3" max="3" width="29.57"/>
-    <col customWidth="1" min="4" max="4" width="64.71"/>
-    <col customWidth="1" min="6" max="6" width="19.0"/>
-    <col customWidth="1" min="7" max="7" width="26.0"/>
-    <col customWidth="1" min="8" max="8" width="16.71"/>
-    <col customWidth="1" min="9" max="9" width="14.71"/>
-    <col customWidth="1" min="10" max="10" width="22.14"/>
+    <col min="1" max="1" width="28.7265625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
+    <col min="3" max="3" width="29.54296875" customWidth="1"/>
+    <col min="4" max="4" width="64.7265625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="16.7265625" customWidth="1"/>
+    <col min="9" max="9" width="14.7265625" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -6429,7 +6478,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
@@ -6459,7 +6508,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
@@ -6491,7 +6540,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -6520,7 +6569,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -6550,7 +6599,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
@@ -6582,7 +6631,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -6609,7 +6658,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -6636,7 +6685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -6663,7 +6712,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -6693,7 +6742,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -6723,7 +6772,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
@@ -6750,7 +6799,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -6780,7 +6829,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -6807,7 +6856,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -6837,7 +6886,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -6867,7 +6916,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -6897,7 +6946,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1">
       <c r="A19" s="4" t="s">
         <v>11</v>
       </c>
@@ -6927,7 +6976,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1">
       <c r="A20" s="4" t="s">
         <v>11</v>
       </c>
@@ -6957,7 +7006,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1">
       <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
@@ -6987,7 +7036,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1">
       <c r="A22" s="4" t="s">
         <v>11</v>
       </c>
@@ -7014,7 +7063,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1">
       <c r="A23" s="4" t="s">
         <v>11</v>
       </c>
@@ -7044,7 +7093,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1">
       <c r="A24" s="4" t="s">
         <v>11</v>
       </c>
@@ -7071,7 +7120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -7098,7 +7147,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="A26" s="4" t="s">
         <v>11</v>
       </c>
@@ -7125,7 +7174,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -7155,7 +7204,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="A28" s="4" t="s">
         <v>11</v>
       </c>
@@ -7182,7 +7231,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -7212,7 +7261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -7242,7 +7291,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -7272,7 +7321,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -7302,7 +7351,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -7332,7 +7381,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -7359,7 +7408,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -7386,7 +7435,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -7413,7 +7462,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -7443,7 +7492,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -7473,7 +7522,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -7503,7 +7552,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:10" ht="12.5">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -7533,7 +7582,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:10" ht="12.5">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -7560,7 +7609,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:10" ht="12.5">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -7590,7 +7639,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:10" ht="12.5">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -7620,7 +7669,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:10" ht="12.5">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -7650,7 +7699,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:10" ht="12.5">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -7680,7 +7729,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:10" ht="12.5">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -7710,7 +7759,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:10" ht="12.5">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -7740,7 +7789,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:10" ht="12.5">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -7770,7 +7819,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:10" ht="12.5">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -7800,7 +7849,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:10" ht="12.5">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -7830,7 +7879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:10" ht="12.5">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -7860,7 +7909,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:10" ht="12.5">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -7890,7 +7939,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:10" ht="12.5">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -7920,7 +7969,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:10" ht="12.5">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -7950,7 +7999,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:10" ht="12.5">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -7980,7 +8029,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:10" ht="12.5">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
@@ -8007,7 +8056,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:10" ht="12.5">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
@@ -8037,7 +8086,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:10" ht="12.5">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
@@ -8067,7 +8116,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:10" ht="12.5">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
@@ -8094,7 +8143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:10" ht="12.5">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
@@ -8124,7 +8173,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:10" ht="12.5">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
@@ -8151,7 +8200,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:10" ht="12.5">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
@@ -8181,7 +8230,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:10" ht="12.5">
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
@@ -8211,7 +8260,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:10" ht="12.5">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
@@ -8241,7 +8290,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:10" ht="12.5">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
@@ -8271,7 +8320,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:10" ht="12.5">
       <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
@@ -8299,7 +8348,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:10" ht="12.5">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
@@ -8329,7 +8378,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:10" ht="12.5">
       <c r="A68" s="4" t="s">
         <v>11</v>
       </c>
@@ -8359,7 +8408,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:10" ht="12.5">
       <c r="A69" s="4" t="s">
         <v>11</v>
       </c>
@@ -8389,7 +8438,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:10" ht="12.5">
       <c r="A70" s="4" t="s">
         <v>11</v>
       </c>
@@ -8419,7 +8468,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:10" ht="12.5">
       <c r="A71" s="4" t="s">
         <v>11</v>
       </c>
@@ -8449,7 +8498,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:10" ht="12.5">
       <c r="A72" s="4" t="s">
         <v>11</v>
       </c>
@@ -8479,7 +8528,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:10" ht="12.5">
       <c r="A73" s="4" t="s">
         <v>11</v>
       </c>
@@ -8509,7 +8558,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:10" ht="12.5">
       <c r="A74" s="4" t="s">
         <v>11</v>
       </c>
@@ -8539,7 +8588,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:10" ht="12.5">
       <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
@@ -8569,7 +8618,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:10" ht="12.5">
       <c r="A76" s="4" t="s">
         <v>11</v>
       </c>
@@ -8599,7 +8648,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:10" ht="12.5">
       <c r="A77" s="4" t="s">
         <v>11</v>
       </c>
@@ -8629,7 +8678,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:10" ht="12.5">
       <c r="A78" s="4" t="s">
         <v>11</v>
       </c>
@@ -8657,7 +8706,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:10" ht="12.5">
       <c r="A79" s="4" t="s">
         <v>11</v>
       </c>
@@ -8687,7 +8736,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:10" ht="12.5">
       <c r="A80" s="4" t="s">
         <v>11</v>
       </c>
@@ -8717,7 +8766,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:10" ht="12.5">
       <c r="A81" s="4" t="s">
         <v>11</v>
       </c>
@@ -8747,7 +8796,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:10" ht="12.5">
       <c r="A82" s="4" t="s">
         <v>11</v>
       </c>
@@ -8777,7 +8826,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:10" ht="12.5">
       <c r="A83" s="4" t="s">
         <v>11</v>
       </c>
@@ -8804,7 +8853,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:10" ht="12.5">
       <c r="A84" s="4" t="s">
         <v>11</v>
       </c>
@@ -8834,7 +8883,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" ht="12.5">
       <c r="A85" s="4" t="s">
         <v>11</v>
       </c>
@@ -8864,7 +8913,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:10" ht="12.5">
       <c r="A86" s="4" t="s">
         <v>11</v>
       </c>
@@ -8894,7 +8943,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" ht="12.5">
       <c r="A87" s="4" t="s">
         <v>11</v>
       </c>
@@ -8926,7 +8975,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:10" ht="12.5">
       <c r="A88" s="4" t="s">
         <v>11</v>
       </c>
@@ -8956,7 +9005,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" ht="12.5">
       <c r="A89" s="4" t="s">
         <v>11</v>
       </c>
@@ -8986,7 +9035,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" ht="12.5">
       <c r="A90" s="4" t="s">
         <v>11</v>
       </c>
@@ -9016,7 +9065,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:10" ht="12.5">
       <c r="A91" s="4" t="s">
         <v>11</v>
       </c>
@@ -9046,7 +9095,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" ht="12.5">
       <c r="A92" s="4" t="s">
         <v>11</v>
       </c>
@@ -9076,7 +9125,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" ht="12.5">
       <c r="A93" s="4" t="s">
         <v>11</v>
       </c>
@@ -9108,7 +9157,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:10" ht="12.5">
       <c r="A94" s="4" t="s">
         <v>11</v>
       </c>
@@ -9138,7 +9187,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" ht="12.5">
       <c r="A95" s="4" t="s">
         <v>11</v>
       </c>
@@ -9168,7 +9217,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" ht="12.5">
       <c r="A96" s="4" t="s">
         <v>11</v>
       </c>
@@ -9200,7 +9249,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:10" ht="12.5">
       <c r="A97" s="4" t="s">
         <v>11</v>
       </c>
@@ -9228,7 +9277,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:10" ht="12.5">
       <c r="A98" s="4" t="s">
         <v>11</v>
       </c>
@@ -9258,7 +9307,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:10" ht="12.5">
       <c r="A99" s="4" t="s">
         <v>11</v>
       </c>
@@ -9288,7 +9337,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:10" ht="12.5">
       <c r="A100" s="4" t="s">
         <v>11</v>
       </c>
@@ -9318,7 +9367,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:10" ht="12.5">
       <c r="A101" s="4" t="s">
         <v>11</v>
       </c>
@@ -9348,7 +9397,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10" ht="12.5">
       <c r="A102" s="4" t="s">
         <v>11</v>
       </c>
@@ -9376,7 +9425,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:10" ht="12.5">
       <c r="A103" s="4" t="s">
         <v>11</v>
       </c>
@@ -9404,7 +9453,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10" ht="12.5">
       <c r="A104" s="4" t="s">
         <v>11</v>
       </c>
@@ -9434,7 +9483,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10" ht="12.5">
       <c r="A105" s="4" t="s">
         <v>11</v>
       </c>
@@ -9462,7 +9511,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:10" ht="12.5">
       <c r="A106" s="4" t="s">
         <v>11</v>
       </c>
@@ -9492,7 +9541,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:10" ht="12.5">
       <c r="A107" s="4" t="s">
         <v>11</v>
       </c>
@@ -9522,7 +9571,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10" ht="12.5">
       <c r="A108" s="4" t="s">
         <v>11</v>
       </c>
@@ -9550,7 +9599,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:10" ht="12.5">
       <c r="A109" s="4" t="s">
         <v>11</v>
       </c>
@@ -9578,7 +9627,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10" ht="12.5">
       <c r="A110" s="4" t="s">
         <v>11</v>
       </c>
@@ -9608,7 +9657,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10" ht="12.5">
       <c r="A111" s="4" t="s">
         <v>11</v>
       </c>
@@ -9638,7 +9687,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:10" ht="12.5">
       <c r="A112" s="4" t="s">
         <v>11</v>
       </c>
@@ -9666,7 +9715,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:10" ht="12.5">
       <c r="A113" s="4" t="s">
         <v>11</v>
       </c>
@@ -9696,7 +9745,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:10" ht="12.5">
       <c r="A114" s="4" t="s">
         <v>11</v>
       </c>
@@ -9726,7 +9775,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:10" ht="12.5">
       <c r="A115" s="4" t="s">
         <v>11</v>
       </c>
@@ -9756,7 +9805,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:10" ht="12.5">
       <c r="A116" s="4" t="s">
         <v>11</v>
       </c>
@@ -9786,7 +9835,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:10" ht="12.5">
       <c r="A117" s="4" t="s">
         <v>11</v>
       </c>
@@ -9814,7 +9863,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:10" ht="12.5">
       <c r="A118" s="4" t="s">
         <v>11</v>
       </c>
@@ -9844,7 +9893,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:10" ht="12.5">
       <c r="A119" s="4" t="s">
         <v>11</v>
       </c>
@@ -9874,7 +9923,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:10" ht="12.5">
       <c r="A120" s="4" t="s">
         <v>11</v>
       </c>
@@ -9904,7 +9953,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:10" ht="12.5">
       <c r="A121" s="4" t="s">
         <v>11</v>
       </c>
@@ -9934,7 +9983,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:10" ht="12.5">
       <c r="A122" s="4" t="s">
         <v>11</v>
       </c>
@@ -9964,7 +10013,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:10" ht="12.5">
       <c r="A123" s="4" t="s">
         <v>11</v>
       </c>
@@ -9992,7 +10041,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:10" ht="12.5">
       <c r="A124" s="4" t="s">
         <v>11</v>
       </c>
@@ -10020,7 +10069,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:10" ht="12.5">
       <c r="A125" s="4" t="s">
         <v>11</v>
       </c>
@@ -10048,7 +10097,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:10" ht="12.5">
       <c r="A126" s="4" t="s">
         <v>11</v>
       </c>
@@ -10078,7 +10127,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:10" ht="12.5">
       <c r="A127" s="4" t="s">
         <v>11</v>
       </c>
@@ -10108,7 +10157,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:10" ht="12.5">
       <c r="A128" s="4" t="s">
         <v>11</v>
       </c>
@@ -10136,7 +10185,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:10" ht="12.5">
       <c r="A129" s="4" t="s">
         <v>11</v>
       </c>
@@ -10164,7 +10213,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:10" ht="12.5">
       <c r="A130" s="4" t="s">
         <v>11</v>
       </c>
@@ -10192,7 +10241,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:10" ht="12.5">
       <c r="A131" s="4" t="s">
         <v>11</v>
       </c>
@@ -10220,7 +10269,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:10" ht="12.5">
       <c r="A132" s="4" t="s">
         <v>11</v>
       </c>
@@ -10250,7 +10299,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:10" ht="12.5">
       <c r="A133" s="4" t="s">
         <v>11</v>
       </c>
@@ -10280,7 +10329,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:10" ht="12.5">
       <c r="A134" s="4" t="s">
         <v>11</v>
       </c>
@@ -10310,7 +10359,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:10" ht="12.5">
       <c r="A135" s="4" t="s">
         <v>11</v>
       </c>
@@ -10338,7 +10387,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:10" ht="12.5">
       <c r="A136" s="4" t="s">
         <v>11</v>
       </c>
@@ -10366,7 +10415,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:10" ht="12.5">
       <c r="A137" s="4" t="s">
         <v>11</v>
       </c>
@@ -10396,7 +10445,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:10" ht="12.5">
       <c r="A138" s="4" t="s">
         <v>11</v>
       </c>
@@ -10426,7 +10475,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:10" ht="12.5">
       <c r="A139" s="4" t="s">
         <v>11</v>
       </c>
@@ -10454,7 +10503,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:10" ht="12.5">
       <c r="A140" s="4" t="s">
         <v>11</v>
       </c>
@@ -10482,7 +10531,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:10" ht="12.5">
       <c r="A141" s="4" t="s">
         <v>11</v>
       </c>
@@ -10512,7 +10561,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:10" ht="12.5">
       <c r="A142" s="4" t="s">
         <v>11</v>
       </c>
@@ -10542,7 +10591,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:10" ht="12.5">
       <c r="A143" s="4" t="s">
         <v>11</v>
       </c>
@@ -10570,7 +10619,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:10" ht="12.5">
       <c r="A144" s="4" t="s">
         <v>11</v>
       </c>
@@ -10598,7 +10647,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:10" ht="12.5">
       <c r="A145" s="4" t="s">
         <v>11</v>
       </c>
@@ -10626,7 +10675,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:10" ht="12.5">
       <c r="A146" s="4" t="s">
         <v>11</v>
       </c>
@@ -10654,7 +10703,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:10" ht="12.5">
       <c r="A147" s="4" t="s">
         <v>11</v>
       </c>
@@ -10684,7 +10733,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:10" ht="12.5">
       <c r="A148" s="4" t="s">
         <v>11</v>
       </c>
@@ -10714,7 +10763,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:10" ht="12.5">
       <c r="A149" s="4" t="s">
         <v>11</v>
       </c>
@@ -10742,7 +10791,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:10" ht="12.5">
       <c r="A150" s="4" t="s">
         <v>11</v>
       </c>
@@ -10767,7 +10816,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:10" ht="12.5">
       <c r="A151" s="4" t="s">
         <v>11</v>
       </c>
@@ -10797,7 +10846,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:10" ht="12.5">
       <c r="A152" s="4" t="s">
         <v>11</v>
       </c>
@@ -10827,7 +10876,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:10" ht="12.5">
       <c r="A153" s="4" t="s">
         <v>11</v>
       </c>
@@ -10857,7 +10906,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:10" ht="12.5">
       <c r="A154" s="4" t="s">
         <v>11</v>
       </c>
@@ -10887,7 +10936,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:10" ht="12.5">
       <c r="A155" s="4" t="s">
         <v>11</v>
       </c>
@@ -10917,7 +10966,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:10" ht="12.5">
       <c r="A156" s="4" t="s">
         <v>11</v>
       </c>
@@ -10947,7 +10996,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:10" ht="12.5">
       <c r="A157" s="4" t="s">
         <v>11</v>
       </c>
@@ -10975,7 +11024,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:10" ht="12.5">
       <c r="A158" s="4" t="s">
         <v>11</v>
       </c>
@@ -11003,7 +11052,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:10" ht="12.5">
       <c r="A159" s="4" t="s">
         <v>11</v>
       </c>
@@ -11033,7 +11082,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:10" ht="12.5">
       <c r="A160" s="4" t="s">
         <v>11</v>
       </c>
@@ -11063,7 +11112,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:10" ht="12.5">
       <c r="A161" s="4" t="s">
         <v>11</v>
       </c>
@@ -11093,7 +11142,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:10" ht="12.5">
       <c r="A162" s="4" t="s">
         <v>11</v>
       </c>
@@ -11125,7 +11174,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:10" ht="12.5">
       <c r="A163" s="4" t="s">
         <v>11</v>
       </c>
@@ -11155,7 +11204,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:10" ht="12.5">
       <c r="A164" s="4" t="s">
         <v>11</v>
       </c>
@@ -11185,7 +11234,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:10" ht="12.5">
       <c r="A165" s="4" t="s">
         <v>11</v>
       </c>
@@ -11213,7 +11262,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:10" ht="12.5">
       <c r="A166" s="4" t="s">
         <v>11</v>
       </c>
@@ -11241,7 +11290,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:10" ht="12.5">
       <c r="A167" s="4" t="s">
         <v>11</v>
       </c>
@@ -11271,7 +11320,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:10" ht="12.5">
       <c r="A168" s="4" t="s">
         <v>11</v>
       </c>
@@ -11299,7 +11348,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:10" ht="12.5">
       <c r="A169" s="4" t="s">
         <v>11</v>
       </c>
@@ -11329,7 +11378,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:10" ht="12.5">
       <c r="A170" s="4" t="s">
         <v>11</v>
       </c>
@@ -11357,7 +11406,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:10" ht="12.5">
       <c r="A171" s="4" t="s">
         <v>11</v>
       </c>
@@ -11389,7 +11438,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:10" ht="12.5">
       <c r="A172" s="4" t="s">
         <v>11</v>
       </c>
@@ -11419,7 +11468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:10" ht="12.5">
       <c r="A173" s="4" t="s">
         <v>11</v>
       </c>
@@ -11449,7 +11498,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:10" ht="12.5">
       <c r="A174" s="4" t="s">
         <v>11</v>
       </c>
@@ -11479,7 +11528,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:10" ht="12.5">
       <c r="A175" s="4" t="s">
         <v>11</v>
       </c>
@@ -11509,7 +11558,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:10" ht="12.5">
       <c r="A176" s="4" t="s">
         <v>11</v>
       </c>
@@ -11539,7 +11588,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:10" ht="12.5">
       <c r="A177" s="4" t="s">
         <v>11</v>
       </c>
@@ -11569,7 +11618,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:10" ht="12.5">
       <c r="A178" s="4" t="s">
         <v>11</v>
       </c>
@@ -11599,7 +11648,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:10" ht="12.5">
       <c r="A179" s="4" t="s">
         <v>11</v>
       </c>
@@ -11629,7 +11678,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:10" ht="12.5">
       <c r="A180" s="4" t="s">
         <v>11</v>
       </c>
@@ -11659,7 +11708,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:10" ht="12.5">
       <c r="A181" s="4" t="s">
         <v>11</v>
       </c>
@@ -11689,7 +11738,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:10" ht="12.5">
       <c r="A182" s="4" t="s">
         <v>11</v>
       </c>
@@ -11719,7 +11768,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:10" ht="12.5">
       <c r="A183" s="4" t="s">
         <v>11</v>
       </c>
@@ -11749,7 +11798,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:10" ht="12.5">
       <c r="A184" s="4" t="s">
         <v>11</v>
       </c>
@@ -11779,7 +11828,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:10" ht="12.5">
       <c r="A185" s="4" t="s">
         <v>11</v>
       </c>
@@ -11807,7 +11856,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:10" ht="12.5">
       <c r="A186" s="4" t="s">
         <v>11</v>
       </c>
@@ -11835,7 +11884,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:10" ht="12.5">
       <c r="A187" s="4" t="s">
         <v>11</v>
       </c>
@@ -11865,7 +11914,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:10" ht="12.5">
       <c r="A188" s="4" t="s">
         <v>11</v>
       </c>
@@ -11895,7 +11944,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:10" ht="12.5">
       <c r="A189" s="4" t="s">
         <v>11</v>
       </c>
@@ -11923,7 +11972,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:10" ht="12.5">
       <c r="A190" s="4" t="s">
         <v>11</v>
       </c>
@@ -11953,7 +12002,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:10" ht="12.5">
       <c r="A191" s="4" t="s">
         <v>11</v>
       </c>
@@ -11983,7 +12032,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:10" ht="12.5">
       <c r="A192" s="4" t="s">
         <v>11</v>
       </c>
@@ -12013,7 +12062,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:10" ht="12.5">
       <c r="A193" s="4" t="s">
         <v>11</v>
       </c>
@@ -12043,7 +12092,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:10" ht="12.5">
       <c r="A194" s="4" t="s">
         <v>11</v>
       </c>
@@ -12073,7 +12122,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:10" ht="12.5">
       <c r="A195" s="4" t="s">
         <v>11</v>
       </c>
@@ -12103,7 +12152,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:10" ht="12.5">
       <c r="A196" s="4" t="s">
         <v>11</v>
       </c>
@@ -12133,7 +12182,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:10" ht="12.5">
       <c r="A197" s="4" t="s">
         <v>11</v>
       </c>
@@ -12163,7 +12212,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:10" ht="12.5">
       <c r="A198" s="4" t="s">
         <v>11</v>
       </c>
@@ -12193,7 +12242,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:10" ht="12.5">
       <c r="A199" s="4" t="s">
         <v>11</v>
       </c>
@@ -12221,7 +12270,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:10" ht="12.5">
       <c r="A200" s="4" t="s">
         <v>11</v>
       </c>
@@ -12251,7 +12300,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:10" ht="12.5">
       <c r="A201" s="4" t="s">
         <v>11</v>
       </c>
@@ -12278,7 +12327,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:10" ht="12.5">
       <c r="A202" s="4" t="s">
         <v>11</v>
       </c>
@@ -12308,7 +12357,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:10" ht="12.5">
       <c r="A203" s="4" t="s">
         <v>11</v>
       </c>
@@ -12338,7 +12387,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:10" ht="12.5">
       <c r="A204" s="4" t="s">
         <v>11</v>
       </c>
@@ -12370,7 +12419,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:10" ht="12.5">
       <c r="A205" s="4" t="s">
         <v>11</v>
       </c>
@@ -12400,7 +12449,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:10" ht="12.5">
       <c r="A206" s="4" t="s">
         <v>11</v>
       </c>
@@ -12430,7 +12479,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:10" ht="12.5">
       <c r="A207" s="4" t="s">
         <v>11</v>
       </c>
@@ -12460,7 +12509,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:10" ht="12.5">
       <c r="A208" s="4" t="s">
         <v>11</v>
       </c>
@@ -12490,7 +12539,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:10" ht="12.5">
       <c r="A209" s="4" t="s">
         <v>11</v>
       </c>
@@ -12520,7 +12569,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:10" ht="12.5">
       <c r="A210" s="4" t="s">
         <v>11</v>
       </c>
@@ -12550,7 +12599,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:10" ht="12.5">
       <c r="A211" s="4" t="s">
         <v>11</v>
       </c>
@@ -12580,7 +12629,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:10" ht="12.5">
       <c r="A212" s="4" t="s">
         <v>11</v>
       </c>
@@ -12610,7 +12659,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:10" ht="12.5">
       <c r="A213" s="4" t="s">
         <v>11</v>
       </c>
@@ -12640,7 +12689,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:10" ht="12.5">
       <c r="A214" s="4" t="s">
         <v>11</v>
       </c>
@@ -12667,7 +12716,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:10" ht="12.5">
       <c r="A215" s="4" t="s">
         <v>11</v>
       </c>
@@ -12697,7 +12746,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:10" ht="12.5">
       <c r="A216" s="4" t="s">
         <v>11</v>
       </c>
@@ -12727,7 +12776,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:10" ht="12.5">
       <c r="A217" s="4" t="s">
         <v>11</v>
       </c>
@@ -12757,7 +12806,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:10" ht="12.5">
       <c r="A218" s="4" t="s">
         <v>11</v>
       </c>
@@ -12787,7 +12836,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:10" ht="12.5">
       <c r="A219" s="4" t="s">
         <v>11</v>
       </c>
@@ -12817,7 +12866,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:10" ht="12.5">
       <c r="A220" s="4" t="s">
         <v>11</v>
       </c>
@@ -12847,7 +12896,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:10" ht="12.5">
       <c r="A221" s="4" t="s">
         <v>11</v>
       </c>
@@ -12877,7 +12926,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:10" ht="12.5">
       <c r="A222" s="4" t="s">
         <v>11</v>
       </c>
@@ -12907,7 +12956,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:10" ht="12.5">
       <c r="A223" s="4" t="s">
         <v>11</v>
       </c>
@@ -12937,7 +12986,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:10" ht="12.5">
       <c r="A224" s="4" t="s">
         <v>11</v>
       </c>
@@ -12965,7 +13014,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:10" ht="12.5">
       <c r="A225" s="4" t="s">
         <v>11</v>
       </c>
@@ -12993,7 +13042,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:10" ht="12.5">
       <c r="A226" s="4" t="s">
         <v>11</v>
       </c>
@@ -13021,7 +13070,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:10" ht="12.5">
       <c r="A227" s="4" t="s">
         <v>11</v>
       </c>
@@ -13051,7 +13100,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:10" ht="12.5">
       <c r="A228" s="4" t="s">
         <v>11</v>
       </c>
@@ -13079,7 +13128,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:10" ht="12.5">
       <c r="A229" s="4" t="s">
         <v>11</v>
       </c>
@@ -13109,7 +13158,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:10" ht="12.5">
       <c r="A230" s="4" t="s">
         <v>11</v>
       </c>
@@ -13139,7 +13188,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:10" ht="12.5">
       <c r="A231" s="4" t="s">
         <v>11</v>
       </c>
@@ -13169,7 +13218,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:10" ht="12.5">
       <c r="A232" s="4" t="s">
         <v>11</v>
       </c>
@@ -13199,7 +13248,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:10" ht="12.5">
       <c r="A233" s="4" t="s">
         <v>11</v>
       </c>
@@ -13229,7 +13278,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:10" ht="12.5">
       <c r="A234" s="4" t="s">
         <v>11</v>
       </c>
@@ -13259,7 +13308,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:10" ht="12.5">
       <c r="A235" s="4" t="s">
         <v>11</v>
       </c>
@@ -13289,7 +13338,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:10" ht="12.5">
       <c r="A236" s="4" t="s">
         <v>11</v>
       </c>
@@ -13319,7 +13368,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:10" ht="12.5">
       <c r="A237" s="4" t="s">
         <v>11</v>
       </c>
@@ -13349,7 +13398,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:10" ht="12.5">
       <c r="A238" s="4" t="s">
         <v>11</v>
       </c>
@@ -13379,7 +13428,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:10" ht="12.5">
       <c r="A239" s="4" t="s">
         <v>11</v>
       </c>
@@ -13409,7 +13458,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:10" ht="12.5">
       <c r="A240" s="4" t="s">
         <v>11</v>
       </c>
@@ -13439,7 +13488,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="241">
+    <row r="241" spans="1:10" ht="12.5">
       <c r="A241" s="4" t="s">
         <v>11</v>
       </c>
@@ -13469,7 +13518,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:10" ht="12.5">
       <c r="A242" s="4" t="s">
         <v>11</v>
       </c>
@@ -13499,7 +13548,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:10" ht="12.5">
       <c r="A243" s="4" t="s">
         <v>11</v>
       </c>
@@ -13529,7 +13578,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="244">
+    <row r="244" spans="1:10" ht="12.5">
       <c r="A244" s="4" t="s">
         <v>11</v>
       </c>
@@ -13559,7 +13608,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:10" ht="12.5">
       <c r="A245" s="4" t="s">
         <v>11</v>
       </c>
@@ -13589,7 +13638,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:10" ht="12.5">
       <c r="A246" s="4" t="s">
         <v>11</v>
       </c>
@@ -13619,7 +13668,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:10" ht="12.5">
       <c r="A247" s="4" t="s">
         <v>11</v>
       </c>
@@ -13649,7 +13698,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:10" ht="12.5">
       <c r="A248" s="4" t="s">
         <v>11</v>
       </c>
@@ -13679,7 +13728,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:10" ht="12.5">
       <c r="A249" s="4" t="s">
         <v>11</v>
       </c>
@@ -13709,7 +13758,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:10" ht="12.5">
       <c r="A250" s="4" t="s">
         <v>11</v>
       </c>
@@ -13739,7 +13788,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:10" ht="12.5">
       <c r="A251" s="4" t="s">
         <v>11</v>
       </c>
@@ -13769,7 +13818,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:10" ht="12.5">
       <c r="A252" s="4" t="s">
         <v>11</v>
       </c>
@@ -13799,7 +13848,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:10" ht="12.5">
       <c r="A253" s="4" t="s">
         <v>11</v>
       </c>
@@ -13829,7 +13878,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:10" ht="12.5">
       <c r="A254" s="4" t="s">
         <v>11</v>
       </c>
@@ -13859,7 +13908,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:10" ht="12.5">
       <c r="A255" s="4" t="s">
         <v>11</v>
       </c>
@@ -13889,7 +13938,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="256">
+    <row r="256" spans="1:10" ht="12.5">
       <c r="A256" s="4" t="s">
         <v>11</v>
       </c>
@@ -13921,7 +13970,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:10" ht="12.5">
       <c r="A257" s="4" t="s">
         <v>11</v>
       </c>
@@ -13951,7 +14000,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="258">
+    <row r="258" spans="1:10" ht="12.5">
       <c r="A258" s="4" t="s">
         <v>11</v>
       </c>
@@ -13981,7 +14030,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:10" ht="12.5">
       <c r="A259" s="4" t="s">
         <v>11</v>
       </c>
@@ -14011,7 +14060,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:10" ht="12.5">
       <c r="A260" s="4" t="s">
         <v>11</v>
       </c>
@@ -14041,7 +14090,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:10" ht="12.5">
       <c r="A261" s="4" t="s">
         <v>11</v>
       </c>
@@ -14071,7 +14120,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:10" ht="12.5">
       <c r="A262" s="4" t="s">
         <v>11</v>
       </c>
@@ -14101,7 +14150,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:10" ht="12.5">
       <c r="A263" s="4" t="s">
         <v>11</v>
       </c>
@@ -14131,7 +14180,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:10" ht="12.5">
       <c r="A264" s="4" t="s">
         <v>11</v>
       </c>
@@ -14161,7 +14210,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:10" ht="12.5">
       <c r="A265" s="4" t="s">
         <v>11</v>
       </c>
@@ -14191,7 +14240,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:10" ht="12.5">
       <c r="A266" s="4" t="s">
         <v>11</v>
       </c>
@@ -14221,7 +14270,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:10" ht="12.5">
       <c r="A267" s="4" t="s">
         <v>11</v>
       </c>
@@ -14251,7 +14300,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:10" ht="12.5">
       <c r="A268" s="4" t="s">
         <v>11</v>
       </c>
@@ -14281,7 +14330,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:10" ht="12.5">
       <c r="A269" s="4" t="s">
         <v>11</v>
       </c>
@@ -14311,7 +14360,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:10" ht="12.5">
       <c r="A270" s="4" t="s">
         <v>11</v>
       </c>
@@ -14341,7 +14390,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:10" ht="12.5">
       <c r="A271" s="4" t="s">
         <v>11</v>
       </c>
@@ -14368,7 +14417,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:10" ht="12.5">
       <c r="A272" s="4" t="s">
         <v>11</v>
       </c>
@@ -14396,7 +14445,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:10" ht="12.5">
       <c r="A273" s="4" t="s">
         <v>11</v>
       </c>
@@ -14424,7 +14473,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:10" ht="12.5">
       <c r="A274" s="4" t="s">
         <v>11</v>
       </c>
@@ -14454,7 +14503,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:10" ht="12.5">
       <c r="A275" s="4" t="s">
         <v>11</v>
       </c>
@@ -14484,7 +14533,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:10" ht="12.5">
       <c r="A276" s="4" t="s">
         <v>11</v>
       </c>
@@ -14512,7 +14561,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:10" ht="12.5">
       <c r="A277" s="4" t="s">
         <v>11</v>
       </c>
@@ -14542,7 +14591,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:10" ht="12.5">
       <c r="A278" s="4" t="s">
         <v>11</v>
       </c>
@@ -14572,7 +14621,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:10" ht="12.5">
       <c r="A279" s="4" t="s">
         <v>11</v>
       </c>
@@ -14602,7 +14651,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:10" ht="12.5">
       <c r="A280" s="4" t="s">
         <v>11</v>
       </c>
@@ -14632,7 +14681,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:10" ht="12.5">
       <c r="A281" s="4" t="s">
         <v>11</v>
       </c>
@@ -14660,7 +14709,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:10" ht="12.5">
       <c r="A282" s="4" t="s">
         <v>11</v>
       </c>
@@ -14690,7 +14739,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:10" ht="12.5">
       <c r="A283" s="4" t="s">
         <v>11</v>
       </c>
@@ -14720,7 +14769,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:10" ht="12.5">
       <c r="A284" s="4" t="s">
         <v>11</v>
       </c>
@@ -14750,7 +14799,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:10" ht="12.5">
       <c r="A285" s="4" t="s">
         <v>11</v>
       </c>
@@ -14780,7 +14829,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:10" ht="12.5">
       <c r="A286" s="4" t="s">
         <v>11</v>
       </c>
@@ -14810,7 +14859,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:10" ht="12.5">
       <c r="A287" s="4" t="s">
         <v>11</v>
       </c>
@@ -14838,7 +14887,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="288">
+    <row r="288" spans="1:10" ht="12.5">
       <c r="A288" s="4" t="s">
         <v>11</v>
       </c>
@@ -14868,7 +14917,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:10" ht="12.5">
       <c r="A289" s="4" t="s">
         <v>11</v>
       </c>
@@ -14898,7 +14947,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:10" ht="12.5">
       <c r="A290" s="4" t="s">
         <v>11</v>
       </c>
@@ -14928,7 +14977,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:10" ht="12.5">
       <c r="A291" s="4" t="s">
         <v>11</v>
       </c>
@@ -14958,7 +15007,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:10" ht="12.5">
       <c r="A292" s="4" t="s">
         <v>11</v>
       </c>
@@ -14988,7 +15037,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:10" ht="12.5">
       <c r="A293" s="4" t="s">
         <v>11</v>
       </c>
@@ -15018,7 +15067,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:10" ht="12.5">
       <c r="A294" s="4" t="s">
         <v>11</v>
       </c>
@@ -15048,7 +15097,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:10" ht="12.5">
       <c r="A295" s="4" t="s">
         <v>11</v>
       </c>
@@ -15078,7 +15127,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="296">
+    <row r="296" spans="1:10" ht="12.5">
       <c r="A296" s="4" t="s">
         <v>11</v>
       </c>
@@ -15106,7 +15155,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:10" ht="12.5">
       <c r="A297" s="4" t="s">
         <v>11</v>
       </c>
@@ -15134,7 +15183,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:10" ht="12.5">
       <c r="A298" s="4" t="s">
         <v>11</v>
       </c>
@@ -15161,7 +15210,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:10" ht="12.5">
       <c r="A299" s="4" t="s">
         <v>11</v>
       </c>
@@ -15191,7 +15240,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:10" ht="12.5">
       <c r="A300" s="4" t="s">
         <v>11</v>
       </c>
@@ -15219,7 +15268,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:10" ht="12.5">
       <c r="A301" s="4" t="s">
         <v>11</v>
       </c>
@@ -15249,7 +15298,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:10" ht="12.5">
       <c r="A302" s="4" t="s">
         <v>11</v>
       </c>
@@ -15281,7 +15330,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:10" ht="12.5">
       <c r="A303" s="4" t="s">
         <v>11</v>
       </c>
@@ -15311,7 +15360,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:10" ht="12.5">
       <c r="A304" s="4" t="s">
         <v>11</v>
       </c>
@@ -15343,7 +15392,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:10" ht="12.5">
       <c r="A305" s="4" t="s">
         <v>11</v>
       </c>
@@ -15373,7 +15422,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:10" ht="12.5">
       <c r="A306" s="4" t="s">
         <v>11</v>
       </c>
@@ -15403,7 +15452,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:10" ht="12.5">
       <c r="A307" s="4" t="s">
         <v>11</v>
       </c>
@@ -15430,7 +15479,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:10" ht="12.5">
       <c r="A308" s="4" t="s">
         <v>11</v>
       </c>
@@ -15460,7 +15509,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:10" ht="12.5">
       <c r="A309" s="4" t="s">
         <v>11</v>
       </c>
@@ -15492,7 +15541,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:10" ht="12.5">
       <c r="A310" s="4" t="s">
         <v>11</v>
       </c>
@@ -15522,7 +15571,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:10" ht="12.5">
       <c r="A311" s="4" t="s">
         <v>11</v>
       </c>
@@ -15552,7 +15601,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:10" ht="12.5">
       <c r="A312" s="4" t="s">
         <v>11</v>
       </c>
@@ -15582,7 +15631,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:10" ht="12.5">
       <c r="A313" s="4" t="s">
         <v>11</v>
       </c>
@@ -15612,7 +15661,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="314">
+    <row r="314" spans="1:10" ht="12.5">
       <c r="A314" s="4" t="s">
         <v>11</v>
       </c>
@@ -15642,7 +15691,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="315">
+    <row r="315" spans="1:10" ht="12.5">
       <c r="A315" s="4" t="s">
         <v>11</v>
       </c>
@@ -15672,7 +15721,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="316">
+    <row r="316" spans="1:10" ht="12.5">
       <c r="A316" s="4" t="s">
         <v>11</v>
       </c>
@@ -15702,7 +15751,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="317">
+    <row r="317" spans="1:10" ht="12.5">
       <c r="A317" s="4" t="s">
         <v>11</v>
       </c>
@@ -15732,7 +15781,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="318">
+    <row r="318" spans="1:10" ht="12.5">
       <c r="A318" s="4" t="s">
         <v>11</v>
       </c>
@@ -15762,7 +15811,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="319">
+    <row r="319" spans="1:10" ht="12.5">
       <c r="A319" s="4" t="s">
         <v>11</v>
       </c>
@@ -15792,7 +15841,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="320">
+    <row r="320" spans="1:10" ht="12.5">
       <c r="A320" s="4" t="s">
         <v>11</v>
       </c>
@@ -15822,7 +15871,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="321">
+    <row r="321" spans="1:10" ht="12.5">
       <c r="A321" s="4" t="s">
         <v>11</v>
       </c>
@@ -15852,7 +15901,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="322">
+    <row r="322" spans="1:10" ht="12.5">
       <c r="A322" s="4" t="s">
         <v>11</v>
       </c>
@@ -15882,7 +15931,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="323">
+    <row r="323" spans="1:10" ht="12.5">
       <c r="A323" s="4" t="s">
         <v>11</v>
       </c>
@@ -15912,7 +15961,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="324">
+    <row r="324" spans="1:10" ht="12.5">
       <c r="A324" s="4" t="s">
         <v>11</v>
       </c>
@@ -15942,7 +15991,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="325">
+    <row r="325" spans="1:10" ht="12.5">
       <c r="A325" s="4" t="s">
         <v>11</v>
       </c>
@@ -15972,7 +16021,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="326">
+    <row r="326" spans="1:10" ht="12.5">
       <c r="A326" s="4" t="s">
         <v>11</v>
       </c>
@@ -16002,7 +16051,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="327">
+    <row r="327" spans="1:10" ht="12.5">
       <c r="A327" s="4" t="s">
         <v>11</v>
       </c>
@@ -16032,7 +16081,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="328">
+    <row r="328" spans="1:10" ht="12.5">
       <c r="A328" s="4" t="s">
         <v>11</v>
       </c>
@@ -16062,7 +16111,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="329">
+    <row r="329" spans="1:10" ht="12.5">
       <c r="A329" s="4" t="s">
         <v>11</v>
       </c>
@@ -16092,7 +16141,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="330">
+    <row r="330" spans="1:10" ht="12.5">
       <c r="A330" s="4" t="s">
         <v>11</v>
       </c>
@@ -16122,7 +16171,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="331">
+    <row r="331" spans="1:10" ht="12.5">
       <c r="A331" s="4" t="s">
         <v>11</v>
       </c>
@@ -16152,7 +16201,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="332">
+    <row r="332" spans="1:10" ht="12.5">
       <c r="A332" s="4" t="s">
         <v>11</v>
       </c>
@@ -16182,7 +16231,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="333">
+    <row r="333" spans="1:10" ht="12.5">
       <c r="A333" s="4" t="s">
         <v>11</v>
       </c>
@@ -16209,7 +16258,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="334">
+    <row r="334" spans="1:10" ht="12.5">
       <c r="A334" s="4" t="s">
         <v>11</v>
       </c>
@@ -16239,7 +16288,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="335">
+    <row r="335" spans="1:10" ht="12.5">
       <c r="A335" s="4" t="s">
         <v>11</v>
       </c>
@@ -16269,7 +16318,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="336">
+    <row r="336" spans="1:10" ht="12.5">
       <c r="A336" s="4" t="s">
         <v>11</v>
       </c>
@@ -16297,7 +16346,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="337">
+    <row r="337" spans="1:10" ht="12.5">
       <c r="A337" s="4" t="s">
         <v>11</v>
       </c>
@@ -16325,7 +16374,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="338">
+    <row r="338" spans="1:10" ht="12.5">
       <c r="A338" s="4" t="s">
         <v>11</v>
       </c>
@@ -16353,7 +16402,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="339">
+    <row r="339" spans="1:10" ht="12.5">
       <c r="A339" s="4" t="s">
         <v>11</v>
       </c>
@@ -16380,7 +16429,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="340">
+    <row r="340" spans="1:10" ht="12.5">
       <c r="A340" s="4" t="s">
         <v>11</v>
       </c>
@@ -16410,7 +16459,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="341">
+    <row r="341" spans="1:10" ht="12.5">
       <c r="A341" s="4" t="s">
         <v>11</v>
       </c>
@@ -16437,7 +16486,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="342">
+    <row r="342" spans="1:10" ht="12.5">
       <c r="A342" s="4" t="s">
         <v>11</v>
       </c>
@@ -16467,7 +16516,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="343">
+    <row r="343" spans="1:10" ht="12.5">
       <c r="A343" s="4" t="s">
         <v>11</v>
       </c>
@@ -16494,7 +16543,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="344">
+    <row r="344" spans="1:10" ht="12.5">
       <c r="A344" s="4" t="s">
         <v>11</v>
       </c>
@@ -16526,7 +16575,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="345">
+    <row r="345" spans="1:10" ht="12.5">
       <c r="A345" s="4" t="s">
         <v>11</v>
       </c>
@@ -16556,7 +16605,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="346">
+    <row r="346" spans="1:10" ht="12.5">
       <c r="A346" s="4" t="s">
         <v>11</v>
       </c>
@@ -16586,7 +16635,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="347">
+    <row r="347" spans="1:10" ht="12.5">
       <c r="A347" s="4" t="s">
         <v>11</v>
       </c>
@@ -16616,7 +16665,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="348">
+    <row r="348" spans="1:10" ht="12.5">
       <c r="A348" s="4" t="s">
         <v>11</v>
       </c>
@@ -16646,7 +16695,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="349">
+    <row r="349" spans="1:10" ht="12.5">
       <c r="A349" s="4" t="s">
         <v>11</v>
       </c>
@@ -16674,7 +16723,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="350">
+    <row r="350" spans="1:10" ht="12.5">
       <c r="A350" s="4" t="s">
         <v>11</v>
       </c>
@@ -16706,7 +16755,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="351">
+    <row r="351" spans="1:10" ht="12.5">
       <c r="A351" s="4" t="s">
         <v>11</v>
       </c>
@@ -16736,7 +16785,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="352">
+    <row r="352" spans="1:10" ht="12.5">
       <c r="A352" s="4" t="s">
         <v>11</v>
       </c>
@@ -16766,7 +16815,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="353">
+    <row r="353" spans="1:11" ht="12.5">
       <c r="A353" s="4" t="s">
         <v>11</v>
       </c>
@@ -16796,7 +16845,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="354">
+    <row r="354" spans="1:11" ht="12.5">
       <c r="A354" s="4" t="s">
         <v>11</v>
       </c>
@@ -16826,7 +16875,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="355">
+    <row r="355" spans="1:11" ht="12.5">
       <c r="A355" s="4" t="s">
         <v>11</v>
       </c>
@@ -16856,7 +16905,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="356">
+    <row r="356" spans="1:11" ht="12.5">
       <c r="A356" s="4" t="s">
         <v>11</v>
       </c>
@@ -16884,7 +16933,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="357">
+    <row r="357" spans="1:11" ht="12.5">
       <c r="A357" s="4" t="s">
         <v>11</v>
       </c>
@@ -16914,7 +16963,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="358">
+    <row r="358" spans="1:11" ht="12.5">
       <c r="A358" s="4" t="s">
         <v>11</v>
       </c>
@@ -16944,7 +16993,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="359">
+    <row r="359" spans="1:11" ht="12.5">
       <c r="A359" s="4" t="s">
         <v>11</v>
       </c>
@@ -16974,7 +17023,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="360">
+    <row r="360" spans="1:11" ht="12.5">
       <c r="A360" s="4" t="s">
         <v>11</v>
       </c>
@@ -17004,7 +17053,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="361">
+    <row r="361" spans="1:11" ht="12.5">
       <c r="A361" s="4" t="s">
         <v>11</v>
       </c>
@@ -17034,7 +17083,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="362">
+    <row r="362" spans="1:11" ht="12.5">
       <c r="A362" s="4" t="s">
         <v>11</v>
       </c>
@@ -17061,7 +17110,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="363">
+    <row r="363" spans="1:11" ht="12.5">
       <c r="A363" s="4" t="s">
         <v>11</v>
       </c>
@@ -17088,7 +17137,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="364">
+    <row r="364" spans="1:11" ht="12.5">
       <c r="A364" s="4" t="s">
         <v>11</v>
       </c>
@@ -17118,7 +17167,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="365">
+    <row r="365" spans="1:11" ht="12.5">
       <c r="A365" s="4" t="s">
         <v>11</v>
       </c>
@@ -17148,7 +17197,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="366">
+    <row r="366" spans="1:11" ht="12.5">
       <c r="A366" s="4" t="s">
         <v>11</v>
       </c>
@@ -17179,7 +17228,7 @@
       </c>
       <c r="K366" s="3"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:11" ht="12.5">
       <c r="A367" s="4" t="s">
         <v>11</v>
       </c>
@@ -17210,7 +17259,7 @@
       </c>
       <c r="K367" s="3"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:11" ht="12.5">
       <c r="A368" s="4" t="s">
         <v>11</v>
       </c>
@@ -17240,7 +17289,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="369">
+    <row r="369" spans="1:10" ht="12.5">
       <c r="A369" s="4" t="s">
         <v>11</v>
       </c>
@@ -17270,7 +17319,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="370">
+    <row r="370" spans="1:10" ht="12.5">
       <c r="A370" s="4" t="s">
         <v>11</v>
       </c>
@@ -17297,7 +17346,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="371">
+    <row r="371" spans="1:10" ht="12.5">
       <c r="A371" s="4" t="s">
         <v>11</v>
       </c>
@@ -17327,7 +17376,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="372">
+    <row r="372" spans="1:10" ht="12.5">
       <c r="A372" s="4" t="s">
         <v>11</v>
       </c>
@@ -17354,7 +17403,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="373">
+    <row r="373" spans="1:10" ht="12.5">
       <c r="A373" s="4" t="s">
         <v>11</v>
       </c>
@@ -17384,7 +17433,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="374">
+    <row r="374" spans="1:10" ht="12.5">
       <c r="A374" s="4" t="s">
         <v>11</v>
       </c>
@@ -17414,7 +17463,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="375">
+    <row r="375" spans="1:10" ht="12.5">
       <c r="A375" s="4" t="s">
         <v>11</v>
       </c>
@@ -17444,7 +17493,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="376">
+    <row r="376" spans="1:10" ht="12.5">
       <c r="A376" s="4" t="s">
         <v>11</v>
       </c>
@@ -17474,7 +17523,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="377">
+    <row r="377" spans="1:10" ht="12.5">
       <c r="A377" s="4" t="s">
         <v>11</v>
       </c>
@@ -17501,7 +17550,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="378">
+    <row r="378" spans="1:10" ht="12.5">
       <c r="A378" s="4" t="s">
         <v>11</v>
       </c>
@@ -17531,7 +17580,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="379">
+    <row r="379" spans="1:10" ht="12.5">
       <c r="A379" s="4" t="s">
         <v>11</v>
       </c>
@@ -17561,7 +17610,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="380">
+    <row r="380" spans="1:10" ht="12.5">
       <c r="A380" s="4" t="s">
         <v>11</v>
       </c>
@@ -17591,7 +17640,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="381">
+    <row r="381" spans="1:10" ht="12.5">
       <c r="A381" s="4" t="s">
         <v>11</v>
       </c>
@@ -17621,7 +17670,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="382">
+    <row r="382" spans="1:10" ht="12.5">
       <c r="A382" s="4" t="s">
         <v>11</v>
       </c>
@@ -17648,7 +17697,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="383">
+    <row r="383" spans="1:10" ht="12.5">
       <c r="A383" s="4" t="s">
         <v>11</v>
       </c>
@@ -17678,7 +17727,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="384">
+    <row r="384" spans="1:10" ht="12.5">
       <c r="A384" s="4" t="s">
         <v>11</v>
       </c>
@@ -17708,7 +17757,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="385">
+    <row r="385" spans="1:10" ht="12.5">
       <c r="A385" s="4" t="s">
         <v>11</v>
       </c>
@@ -17738,7 +17787,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="386">
+    <row r="386" spans="1:10" ht="12.5">
       <c r="A386" s="4" t="s">
         <v>11</v>
       </c>
@@ -17768,7 +17817,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="387">
+    <row r="387" spans="1:10" ht="12.5">
       <c r="A387" s="4" t="s">
         <v>11</v>
       </c>
@@ -17798,7 +17847,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="388">
+    <row r="388" spans="1:10" ht="12.5">
       <c r="A388" s="4" t="s">
         <v>11</v>
       </c>
@@ -17828,7 +17877,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="389">
+    <row r="389" spans="1:10" ht="12.5">
       <c r="A389" s="4" t="s">
         <v>11</v>
       </c>
@@ -17858,7 +17907,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="390">
+    <row r="390" spans="1:10" ht="12.5">
       <c r="A390" s="4" t="s">
         <v>11</v>
       </c>
@@ -17888,7 +17937,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="391">
+    <row r="391" spans="1:10" ht="12.5">
       <c r="A391" s="4" t="s">
         <v>11</v>
       </c>
@@ -17918,7 +17967,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="392">
+    <row r="392" spans="1:10" ht="12.5">
       <c r="A392" s="4" t="s">
         <v>11</v>
       </c>
@@ -17948,7 +17997,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="393">
+    <row r="393" spans="1:10" ht="12.5">
       <c r="A393" s="4" t="s">
         <v>11</v>
       </c>
@@ -17978,7 +18027,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="394">
+    <row r="394" spans="1:10" ht="12.5">
       <c r="A394" s="4" t="s">
         <v>11</v>
       </c>
@@ -18008,7 +18057,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="395">
+    <row r="395" spans="1:10" ht="12.5">
       <c r="A395" s="4" t="s">
         <v>11</v>
       </c>
@@ -18038,7 +18087,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="396">
+    <row r="396" spans="1:10" ht="12.5">
       <c r="A396" s="4" t="s">
         <v>11</v>
       </c>
@@ -18068,7 +18117,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="397">
+    <row r="397" spans="1:10" ht="12.5">
       <c r="A397" s="4" t="s">
         <v>11</v>
       </c>
@@ -18098,7 +18147,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="398">
+    <row r="398" spans="1:10" ht="12.5">
       <c r="A398" s="4" t="s">
         <v>11</v>
       </c>
@@ -18128,7 +18177,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="399">
+    <row r="399" spans="1:10" ht="12.5">
       <c r="A399" s="4" t="s">
         <v>11</v>
       </c>
@@ -18158,7 +18207,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="400">
+    <row r="400" spans="1:10" ht="12.5">
       <c r="A400" s="4" t="s">
         <v>11</v>
       </c>
@@ -18188,7 +18237,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="401">
+    <row r="401" spans="1:10" ht="12.5">
       <c r="A401" s="4" t="s">
         <v>11</v>
       </c>
@@ -18218,7 +18267,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="402">
+    <row r="402" spans="1:10" ht="12.5">
       <c r="A402" s="4" t="s">
         <v>11</v>
       </c>
@@ -18248,7 +18297,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="403">
+    <row r="403" spans="1:10" ht="12.5">
       <c r="A403" s="4" t="s">
         <v>11</v>
       </c>
@@ -18278,7 +18327,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="404">
+    <row r="404" spans="1:10" ht="12.5">
       <c r="A404" s="4" t="s">
         <v>11</v>
       </c>
@@ -18308,7 +18357,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="405">
+    <row r="405" spans="1:10" ht="12.5">
       <c r="A405" s="4" t="s">
         <v>11</v>
       </c>
@@ -18338,7 +18387,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="406">
+    <row r="406" spans="1:10" ht="12.5">
       <c r="A406" s="4" t="s">
         <v>11</v>
       </c>
@@ -18365,7 +18414,7 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="407">
+    <row r="407" spans="1:10" ht="12.5">
       <c r="A407" s="4" t="s">
         <v>11</v>
       </c>
@@ -18395,7 +18444,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="408">
+    <row r="408" spans="1:10" ht="12.5">
       <c r="A408" s="4" t="s">
         <v>11</v>
       </c>
@@ -18425,7 +18474,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="409">
+    <row r="409" spans="1:10" ht="12.5">
       <c r="A409" s="4" t="s">
         <v>11</v>
       </c>
@@ -18455,7 +18504,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="410">
+    <row r="410" spans="1:10" ht="12.5">
       <c r="A410" s="4" t="s">
         <v>11</v>
       </c>
@@ -18482,7 +18531,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="411">
+    <row r="411" spans="1:10" ht="12.5">
       <c r="A411" s="4" t="s">
         <v>11</v>
       </c>
@@ -18509,7 +18558,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="412">
+    <row r="412" spans="1:10" ht="12.5">
       <c r="A412" s="4" t="s">
         <v>11</v>
       </c>
@@ -18539,7 +18588,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="413">
+    <row r="413" spans="1:10" ht="12.5">
       <c r="A413" s="4" t="s">
         <v>11</v>
       </c>
@@ -18569,7 +18618,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="414">
+    <row r="414" spans="1:10" ht="12.5">
       <c r="A414" s="4" t="s">
         <v>11</v>
       </c>
@@ -18599,7 +18648,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="415">
+    <row r="415" spans="1:10" ht="12.5">
       <c r="A415" s="4" t="s">
         <v>11</v>
       </c>
@@ -18629,7 +18678,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="416">
+    <row r="416" spans="1:10" ht="12.5">
       <c r="A416" s="4" t="s">
         <v>11</v>
       </c>
@@ -18659,7 +18708,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="417">
+    <row r="417" spans="1:11" ht="12.5">
       <c r="A417" s="4" t="s">
         <v>11</v>
       </c>
@@ -18689,7 +18738,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="418">
+    <row r="418" spans="1:11" ht="12.5">
       <c r="A418" s="4" t="s">
         <v>11</v>
       </c>
@@ -18719,7 +18768,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="419">
+    <row r="419" spans="1:11" ht="12.5">
       <c r="A419" s="4" t="s">
         <v>11</v>
       </c>
@@ -18750,7 +18799,7 @@
       </c>
       <c r="K419" s="3"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:11" ht="12.5">
       <c r="A420" s="4" t="s">
         <v>11</v>
       </c>
@@ -18780,7 +18829,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="421">
+    <row r="421" spans="1:11" ht="12.5">
       <c r="A421" s="4" t="s">
         <v>11</v>
       </c>
@@ -18810,7 +18859,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="422">
+    <row r="422" spans="1:11" ht="12.5">
       <c r="A422" s="4" t="s">
         <v>11</v>
       </c>
@@ -18837,7 +18886,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="423">
+    <row r="423" spans="1:11" ht="12.5">
       <c r="A423" s="4" t="s">
         <v>11</v>
       </c>
@@ -18867,7 +18916,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="424">
+    <row r="424" spans="1:11" ht="12.5">
       <c r="A424" s="4" t="s">
         <v>11</v>
       </c>
@@ -18897,7 +18946,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="425">
+    <row r="425" spans="1:11" ht="12.5">
       <c r="A425" s="4" t="s">
         <v>11</v>
       </c>
@@ -18925,7 +18974,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="426">
+    <row r="426" spans="1:11" ht="12.5">
       <c r="A426" s="4" t="s">
         <v>11</v>
       </c>
@@ -18955,7 +19004,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="427">
+    <row r="427" spans="1:11" ht="12.5">
       <c r="A427" s="4" t="s">
         <v>11</v>
       </c>
@@ -18985,7 +19034,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="428">
+    <row r="428" spans="1:11" ht="12.5">
       <c r="A428" s="4" t="s">
         <v>11</v>
       </c>
@@ -19015,7 +19064,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="429">
+    <row r="429" spans="1:11" ht="12.5">
       <c r="A429" s="4" t="s">
         <v>11</v>
       </c>
@@ -19045,7 +19094,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="430">
+    <row r="430" spans="1:11" ht="12.5">
       <c r="A430" s="4" t="s">
         <v>11</v>
       </c>
@@ -19073,7 +19122,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="431">
+    <row r="431" spans="1:11" ht="12.5">
       <c r="A431" s="4" t="s">
         <v>11</v>
       </c>
@@ -19100,7 +19149,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="432">
+    <row r="432" spans="1:11" ht="12.5">
       <c r="A432" s="4" t="s">
         <v>11</v>
       </c>
@@ -19130,7 +19179,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="433">
+    <row r="433" spans="1:10" ht="12.5">
       <c r="A433" s="4" t="s">
         <v>11</v>
       </c>
@@ -19160,7 +19209,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="434">
+    <row r="434" spans="1:10" ht="12.5">
       <c r="A434" s="4" t="s">
         <v>11</v>
       </c>
@@ -19190,7 +19239,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="435">
+    <row r="435" spans="1:10" ht="12.5">
       <c r="A435" s="4" t="s">
         <v>11</v>
       </c>
@@ -19220,7 +19269,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="436">
+    <row r="436" spans="1:10" ht="12.5">
       <c r="A436" s="4" t="s">
         <v>11</v>
       </c>
@@ -19250,7 +19299,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="437">
+    <row r="437" spans="1:10" ht="12.5">
       <c r="A437" s="4" t="s">
         <v>11</v>
       </c>
@@ -19277,7 +19326,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="438">
+    <row r="438" spans="1:10" ht="12.5">
       <c r="A438" s="4" t="s">
         <v>11</v>
       </c>
@@ -19307,7 +19356,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="439">
+    <row r="439" spans="1:10" ht="12.5">
       <c r="A439" s="4" t="s">
         <v>11</v>
       </c>
@@ -19337,7 +19386,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="440">
+    <row r="440" spans="1:10" ht="12.5">
       <c r="A440" s="4" t="s">
         <v>11</v>
       </c>
@@ -19367,7 +19416,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="441">
+    <row r="441" spans="1:10" ht="12.5">
       <c r="A441" s="4" t="s">
         <v>11</v>
       </c>
@@ -19397,7 +19446,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="442">
+    <row r="442" spans="1:10" ht="12.5">
       <c r="A442" s="4" t="s">
         <v>11</v>
       </c>
@@ -19427,7 +19476,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="443">
+    <row r="443" spans="1:10" ht="12.5">
       <c r="A443" s="4" t="s">
         <v>11</v>
       </c>
@@ -19455,7 +19504,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="444">
+    <row r="444" spans="1:10" ht="12.5">
       <c r="A444" s="4" t="s">
         <v>11</v>
       </c>
@@ -19485,7 +19534,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="445">
+    <row r="445" spans="1:10" ht="12.5">
       <c r="A445" s="4" t="s">
         <v>11</v>
       </c>
@@ -19513,7 +19562,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="446">
+    <row r="446" spans="1:10" ht="12.5">
       <c r="A446" s="4" t="s">
         <v>11</v>
       </c>
@@ -19541,7 +19590,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="447">
+    <row r="447" spans="1:10" ht="12.5">
       <c r="A447" s="4" t="s">
         <v>11</v>
       </c>
@@ -19571,7 +19620,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="448">
+    <row r="448" spans="1:10" ht="12.5">
       <c r="A448" s="4" t="s">
         <v>11</v>
       </c>
@@ -19599,7 +19648,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="449">
+    <row r="449" spans="1:10" ht="12.5">
       <c r="A449" s="4" t="s">
         <v>11</v>
       </c>
@@ -19629,7 +19678,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="450">
+    <row r="450" spans="1:10" ht="12.5">
       <c r="A450" s="4" t="s">
         <v>11</v>
       </c>
@@ -19657,7 +19706,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="451">
+    <row r="451" spans="1:10" ht="12.5">
       <c r="A451" s="4" t="s">
         <v>11</v>
       </c>
@@ -19685,7 +19734,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="452">
+    <row r="452" spans="1:10" ht="12.5">
       <c r="A452" s="4" t="s">
         <v>11</v>
       </c>
@@ -19715,7 +19764,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="453">
+    <row r="453" spans="1:10" ht="12.5">
       <c r="A453" s="4" t="s">
         <v>11</v>
       </c>
@@ -19743,7 +19792,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="454">
+    <row r="454" spans="1:10" ht="12.5">
       <c r="A454" s="4" t="s">
         <v>11</v>
       </c>
@@ -19771,7 +19820,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="455">
+    <row r="455" spans="1:10" ht="12.5">
       <c r="A455" s="4" t="s">
         <v>11</v>
       </c>
@@ -19799,7 +19848,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="456">
+    <row r="456" spans="1:10" ht="12.5">
       <c r="A456" s="4" t="s">
         <v>11</v>
       </c>
@@ -19829,7 +19878,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="457">
+    <row r="457" spans="1:10" ht="12.5">
       <c r="A457" s="4" t="s">
         <v>11</v>
       </c>
@@ -19857,7 +19906,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="458">
+    <row r="458" spans="1:10" ht="12.5">
       <c r="A458" s="4" t="s">
         <v>11</v>
       </c>
@@ -19887,7 +19936,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="459">
+    <row r="459" spans="1:10" ht="12.5">
       <c r="A459" s="4" t="s">
         <v>11</v>
       </c>
@@ -19917,7 +19966,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="460">
+    <row r="460" spans="1:10" ht="12.5">
       <c r="A460" s="4" t="s">
         <v>11</v>
       </c>
@@ -19947,7 +19996,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="461">
+    <row r="461" spans="1:10" ht="12.5">
       <c r="A461" s="4" t="s">
         <v>11</v>
       </c>
@@ -19977,7 +20026,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="462">
+    <row r="462" spans="1:10" ht="12.5">
       <c r="A462" s="4" t="s">
         <v>11</v>
       </c>
@@ -20007,7 +20056,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="463">
+    <row r="463" spans="1:10" ht="12.5">
       <c r="A463" s="4" t="s">
         <v>11</v>
       </c>
@@ -20037,7 +20086,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="464">
+    <row r="464" spans="1:10" ht="12.5">
       <c r="A464" s="4" t="s">
         <v>11</v>
       </c>
@@ -20067,7 +20116,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="465">
+    <row r="465" spans="1:10" ht="12.5">
       <c r="A465" s="4" t="s">
         <v>11</v>
       </c>
@@ -20097,7 +20146,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="466">
+    <row r="466" spans="1:10" ht="12.5">
       <c r="A466" s="4" t="s">
         <v>11</v>
       </c>
@@ -20127,7 +20176,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="467">
+    <row r="467" spans="1:10" ht="12.5">
       <c r="A467" s="4" t="s">
         <v>11</v>
       </c>
@@ -20154,7 +20203,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="468">
+    <row r="468" spans="1:10" ht="12.5">
       <c r="A468" s="4" t="s">
         <v>11</v>
       </c>
@@ -20184,7 +20233,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="469">
+    <row r="469" spans="1:10" ht="12.5">
       <c r="A469" s="4" t="s">
         <v>11</v>
       </c>
@@ -20214,7 +20263,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="470">
+    <row r="470" spans="1:10" ht="12.5">
       <c r="A470" s="4" t="s">
         <v>11</v>
       </c>
@@ -20244,7 +20293,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="471">
+    <row r="471" spans="1:10" ht="12.5">
       <c r="A471" s="4" t="s">
         <v>11</v>
       </c>
@@ -20274,7 +20323,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="472">
+    <row r="472" spans="1:10" ht="12.5">
       <c r="A472" s="4" t="s">
         <v>11</v>
       </c>
@@ -20304,7 +20353,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="473">
+    <row r="473" spans="1:10" ht="12.5">
       <c r="A473" s="4" t="s">
         <v>11</v>
       </c>
@@ -20334,7 +20383,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="474">
+    <row r="474" spans="1:10" ht="12.5">
       <c r="A474" s="4" t="s">
         <v>11</v>
       </c>
@@ -20361,7 +20410,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="475">
+    <row r="475" spans="1:10" ht="12.5">
       <c r="A475" s="4" t="s">
         <v>11</v>
       </c>
@@ -20391,7 +20440,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="476">
+    <row r="476" spans="1:10" ht="12.5">
       <c r="A476" s="4" t="s">
         <v>11</v>
       </c>
@@ -20418,7 +20467,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="477">
+    <row r="477" spans="1:10" ht="12.5">
       <c r="A477" s="4" t="s">
         <v>11</v>
       </c>
@@ -20448,7 +20497,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="478">
+    <row r="478" spans="1:10" ht="12.5">
       <c r="A478" s="4" t="s">
         <v>11</v>
       </c>
@@ -20478,7 +20527,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="479">
+    <row r="479" spans="1:10" ht="12.5">
       <c r="A479" s="4" t="s">
         <v>11</v>
       </c>
@@ -20505,7 +20554,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="480">
+    <row r="480" spans="1:10" ht="12.5">
       <c r="A480" s="4" t="s">
         <v>11</v>
       </c>
@@ -20535,7 +20584,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="481">
+    <row r="481" spans="1:11" ht="12.5">
       <c r="A481" s="4" t="s">
         <v>11</v>
       </c>
@@ -20562,7 +20611,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="482">
+    <row r="482" spans="1:11" ht="12.5">
       <c r="A482" s="4" t="s">
         <v>11</v>
       </c>
@@ -20592,7 +20641,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="483">
+    <row r="483" spans="1:11" ht="12.5">
       <c r="A483" s="4" t="s">
         <v>11</v>
       </c>
@@ -20622,7 +20671,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="484">
+    <row r="484" spans="1:11" ht="12.5">
       <c r="A484" s="4" t="s">
         <v>11</v>
       </c>
@@ -20652,7 +20701,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="485">
+    <row r="485" spans="1:11" ht="12.5">
       <c r="A485" s="4" t="s">
         <v>11</v>
       </c>
@@ -20680,7 +20729,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="486">
+    <row r="486" spans="1:11" ht="12.5">
       <c r="A486" s="4" t="s">
         <v>11</v>
       </c>
@@ -20710,7 +20759,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="487">
+    <row r="487" spans="1:11" ht="12.5">
       <c r="A487" s="4" t="s">
         <v>11</v>
       </c>
@@ -20740,7 +20789,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="488">
+    <row r="488" spans="1:11" ht="12.5">
       <c r="A488" s="4" t="s">
         <v>11</v>
       </c>
@@ -20767,7 +20816,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="489">
+    <row r="489" spans="1:11" ht="12.5">
       <c r="A489" s="4" t="s">
         <v>11</v>
       </c>
@@ -20799,7 +20848,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="490">
+    <row r="490" spans="1:11" ht="12.5">
       <c r="A490" s="4" t="s">
         <v>11</v>
       </c>
@@ -20829,7 +20878,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="491">
+    <row r="491" spans="1:11" ht="12.5">
       <c r="A491" s="4" t="s">
         <v>11</v>
       </c>
@@ -20859,7 +20908,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="492">
+    <row r="492" spans="1:11" ht="12.5">
       <c r="A492" s="4" t="s">
         <v>11</v>
       </c>
@@ -20889,7 +20938,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="493">
+    <row r="493" spans="1:11" ht="12.5">
       <c r="A493" s="4" t="s">
         <v>11</v>
       </c>
@@ -20919,7 +20968,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="494">
+    <row r="494" spans="1:11" ht="12.5">
       <c r="A494" s="4" t="s">
         <v>11</v>
       </c>
@@ -20949,7 +20998,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="495">
+    <row r="495" spans="1:11" ht="12.5">
       <c r="A495" s="4" t="s">
         <v>11</v>
       </c>
@@ -20980,7 +21029,7 @@
       </c>
       <c r="K495" s="3"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:11" ht="12.5">
       <c r="A496" s="4" t="s">
         <v>11</v>
       </c>
@@ -21010,7 +21059,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="497">
+    <row r="497" spans="1:10" ht="12.5">
       <c r="A497" s="4" t="s">
         <v>11</v>
       </c>
@@ -21040,7 +21089,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="498">
+    <row r="498" spans="1:10" ht="12.5">
       <c r="A498" s="4" t="s">
         <v>11</v>
       </c>
@@ -21070,7 +21119,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="499">
+    <row r="499" spans="1:10" ht="12.5">
       <c r="A499" s="4" t="s">
         <v>11</v>
       </c>
@@ -21100,7 +21149,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="500">
+    <row r="500" spans="1:10" ht="12.5">
       <c r="A500" s="4" t="s">
         <v>11</v>
       </c>
@@ -21130,7 +21179,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="501">
+    <row r="501" spans="1:10" ht="12.5">
       <c r="A501" s="4" t="s">
         <v>11</v>
       </c>
@@ -21160,7 +21209,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="502">
+    <row r="502" spans="1:10" ht="12.5">
       <c r="A502" s="4" t="s">
         <v>11</v>
       </c>
@@ -21187,7 +21236,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="503">
+    <row r="503" spans="1:10" ht="12.5">
       <c r="A503" s="4" t="s">
         <v>11</v>
       </c>
@@ -21217,7 +21266,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="504">
+    <row r="504" spans="1:10" ht="12.5">
       <c r="A504" s="4" t="s">
         <v>11</v>
       </c>
@@ -21245,7 +21294,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="505">
+    <row r="505" spans="1:10" ht="12.5">
       <c r="A505" s="4" t="s">
         <v>11</v>
       </c>
@@ -21273,7 +21322,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="506">
+    <row r="506" spans="1:10" ht="12.5">
       <c r="A506" s="4" t="s">
         <v>11</v>
       </c>
@@ -21303,7 +21352,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="507">
+    <row r="507" spans="1:10" ht="12.5">
       <c r="A507" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21330,7 +21379,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="508">
+    <row r="508" spans="1:10" ht="12.5">
       <c r="A508" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21360,7 +21409,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="509">
+    <row r="509" spans="1:10" ht="12.5">
       <c r="A509" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21390,7 +21439,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="510">
+    <row r="510" spans="1:10" ht="12.5">
       <c r="A510" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21422,7 +21471,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="511">
+    <row r="511" spans="1:10" ht="12.5">
       <c r="A511" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21449,7 +21498,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="512">
+    <row r="512" spans="1:10" ht="12.5">
       <c r="A512" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21476,7 +21525,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="513">
+    <row r="513" spans="1:10" ht="12.5">
       <c r="A513" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21506,7 +21555,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="514">
+    <row r="514" spans="1:10" ht="12.5">
       <c r="A514" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21533,7 +21582,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="515">
+    <row r="515" spans="1:10" ht="12.5">
       <c r="A515" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21563,7 +21612,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="516">
+    <row r="516" spans="1:10" ht="12.5">
       <c r="A516" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21593,7 +21642,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="517">
+    <row r="517" spans="1:10" ht="12.5">
       <c r="A517" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21620,7 +21669,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="518">
+    <row r="518" spans="1:10" ht="12.5">
       <c r="A518" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21650,7 +21699,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="519">
+    <row r="519" spans="1:10" ht="12.5">
       <c r="A519" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21680,7 +21729,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="520">
+    <row r="520" spans="1:10" ht="12.5">
       <c r="A520" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21710,7 +21759,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="521">
+    <row r="521" spans="1:10" ht="12.5">
       <c r="A521" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21740,7 +21789,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="522">
+    <row r="522" spans="1:10" ht="12.5">
       <c r="A522" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21770,7 +21819,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="523">
+    <row r="523" spans="1:10" ht="12.5">
       <c r="A523" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21800,7 +21849,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="524">
+    <row r="524" spans="1:10" ht="12.5">
       <c r="A524" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21828,7 +21877,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="525">
+    <row r="525" spans="1:10" ht="12.5">
       <c r="A525" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21856,7 +21905,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="526">
+    <row r="526" spans="1:10" ht="12.5">
       <c r="A526" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21886,7 +21935,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="527">
+    <row r="527" spans="1:10" ht="12.5">
       <c r="A527" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21916,7 +21965,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="528">
+    <row r="528" spans="1:10" ht="12.5">
       <c r="A528" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21948,7 +21997,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="529">
+    <row r="529" spans="1:10" ht="12.5">
       <c r="A529" s="4" t="s">
         <v>1510</v>
       </c>
@@ -21978,7 +22027,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="530">
+    <row r="530" spans="1:10" ht="12.5">
       <c r="A530" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22008,7 +22057,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="531">
+    <row r="531" spans="1:10" ht="12.5">
       <c r="A531" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22038,7 +22087,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="532">
+    <row r="532" spans="1:10" ht="12.5">
       <c r="A532" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22068,7 +22117,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="533">
+    <row r="533" spans="1:10" ht="12.5">
       <c r="A533" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22098,7 +22147,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="534">
+    <row r="534" spans="1:10" ht="12.5">
       <c r="A534" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22126,7 +22175,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="535">
+    <row r="535" spans="1:10" ht="12.5">
       <c r="A535" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22154,7 +22203,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="536">
+    <row r="536" spans="1:10" ht="12.5">
       <c r="A536" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22182,7 +22231,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="537">
+    <row r="537" spans="1:10" ht="12.5">
       <c r="A537" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22210,7 +22259,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="538">
+    <row r="538" spans="1:10" ht="12.5">
       <c r="A538" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22238,7 +22287,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="539">
+    <row r="539" spans="1:10" ht="12.5">
       <c r="A539" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22268,7 +22317,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="540">
+    <row r="540" spans="1:10" ht="12.5">
       <c r="A540" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22298,7 +22347,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="541">
+    <row r="541" spans="1:10" ht="12.5">
       <c r="A541" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22326,7 +22375,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="542">
+    <row r="542" spans="1:10" ht="12.5">
       <c r="A542" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22354,7 +22403,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="543">
+    <row r="543" spans="1:10" ht="12.5">
       <c r="A543" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22384,7 +22433,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="544">
+    <row r="544" spans="1:10" ht="12.5">
       <c r="A544" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22412,7 +22461,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="545">
+    <row r="545" spans="1:10" ht="12.5">
       <c r="A545" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22442,7 +22491,7 @@
         <v>1619</v>
       </c>
     </row>
-    <row r="546">
+    <row r="546" spans="1:10" ht="12.5">
       <c r="A546" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22472,7 +22521,7 @@
         <v>1622</v>
       </c>
     </row>
-    <row r="547">
+    <row r="547" spans="1:10" ht="12.5">
       <c r="A547" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22499,7 +22548,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="548">
+    <row r="548" spans="1:10" ht="12.5">
       <c r="A548" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22528,7 +22577,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="549">
+    <row r="549" spans="1:10" ht="12.5">
       <c r="A549" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22555,7 +22604,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="550">
+    <row r="550" spans="1:10" ht="12.5">
       <c r="A550" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22585,7 +22634,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="551">
+    <row r="551" spans="1:10" ht="12.5">
       <c r="A551" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22615,7 +22664,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="552">
+    <row r="552" spans="1:10" ht="12.5">
       <c r="A552" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22645,7 +22694,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="553">
+    <row r="553" spans="1:10" ht="12.5">
       <c r="A553" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22675,7 +22724,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="554">
+    <row r="554" spans="1:10" ht="12.5">
       <c r="A554" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22705,7 +22754,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="555">
+    <row r="555" spans="1:10" ht="12.5">
       <c r="A555" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22732,7 +22781,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="556">
+    <row r="556" spans="1:10" ht="12.5">
       <c r="A556" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22762,7 +22811,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="557">
+    <row r="557" spans="1:10" ht="12.5">
       <c r="A557" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22792,7 +22841,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="558">
+    <row r="558" spans="1:10" ht="12.5">
       <c r="A558" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22822,7 +22871,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="559">
+    <row r="559" spans="1:10" ht="12.5">
       <c r="A559" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22850,7 +22899,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="560">
+    <row r="560" spans="1:10" ht="12.5">
       <c r="A560" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22878,7 +22927,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="561">
+    <row r="561" spans="1:10" ht="12.5">
       <c r="A561" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22908,7 +22957,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="562">
+    <row r="562" spans="1:10" ht="12.5">
       <c r="A562" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22938,7 +22987,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="563">
+    <row r="563" spans="1:10" ht="12.5">
       <c r="A563" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22968,7 +23017,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="564">
+    <row r="564" spans="1:10" ht="12.5">
       <c r="A564" s="4" t="s">
         <v>1510</v>
       </c>
@@ -22995,7 +23044,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="565">
+    <row r="565" spans="1:10" ht="12.5">
       <c r="A565" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23023,7 +23072,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="566">
+    <row r="566" spans="1:10" ht="12.5">
       <c r="A566" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23051,7 +23100,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="567">
+    <row r="567" spans="1:10" ht="12.5">
       <c r="A567" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23081,7 +23130,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="568">
+    <row r="568" spans="1:10" ht="12.5">
       <c r="A568" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23109,7 +23158,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="569">
+    <row r="569" spans="1:10" ht="12.5">
       <c r="A569" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23141,7 +23190,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="570">
+    <row r="570" spans="1:10" ht="12.5">
       <c r="A570" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23171,7 +23220,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="571">
+    <row r="571" spans="1:10" ht="12.5">
       <c r="A571" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23201,7 +23250,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="572">
+    <row r="572" spans="1:10" ht="12.5">
       <c r="A572" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23231,7 +23280,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="573">
+    <row r="573" spans="1:10" ht="12.5">
       <c r="A573" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23259,7 +23308,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="574">
+    <row r="574" spans="1:10" ht="12.5">
       <c r="A574" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23287,7 +23336,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="575">
+    <row r="575" spans="1:10" ht="12.5">
       <c r="A575" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23317,7 +23366,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="576">
+    <row r="576" spans="1:10" ht="12.5">
       <c r="A576" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23344,7 +23393,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="577">
+    <row r="577" spans="1:10" ht="12.5">
       <c r="A577" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23372,7 +23421,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="578">
+    <row r="578" spans="1:10" ht="12.5">
       <c r="A578" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23400,7 +23449,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="579">
+    <row r="579" spans="1:10" ht="12.5">
       <c r="A579" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23428,7 +23477,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="580">
+    <row r="580" spans="1:10" ht="12.5">
       <c r="A580" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23456,7 +23505,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="581">
+    <row r="581" spans="1:10" ht="12.5">
       <c r="A581" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23486,7 +23535,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="582">
+    <row r="582" spans="1:10" ht="12.5">
       <c r="A582" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23513,7 +23562,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="583">
+    <row r="583" spans="1:10" ht="12.5">
       <c r="A583" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23543,7 +23592,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="584">
+    <row r="584" spans="1:10" ht="12.5">
       <c r="A584" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23573,7 +23622,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="585">
+    <row r="585" spans="1:10" ht="12.5">
       <c r="A585" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23600,7 +23649,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="586">
+    <row r="586" spans="1:10" ht="12.5">
       <c r="A586" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23630,7 +23679,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="587">
+    <row r="587" spans="1:10" ht="12.5">
       <c r="A587" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23660,7 +23709,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="588">
+    <row r="588" spans="1:10" ht="12.5">
       <c r="A588" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23690,7 +23739,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="589">
+    <row r="589" spans="1:10" ht="12.5">
       <c r="A589" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23718,7 +23767,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="590">
+    <row r="590" spans="1:10" ht="12.5">
       <c r="A590" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23748,7 +23797,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="591">
+    <row r="591" spans="1:10" ht="12.5">
       <c r="A591" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23778,7 +23827,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="592">
+    <row r="592" spans="1:10" ht="12.5">
       <c r="A592" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23806,7 +23855,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="593">
+    <row r="593" spans="1:10" ht="12.5">
       <c r="A593" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23836,7 +23885,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="594">
+    <row r="594" spans="1:10" ht="12.5">
       <c r="A594" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23868,7 +23917,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="595">
+    <row r="595" spans="1:10" ht="12.5">
       <c r="A595" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23900,7 +23949,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="596">
+    <row r="596" spans="1:10" ht="12.5">
       <c r="A596" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23930,7 +23979,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="597">
+    <row r="597" spans="1:10" ht="12.5">
       <c r="A597" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23958,7 +24007,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="598">
+    <row r="598" spans="1:10" ht="12.5">
       <c r="A598" s="4" t="s">
         <v>1510</v>
       </c>
@@ -23986,7 +24035,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="599">
+    <row r="599" spans="1:10" ht="12.5">
       <c r="A599" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24016,7 +24065,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="600">
+    <row r="600" spans="1:10" ht="12.5">
       <c r="A600" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24046,7 +24095,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="601">
+    <row r="601" spans="1:10" ht="12.5">
       <c r="A601" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24078,7 +24127,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="602">
+    <row r="602" spans="1:10" ht="12.5">
       <c r="A602" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24110,7 +24159,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="603">
+    <row r="603" spans="1:10" ht="12.5">
       <c r="A603" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24139,7 +24188,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="604">
+    <row r="604" spans="1:10" ht="12.5">
       <c r="A604" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24167,7 +24216,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="605">
+    <row r="605" spans="1:10" ht="12.5">
       <c r="A605" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24197,7 +24246,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="606">
+    <row r="606" spans="1:10" ht="12.5">
       <c r="A606" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24227,7 +24276,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="607">
+    <row r="607" spans="1:10" ht="12.5">
       <c r="A607" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24259,7 +24308,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="608">
+    <row r="608" spans="1:10" ht="12.5">
       <c r="A608" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24287,7 +24336,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="609">
+    <row r="609" spans="1:10" ht="12.5">
       <c r="A609" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24315,7 +24364,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="610">
+    <row r="610" spans="1:10" ht="12.5">
       <c r="A610" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24343,7 +24392,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="611">
+    <row r="611" spans="1:10" ht="12.5">
       <c r="A611" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24373,7 +24422,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="612">
+    <row r="612" spans="1:10" ht="12.5">
       <c r="A612" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24403,7 +24452,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="613">
+    <row r="613" spans="1:10" ht="12.5">
       <c r="A613" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24430,7 +24479,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="614">
+    <row r="614" spans="1:10" ht="12.5">
       <c r="A614" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24457,7 +24506,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="615">
+    <row r="615" spans="1:10" ht="12.5">
       <c r="A615" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24487,7 +24536,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="616">
+    <row r="616" spans="1:10" ht="12.5">
       <c r="A616" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24517,7 +24566,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="617">
+    <row r="617" spans="1:10" ht="12.5">
       <c r="A617" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24545,7 +24594,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="618">
+    <row r="618" spans="1:10" ht="12.5">
       <c r="A618" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24573,7 +24622,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="619">
+    <row r="619" spans="1:10" ht="12.5">
       <c r="A619" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24603,7 +24652,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="620">
+    <row r="620" spans="1:10" ht="12.5">
       <c r="A620" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24633,7 +24682,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="621">
+    <row r="621" spans="1:10" ht="12.5">
       <c r="A621" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24663,7 +24712,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="622">
+    <row r="622" spans="1:10" ht="12.5">
       <c r="A622" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24693,7 +24742,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="623">
+    <row r="623" spans="1:10" ht="12.5">
       <c r="A623" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24723,7 +24772,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="624">
+    <row r="624" spans="1:10" ht="12.5">
       <c r="A624" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24753,7 +24802,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="625">
+    <row r="625" spans="1:11" ht="12.5">
       <c r="A625" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24783,7 +24832,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="626">
+    <row r="626" spans="1:11" ht="12.5">
       <c r="A626" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24810,7 +24859,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="627">
+    <row r="627" spans="1:11" ht="12.5">
       <c r="A627" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24840,7 +24889,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="628">
+    <row r="628" spans="1:11" ht="12.5">
       <c r="A628" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24870,7 +24919,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="629">
+    <row r="629" spans="1:11" ht="12.5">
       <c r="A629" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24898,7 +24947,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="630">
+    <row r="630" spans="1:11" ht="12.5">
       <c r="A630" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24926,7 +24975,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="631">
+    <row r="631" spans="1:11" ht="12.5">
       <c r="A631" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24956,7 +25005,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="632">
+    <row r="632" spans="1:11" ht="12.5">
       <c r="A632" s="4" t="s">
         <v>1510</v>
       </c>
@@ -24984,7 +25033,7 @@
         <v>1834</v>
       </c>
     </row>
-    <row r="633">
+    <row r="633" spans="1:11" ht="12.5">
       <c r="A633" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25014,7 +25063,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="634">
+    <row r="634" spans="1:11" ht="12.5">
       <c r="A634" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25044,7 +25093,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="635">
+    <row r="635" spans="1:11" ht="12.5">
       <c r="A635" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25074,7 +25123,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="636">
+    <row r="636" spans="1:11" ht="12.5">
       <c r="A636" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25102,7 +25151,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="637">
+    <row r="637" spans="1:11" ht="12.5">
       <c r="A637" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25130,7 +25179,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="638">
+    <row r="638" spans="1:11" ht="12.5">
       <c r="A638" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25158,7 +25207,7 @@
       </c>
       <c r="K638" s="3"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:11" ht="12.5">
       <c r="A639" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25188,7 +25237,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="640">
+    <row r="640" spans="1:11" ht="12.5">
       <c r="A640" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25218,7 +25267,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="641">
+    <row r="641" spans="1:10" ht="12.5">
       <c r="A641" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25248,7 +25297,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="642">
+    <row r="642" spans="1:10" ht="12.5">
       <c r="A642" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25278,7 +25327,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="643">
+    <row r="643" spans="1:10" ht="12.5">
       <c r="A643" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25308,7 +25357,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="644">
+    <row r="644" spans="1:10" ht="12.5">
       <c r="A644" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25338,7 +25387,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="645">
+    <row r="645" spans="1:10" ht="12.5">
       <c r="A645" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25368,7 +25417,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="646">
+    <row r="646" spans="1:10" ht="12.5">
       <c r="A646" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25398,7 +25447,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="647">
+    <row r="647" spans="1:10" ht="12.5">
       <c r="A647" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25428,7 +25477,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="648">
+    <row r="648" spans="1:10" ht="12.5">
       <c r="A648" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25456,7 +25505,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="649">
+    <row r="649" spans="1:10" ht="12.5">
       <c r="A649" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25484,7 +25533,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="650">
+    <row r="650" spans="1:10" ht="12.5">
       <c r="A650" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25512,7 +25561,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="651">
+    <row r="651" spans="1:10" ht="12.5">
       <c r="A651" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25540,7 +25589,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="652">
+    <row r="652" spans="1:10" ht="12.5">
       <c r="A652" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25568,7 +25617,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="653">
+    <row r="653" spans="1:10" ht="12.5">
       <c r="A653" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25596,7 +25645,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="654">
+    <row r="654" spans="1:10" ht="12.5">
       <c r="A654" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25624,7 +25673,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="655">
+    <row r="655" spans="1:10" ht="12.5">
       <c r="A655" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25652,7 +25701,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="656">
+    <row r="656" spans="1:10" ht="12.5">
       <c r="A656" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25682,7 +25731,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="657">
+    <row r="657" spans="1:10" ht="12.5">
       <c r="A657" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25712,7 +25761,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="658">
+    <row r="658" spans="1:10" ht="12.5">
       <c r="A658" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25740,7 +25789,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="659">
+    <row r="659" spans="1:10" ht="12.5">
       <c r="A659" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25768,7 +25817,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="660">
+    <row r="660" spans="1:10" ht="12.5">
       <c r="A660" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25798,7 +25847,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="661">
+    <row r="661" spans="1:10" ht="12.5">
       <c r="A661" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25828,7 +25877,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="662">
+    <row r="662" spans="1:10" ht="12.5">
       <c r="A662" s="4" t="s">
         <v>1510</v>
       </c>
@@ -25856,7 +25905,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="663">
+    <row r="663" spans="1:10" ht="12.5">
       <c r="A663" s="4" t="s">
         <v>1911</v>
       </c>
@@ -25886,7 +25935,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="664">
+    <row r="664" spans="1:10" ht="12.5">
       <c r="A664" s="4" t="s">
         <v>1911</v>
       </c>
@@ -25915,7 +25964,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="665">
+    <row r="665" spans="1:10" ht="12.5">
       <c r="A665" s="4" t="s">
         <v>1911</v>
       </c>
@@ -25945,7 +25994,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="666">
+    <row r="666" spans="1:10" ht="12.5">
       <c r="A666" s="4" t="s">
         <v>1911</v>
       </c>
@@ -25975,7 +26024,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="667">
+    <row r="667" spans="1:10" ht="12.5">
       <c r="A667" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26005,7 +26054,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="668">
+    <row r="668" spans="1:10" ht="12.5">
       <c r="A668" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26035,7 +26084,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="669">
+    <row r="669" spans="1:10" ht="12.5">
       <c r="A669" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26065,7 +26114,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="670">
+    <row r="670" spans="1:10" ht="12.5">
       <c r="A670" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26095,7 +26144,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="671">
+    <row r="671" spans="1:10" ht="12.5">
       <c r="A671" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26123,7 +26172,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="672">
+    <row r="672" spans="1:10" ht="12.5">
       <c r="A672" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26151,7 +26200,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="673">
+    <row r="673" spans="1:10" ht="12.5">
       <c r="A673" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26181,7 +26230,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="674">
+    <row r="674" spans="1:10" ht="12.5">
       <c r="A674" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26211,7 +26260,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="675">
+    <row r="675" spans="1:10" ht="12.5">
       <c r="A675" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26241,7 +26290,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="676">
+    <row r="676" spans="1:10" ht="12.5">
       <c r="A676" s="4" t="s">
         <v>1911</v>
       </c>
@@ -26269,7 +26318,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="677">
+    <row r="677" spans="1:10" ht="12.5">
       <c r="A677" s="32" t="s">
         <v>11</v>
       </c>
@@ -26297,7 +26346,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="678">
+    <row r="678" spans="1:10" ht="12.5">
       <c r="A678" s="32" t="s">
         <v>11</v>
       </c>
@@ -26327,7 +26376,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="679">
+    <row r="679" spans="1:10" ht="12.5">
       <c r="A679" s="32" t="s">
         <v>11</v>
       </c>
@@ -26357,43 +26406,95 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="680">
-      <c r="A680" s="6"/>
-      <c r="B680" s="6"/>
-      <c r="C680" s="22"/>
-      <c r="D680" s="22"/>
-      <c r="E680" s="6"/>
-      <c r="F680" s="22"/>
-      <c r="G680" s="6"/>
+    <row r="680" spans="1:10" ht="12.5">
+      <c r="A680" s="43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B680" s="43" t="s">
+        <v>985</v>
+      </c>
+      <c r="C680" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D680" s="43" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E680" s="43" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F680" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G680" s="43" t="s">
+        <v>17</v>
+      </c>
       <c r="H680" s="6"/>
-      <c r="I680" s="26"/>
-      <c r="J680" s="28"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="6"/>
-      <c r="B681" s="6"/>
+      <c r="I680" s="42" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J680" s="41" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="681" spans="1:10" ht="12.5">
+      <c r="A681" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B681" s="43" t="s">
+        <v>13</v>
+      </c>
       <c r="C681" s="22"/>
-      <c r="D681" s="22"/>
-      <c r="E681" s="6"/>
-      <c r="F681" s="22"/>
-      <c r="G681" s="6"/>
+      <c r="D681" s="43" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E681" s="43" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F681" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G681" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="H681" s="6"/>
-      <c r="I681" s="26"/>
-      <c r="J681" s="28"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="6"/>
-      <c r="B682" s="6"/>
-      <c r="C682" s="22"/>
-      <c r="D682" s="22"/>
-      <c r="E682" s="6"/>
-      <c r="F682" s="22"/>
-      <c r="G682" s="6"/>
+      <c r="I681" s="42" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J681" s="41" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="682" spans="1:10" ht="12.5">
+      <c r="A682" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B682" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C682" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D682" s="43" t="s">
+        <v>1965</v>
+      </c>
+      <c r="E682" s="43" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F682" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G682" s="43" t="s">
+        <v>25</v>
+      </c>
       <c r="H682" s="6"/>
-      <c r="I682" s="26"/>
-      <c r="J682" s="28"/>
-    </row>
-    <row r="683">
+      <c r="I682" s="42" t="s">
+        <v>1964</v>
+      </c>
+      <c r="J682" s="41" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="683" spans="1:10" ht="12.5">
       <c r="A683" s="6"/>
       <c r="B683" s="6"/>
       <c r="C683" s="22"/>
@@ -26405,7 +26506,7 @@
       <c r="I683" s="26"/>
       <c r="J683" s="28"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:10" ht="12.5">
       <c r="A684" s="6"/>
       <c r="B684" s="6"/>
       <c r="C684" s="22"/>
@@ -26417,7 +26518,7 @@
       <c r="I684" s="26"/>
       <c r="J684" s="28"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:10" ht="12.5">
       <c r="A685" s="6"/>
       <c r="B685" s="6"/>
       <c r="C685" s="22"/>
@@ -26429,7 +26530,7 @@
       <c r="I685" s="26"/>
       <c r="J685" s="28"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:10" ht="12.5">
       <c r="A686" s="6"/>
       <c r="B686" s="6"/>
       <c r="C686" s="22"/>
@@ -26441,7 +26542,7 @@
       <c r="I686" s="26"/>
       <c r="J686" s="28"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:10" ht="12.5">
       <c r="A687" s="6"/>
       <c r="B687" s="6"/>
       <c r="C687" s="22"/>
@@ -26453,7 +26554,7 @@
       <c r="I687" s="26"/>
       <c r="J687" s="28"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:10" ht="12.5">
       <c r="A688" s="6"/>
       <c r="B688" s="6"/>
       <c r="C688" s="22"/>
@@ -26465,7 +26566,7 @@
       <c r="I688" s="26"/>
       <c r="J688" s="28"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:10" ht="12.5">
       <c r="A689" s="6"/>
       <c r="B689" s="6"/>
       <c r="C689" s="22"/>
@@ -26477,7 +26578,7 @@
       <c r="I689" s="26"/>
       <c r="J689" s="28"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:10" ht="12.5">
       <c r="A690" s="6"/>
       <c r="B690" s="6"/>
       <c r="C690" s="22"/>
@@ -26489,7 +26590,7 @@
       <c r="I690" s="26"/>
       <c r="J690" s="28"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:10" ht="12.5">
       <c r="A691" s="6"/>
       <c r="B691" s="6"/>
       <c r="C691" s="22"/>
@@ -26501,7 +26602,7 @@
       <c r="I691" s="26"/>
       <c r="J691" s="28"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:10" ht="12.5">
       <c r="A692" s="6"/>
       <c r="B692" s="6"/>
       <c r="C692" s="22"/>
@@ -26513,7 +26614,7 @@
       <c r="I692" s="26"/>
       <c r="J692" s="28"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:10" ht="12.5">
       <c r="A693" s="6"/>
       <c r="B693" s="6"/>
       <c r="C693" s="22"/>
@@ -26525,7 +26626,7 @@
       <c r="I693" s="26"/>
       <c r="J693" s="28"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:10" ht="12.5">
       <c r="A694" s="6"/>
       <c r="B694" s="6"/>
       <c r="C694" s="22"/>
@@ -26537,7 +26638,7 @@
       <c r="I694" s="26"/>
       <c r="J694" s="28"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:10" ht="12.5">
       <c r="A695" s="6"/>
       <c r="B695" s="6"/>
       <c r="C695" s="22"/>
@@ -26549,7 +26650,7 @@
       <c r="I695" s="26"/>
       <c r="J695" s="28"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:10" ht="12.5">
       <c r="A696" s="6"/>
       <c r="B696" s="6"/>
       <c r="C696" s="22"/>
@@ -26561,7 +26662,7 @@
       <c r="I696" s="26"/>
       <c r="J696" s="28"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:10" ht="12.5">
       <c r="A697" s="6"/>
       <c r="B697" s="6"/>
       <c r="C697" s="22"/>
@@ -26573,7 +26674,7 @@
       <c r="I697" s="26"/>
       <c r="J697" s="28"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:10" ht="12.5">
       <c r="A698" s="6"/>
       <c r="B698" s="6"/>
       <c r="C698" s="22"/>
@@ -26585,7 +26686,7 @@
       <c r="I698" s="26"/>
       <c r="J698" s="28"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:10" ht="12.5">
       <c r="A699" s="6"/>
       <c r="B699" s="6"/>
       <c r="C699" s="22"/>
@@ -26597,7 +26698,7 @@
       <c r="I699" s="26"/>
       <c r="J699" s="28"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:10" ht="12.5">
       <c r="A700" s="6"/>
       <c r="B700" s="6"/>
       <c r="C700" s="22"/>
@@ -26609,7 +26710,7 @@
       <c r="I700" s="26"/>
       <c r="J700" s="28"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:10" ht="12.5">
       <c r="A701" s="6"/>
       <c r="B701" s="6"/>
       <c r="C701" s="22"/>
@@ -26621,7 +26722,7 @@
       <c r="I701" s="26"/>
       <c r="J701" s="28"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:10" ht="12.5">
       <c r="A702" s="6"/>
       <c r="B702" s="6"/>
       <c r="C702" s="22"/>
@@ -26633,7 +26734,7 @@
       <c r="I702" s="26"/>
       <c r="J702" s="28"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:10" ht="12.5">
       <c r="A703" s="6"/>
       <c r="B703" s="6"/>
       <c r="C703" s="22"/>
@@ -26645,7 +26746,7 @@
       <c r="I703" s="26"/>
       <c r="J703" s="28"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:10" ht="12.5">
       <c r="A704" s="6"/>
       <c r="B704" s="6"/>
       <c r="C704" s="22"/>
@@ -26657,7 +26758,7 @@
       <c r="I704" s="26"/>
       <c r="J704" s="28"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:10" ht="12.5">
       <c r="A705" s="6"/>
       <c r="B705" s="6"/>
       <c r="C705" s="22"/>
@@ -26669,7 +26770,7 @@
       <c r="I705" s="26"/>
       <c r="J705" s="28"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:10" ht="12.5">
       <c r="A706" s="6"/>
       <c r="B706" s="6"/>
       <c r="C706" s="22"/>
@@ -26681,7 +26782,7 @@
       <c r="I706" s="26"/>
       <c r="J706" s="28"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:10" ht="12.5">
       <c r="A707" s="6"/>
       <c r="B707" s="6"/>
       <c r="C707" s="22"/>
@@ -26693,7 +26794,7 @@
       <c r="I707" s="26"/>
       <c r="J707" s="28"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:10" ht="12.5">
       <c r="A708" s="6"/>
       <c r="B708" s="6"/>
       <c r="C708" s="22"/>
@@ -26705,7 +26806,7 @@
       <c r="I708" s="26"/>
       <c r="J708" s="28"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:10" ht="12.5">
       <c r="A709" s="6"/>
       <c r="B709" s="6"/>
       <c r="C709" s="22"/>
@@ -26717,7 +26818,7 @@
       <c r="I709" s="26"/>
       <c r="J709" s="28"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:10" ht="12.5">
       <c r="A710" s="6"/>
       <c r="B710" s="6"/>
       <c r="C710" s="22"/>
@@ -26729,7 +26830,7 @@
       <c r="I710" s="26"/>
       <c r="J710" s="28"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:10" ht="12.5">
       <c r="A711" s="6"/>
       <c r="B711" s="6"/>
       <c r="C711" s="22"/>
@@ -26741,7 +26842,7 @@
       <c r="I711" s="26"/>
       <c r="J711" s="28"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:10" ht="12.5">
       <c r="A712" s="6"/>
       <c r="B712" s="6"/>
       <c r="C712" s="22"/>
@@ -26753,7 +26854,7 @@
       <c r="I712" s="26"/>
       <c r="J712" s="28"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:10" ht="12.5">
       <c r="A713" s="6"/>
       <c r="B713" s="6"/>
       <c r="C713" s="22"/>
@@ -26765,7 +26866,7 @@
       <c r="I713" s="26"/>
       <c r="J713" s="28"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:10" ht="12.5">
       <c r="A714" s="6"/>
       <c r="B714" s="6"/>
       <c r="C714" s="22"/>
@@ -26777,7 +26878,7 @@
       <c r="I714" s="26"/>
       <c r="J714" s="28"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:10" ht="12.5">
       <c r="A715" s="6"/>
       <c r="B715" s="6"/>
       <c r="C715" s="22"/>
@@ -26789,7 +26890,7 @@
       <c r="I715" s="26"/>
       <c r="J715" s="28"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:10" ht="12.5">
       <c r="A716" s="6"/>
       <c r="B716" s="6"/>
       <c r="C716" s="22"/>
@@ -26801,7 +26902,7 @@
       <c r="I716" s="26"/>
       <c r="J716" s="28"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:10" ht="12.5">
       <c r="A717" s="6"/>
       <c r="B717" s="6"/>
       <c r="C717" s="22"/>
@@ -26813,7 +26914,7 @@
       <c r="I717" s="26"/>
       <c r="J717" s="28"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:10" ht="12.5">
       <c r="A718" s="6"/>
       <c r="B718" s="6"/>
       <c r="C718" s="22"/>
@@ -26825,7 +26926,7 @@
       <c r="I718" s="26"/>
       <c r="J718" s="28"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:10" ht="12.5">
       <c r="A719" s="6"/>
       <c r="B719" s="6"/>
       <c r="C719" s="22"/>
@@ -26837,7 +26938,7 @@
       <c r="I719" s="26"/>
       <c r="J719" s="28"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:10" ht="12.5">
       <c r="A720" s="6"/>
       <c r="B720" s="6"/>
       <c r="C720" s="22"/>
@@ -26849,7 +26950,7 @@
       <c r="I720" s="26"/>
       <c r="J720" s="28"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:10" ht="12.5">
       <c r="A721" s="6"/>
       <c r="B721" s="6"/>
       <c r="C721" s="22"/>
@@ -26861,7 +26962,7 @@
       <c r="I721" s="26"/>
       <c r="J721" s="28"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:10" ht="12.5">
       <c r="A722" s="6"/>
       <c r="B722" s="6"/>
       <c r="C722" s="22"/>
@@ -26873,7 +26974,7 @@
       <c r="I722" s="26"/>
       <c r="J722" s="28"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:10" ht="12.5">
       <c r="A723" s="6"/>
       <c r="B723" s="6"/>
       <c r="C723" s="22"/>
@@ -26885,7 +26986,7 @@
       <c r="I723" s="26"/>
       <c r="J723" s="28"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:10" ht="12.5">
       <c r="A724" s="6"/>
       <c r="B724" s="6"/>
       <c r="C724" s="22"/>
@@ -26897,7 +26998,7 @@
       <c r="I724" s="26"/>
       <c r="J724" s="28"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:10" ht="12.5">
       <c r="A725" s="6"/>
       <c r="B725" s="6"/>
       <c r="C725" s="22"/>
@@ -26909,7 +27010,7 @@
       <c r="I725" s="26"/>
       <c r="J725" s="28"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:10" ht="12.5">
       <c r="A726" s="6"/>
       <c r="B726" s="6"/>
       <c r="C726" s="22"/>
@@ -26921,7 +27022,7 @@
       <c r="I726" s="26"/>
       <c r="J726" s="28"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:10" ht="12.5">
       <c r="A727" s="6"/>
       <c r="B727" s="6"/>
       <c r="C727" s="22"/>
@@ -26933,7 +27034,7 @@
       <c r="I727" s="26"/>
       <c r="J727" s="28"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:10" ht="12.5">
       <c r="A728" s="6"/>
       <c r="B728" s="6"/>
       <c r="C728" s="22"/>
@@ -26945,7 +27046,7 @@
       <c r="I728" s="26"/>
       <c r="J728" s="28"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:10" ht="12.5">
       <c r="A729" s="6"/>
       <c r="B729" s="6"/>
       <c r="C729" s="22"/>
@@ -26957,7 +27058,7 @@
       <c r="I729" s="26"/>
       <c r="J729" s="28"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:10" ht="12.5">
       <c r="A730" s="6"/>
       <c r="B730" s="6"/>
       <c r="C730" s="22"/>
@@ -26969,7 +27070,7 @@
       <c r="I730" s="26"/>
       <c r="J730" s="28"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:10" ht="12.5">
       <c r="A731" s="6"/>
       <c r="B731" s="6"/>
       <c r="C731" s="22"/>
@@ -26981,7 +27082,7 @@
       <c r="I731" s="26"/>
       <c r="J731" s="28"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:10" ht="12.5">
       <c r="A732" s="6"/>
       <c r="B732" s="6"/>
       <c r="C732" s="22"/>
@@ -26993,7 +27094,7 @@
       <c r="I732" s="26"/>
       <c r="J732" s="28"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:10" ht="12.5">
       <c r="A733" s="6"/>
       <c r="B733" s="6"/>
       <c r="C733" s="22"/>
@@ -27005,7 +27106,7 @@
       <c r="I733" s="26"/>
       <c r="J733" s="28"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:10" ht="12.5">
       <c r="A734" s="6"/>
       <c r="B734" s="6"/>
       <c r="C734" s="22"/>
@@ -27017,7 +27118,7 @@
       <c r="I734" s="26"/>
       <c r="J734" s="28"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:10" ht="12.5">
       <c r="A735" s="6"/>
       <c r="B735" s="6"/>
       <c r="C735" s="22"/>
@@ -27029,7 +27130,7 @@
       <c r="I735" s="26"/>
       <c r="J735" s="28"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:10" ht="12.5">
       <c r="A736" s="6"/>
       <c r="B736" s="6"/>
       <c r="C736" s="22"/>
@@ -27041,7 +27142,7 @@
       <c r="I736" s="26"/>
       <c r="J736" s="28"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:10" ht="12.5">
       <c r="A737" s="6"/>
       <c r="B737" s="6"/>
       <c r="C737" s="22"/>
@@ -27053,7 +27154,7 @@
       <c r="I737" s="26"/>
       <c r="J737" s="28"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:10" ht="12.5">
       <c r="A738" s="6"/>
       <c r="B738" s="6"/>
       <c r="C738" s="22"/>
@@ -27065,7 +27166,7 @@
       <c r="I738" s="26"/>
       <c r="J738" s="28"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:10" ht="12.5">
       <c r="A739" s="6"/>
       <c r="B739" s="6"/>
       <c r="C739" s="22"/>
@@ -27077,7 +27178,7 @@
       <c r="I739" s="26"/>
       <c r="J739" s="28"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:10" ht="12.5">
       <c r="A740" s="6"/>
       <c r="B740" s="6"/>
       <c r="C740" s="22"/>
@@ -27089,7 +27190,7 @@
       <c r="I740" s="26"/>
       <c r="J740" s="28"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:10" ht="12.5">
       <c r="A741" s="6"/>
       <c r="B741" s="6"/>
       <c r="C741" s="22"/>
@@ -27101,7 +27202,7 @@
       <c r="I741" s="26"/>
       <c r="J741" s="28"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:10" ht="12.5">
       <c r="A742" s="6"/>
       <c r="B742" s="6"/>
       <c r="C742" s="22"/>
@@ -27113,7 +27214,7 @@
       <c r="I742" s="26"/>
       <c r="J742" s="28"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:10" ht="12.5">
       <c r="A743" s="6"/>
       <c r="B743" s="6"/>
       <c r="C743" s="22"/>
@@ -27125,7 +27226,7 @@
       <c r="I743" s="26"/>
       <c r="J743" s="28"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:10" ht="12.5">
       <c r="A744" s="6"/>
       <c r="B744" s="6"/>
       <c r="C744" s="22"/>
@@ -27137,7 +27238,7 @@
       <c r="I744" s="26"/>
       <c r="J744" s="28"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:10" ht="12.5">
       <c r="A745" s="6"/>
       <c r="B745" s="6"/>
       <c r="C745" s="22"/>
@@ -27149,7 +27250,7 @@
       <c r="I745" s="26"/>
       <c r="J745" s="28"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:10" ht="12.5">
       <c r="A746" s="6"/>
       <c r="B746" s="6"/>
       <c r="C746" s="22"/>
@@ -27161,7 +27262,7 @@
       <c r="I746" s="26"/>
       <c r="J746" s="28"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:10" ht="12.5">
       <c r="A747" s="6"/>
       <c r="B747" s="6"/>
       <c r="C747" s="22"/>
@@ -27173,7 +27274,7 @@
       <c r="I747" s="26"/>
       <c r="J747" s="28"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:10" ht="12.5">
       <c r="A748" s="6"/>
       <c r="B748" s="6"/>
       <c r="C748" s="22"/>
@@ -27185,7 +27286,7 @@
       <c r="I748" s="26"/>
       <c r="J748" s="28"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:10" ht="12.5">
       <c r="A749" s="6"/>
       <c r="B749" s="6"/>
       <c r="C749" s="22"/>
@@ -27197,7 +27298,7 @@
       <c r="I749" s="26"/>
       <c r="J749" s="28"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:10" ht="12.5">
       <c r="A750" s="6"/>
       <c r="B750" s="6"/>
       <c r="C750" s="22"/>
@@ -27209,7 +27310,7 @@
       <c r="I750" s="26"/>
       <c r="J750" s="28"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:10" ht="12.5">
       <c r="A751" s="6"/>
       <c r="B751" s="6"/>
       <c r="C751" s="22"/>
@@ -27221,7 +27322,7 @@
       <c r="I751" s="26"/>
       <c r="J751" s="28"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:10" ht="12.5">
       <c r="A752" s="6"/>
       <c r="B752" s="6"/>
       <c r="C752" s="22"/>
@@ -27233,7 +27334,7 @@
       <c r="I752" s="26"/>
       <c r="J752" s="28"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:10" ht="12.5">
       <c r="A753" s="6"/>
       <c r="B753" s="6"/>
       <c r="C753" s="22"/>
@@ -27245,7 +27346,7 @@
       <c r="I753" s="26"/>
       <c r="J753" s="28"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:10" ht="12.5">
       <c r="A754" s="6"/>
       <c r="B754" s="6"/>
       <c r="C754" s="22"/>
@@ -27257,7 +27358,7 @@
       <c r="I754" s="26"/>
       <c r="J754" s="28"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:10" ht="12.5">
       <c r="A755" s="6"/>
       <c r="B755" s="6"/>
       <c r="C755" s="22"/>
@@ -27269,7 +27370,7 @@
       <c r="I755" s="26"/>
       <c r="J755" s="28"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:10" ht="12.5">
       <c r="A756" s="6"/>
       <c r="B756" s="6"/>
       <c r="C756" s="22"/>
@@ -27281,7 +27382,7 @@
       <c r="I756" s="26"/>
       <c r="J756" s="28"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:10" ht="12.5">
       <c r="A757" s="6"/>
       <c r="B757" s="6"/>
       <c r="C757" s="22"/>
@@ -27293,7 +27394,7 @@
       <c r="I757" s="26"/>
       <c r="J757" s="28"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:10" ht="12.5">
       <c r="A758" s="6"/>
       <c r="B758" s="6"/>
       <c r="C758" s="22"/>
@@ -27305,7 +27406,7 @@
       <c r="I758" s="26"/>
       <c r="J758" s="28"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:10" ht="12.5">
       <c r="A759" s="6"/>
       <c r="B759" s="6"/>
       <c r="C759" s="22"/>
@@ -27317,7 +27418,7 @@
       <c r="I759" s="26"/>
       <c r="J759" s="28"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:10" ht="12.5">
       <c r="A760" s="6"/>
       <c r="B760" s="6"/>
       <c r="C760" s="22"/>
@@ -27329,7 +27430,7 @@
       <c r="I760" s="26"/>
       <c r="J760" s="28"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:10" ht="12.5">
       <c r="A761" s="6"/>
       <c r="B761" s="6"/>
       <c r="C761" s="22"/>
@@ -27341,7 +27442,7 @@
       <c r="I761" s="26"/>
       <c r="J761" s="28"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:10" ht="12.5">
       <c r="A762" s="6"/>
       <c r="B762" s="6"/>
       <c r="C762" s="22"/>
@@ -27353,7 +27454,7 @@
       <c r="I762" s="26"/>
       <c r="J762" s="28"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:10" ht="12.5">
       <c r="A763" s="6"/>
       <c r="B763" s="6"/>
       <c r="C763" s="22"/>
@@ -27365,7 +27466,7 @@
       <c r="I763" s="26"/>
       <c r="J763" s="28"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:10" ht="12.5">
       <c r="A764" s="6"/>
       <c r="B764" s="6"/>
       <c r="C764" s="22"/>
@@ -27377,7 +27478,7 @@
       <c r="I764" s="26"/>
       <c r="J764" s="28"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:10" ht="12.5">
       <c r="A765" s="6"/>
       <c r="B765" s="6"/>
       <c r="C765" s="22"/>
@@ -27389,7 +27490,7 @@
       <c r="I765" s="26"/>
       <c r="J765" s="28"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:10" ht="12.5">
       <c r="A766" s="6"/>
       <c r="B766" s="6"/>
       <c r="C766" s="22"/>
@@ -27401,7 +27502,7 @@
       <c r="I766" s="26"/>
       <c r="J766" s="28"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:10" ht="12.5">
       <c r="A767" s="6"/>
       <c r="B767" s="6"/>
       <c r="C767" s="22"/>
@@ -27413,7 +27514,7 @@
       <c r="I767" s="26"/>
       <c r="J767" s="28"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:10" ht="12.5">
       <c r="A768" s="6"/>
       <c r="B768" s="6"/>
       <c r="C768" s="22"/>
@@ -27425,7 +27526,7 @@
       <c r="I768" s="26"/>
       <c r="J768" s="28"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:10" ht="12.5">
       <c r="A769" s="6"/>
       <c r="B769" s="6"/>
       <c r="C769" s="22"/>
@@ -27437,7 +27538,7 @@
       <c r="I769" s="26"/>
       <c r="J769" s="28"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:10" ht="12.5">
       <c r="A770" s="6"/>
       <c r="B770" s="6"/>
       <c r="C770" s="22"/>
@@ -27449,7 +27550,7 @@
       <c r="I770" s="26"/>
       <c r="J770" s="28"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:10" ht="12.5">
       <c r="A771" s="6"/>
       <c r="B771" s="6"/>
       <c r="C771" s="22"/>
@@ -27461,7 +27562,7 @@
       <c r="I771" s="26"/>
       <c r="J771" s="28"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:10" ht="12.5">
       <c r="A772" s="6"/>
       <c r="B772" s="6"/>
       <c r="C772" s="22"/>
@@ -27473,7 +27574,7 @@
       <c r="I772" s="26"/>
       <c r="J772" s="28"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:10" ht="12.5">
       <c r="A773" s="6"/>
       <c r="B773" s="6"/>
       <c r="C773" s="22"/>
@@ -27485,7 +27586,7 @@
       <c r="I773" s="26"/>
       <c r="J773" s="28"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:10" ht="12.5">
       <c r="A774" s="6"/>
       <c r="B774" s="6"/>
       <c r="C774" s="22"/>
@@ -27497,7 +27598,7 @@
       <c r="I774" s="26"/>
       <c r="J774" s="28"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:10" ht="12.5">
       <c r="A775" s="6"/>
       <c r="B775" s="6"/>
       <c r="C775" s="22"/>
@@ -27509,7 +27610,7 @@
       <c r="I775" s="26"/>
       <c r="J775" s="28"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:10" ht="12.5">
       <c r="A776" s="6"/>
       <c r="B776" s="6"/>
       <c r="C776" s="22"/>
@@ -27521,7 +27622,7 @@
       <c r="I776" s="26"/>
       <c r="J776" s="28"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:10" ht="12.5">
       <c r="A777" s="6"/>
       <c r="B777" s="6"/>
       <c r="C777" s="22"/>
@@ -27533,7 +27634,7 @@
       <c r="I777" s="26"/>
       <c r="J777" s="28"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:10" ht="12.5">
       <c r="A778" s="6"/>
       <c r="B778" s="6"/>
       <c r="C778" s="22"/>
@@ -27545,7 +27646,7 @@
       <c r="I778" s="26"/>
       <c r="J778" s="28"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:10" ht="12.5">
       <c r="A779" s="6"/>
       <c r="B779" s="6"/>
       <c r="C779" s="22"/>
@@ -27557,7 +27658,7 @@
       <c r="I779" s="26"/>
       <c r="J779" s="28"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:10" ht="12.5">
       <c r="A780" s="6"/>
       <c r="B780" s="6"/>
       <c r="C780" s="22"/>
@@ -27569,7 +27670,7 @@
       <c r="I780" s="26"/>
       <c r="J780" s="28"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:10" ht="12.5">
       <c r="A781" s="6"/>
       <c r="B781" s="6"/>
       <c r="C781" s="22"/>
@@ -27581,7 +27682,7 @@
       <c r="I781" s="26"/>
       <c r="J781" s="28"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:10" ht="12.5">
       <c r="A782" s="6"/>
       <c r="B782" s="6"/>
       <c r="C782" s="22"/>
@@ -27593,7 +27694,7 @@
       <c r="I782" s="26"/>
       <c r="J782" s="28"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:10" ht="12.5">
       <c r="A783" s="6"/>
       <c r="B783" s="6"/>
       <c r="C783" s="22"/>
@@ -27605,7 +27706,7 @@
       <c r="I783" s="26"/>
       <c r="J783" s="28"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:10" ht="12.5">
       <c r="A784" s="6"/>
       <c r="B784" s="6"/>
       <c r="C784" s="22"/>
@@ -27617,7 +27718,7 @@
       <c r="I784" s="26"/>
       <c r="J784" s="28"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:10" ht="12.5">
       <c r="A785" s="6"/>
       <c r="B785" s="6"/>
       <c r="C785" s="22"/>
@@ -27629,7 +27730,7 @@
       <c r="I785" s="26"/>
       <c r="J785" s="28"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:10" ht="12.5">
       <c r="A786" s="6"/>
       <c r="B786" s="6"/>
       <c r="C786" s="22"/>
@@ -27641,7 +27742,7 @@
       <c r="I786" s="26"/>
       <c r="J786" s="28"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:10" ht="12.5">
       <c r="A787" s="6"/>
       <c r="B787" s="6"/>
       <c r="C787" s="22"/>
@@ -27653,7 +27754,7 @@
       <c r="I787" s="26"/>
       <c r="J787" s="28"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:10" ht="12.5">
       <c r="A788" s="6"/>
       <c r="B788" s="6"/>
       <c r="C788" s="22"/>
@@ -27665,7 +27766,7 @@
       <c r="I788" s="26"/>
       <c r="J788" s="28"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:10" ht="12.5">
       <c r="A789" s="6"/>
       <c r="B789" s="6"/>
       <c r="C789" s="22"/>
@@ -27677,7 +27778,7 @@
       <c r="I789" s="26"/>
       <c r="J789" s="28"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:10" ht="12.5">
       <c r="A790" s="6"/>
       <c r="B790" s="6"/>
       <c r="C790" s="22"/>
@@ -27689,7 +27790,7 @@
       <c r="I790" s="26"/>
       <c r="J790" s="28"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:10" ht="12.5">
       <c r="A791" s="6"/>
       <c r="B791" s="6"/>
       <c r="C791" s="22"/>
@@ -27701,7 +27802,7 @@
       <c r="I791" s="26"/>
       <c r="J791" s="28"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:10" ht="12.5">
       <c r="A792" s="6"/>
       <c r="B792" s="6"/>
       <c r="C792" s="22"/>
@@ -27713,7 +27814,7 @@
       <c r="I792" s="26"/>
       <c r="J792" s="28"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:10" ht="12.5">
       <c r="A793" s="6"/>
       <c r="B793" s="6"/>
       <c r="C793" s="22"/>
@@ -27725,7 +27826,7 @@
       <c r="I793" s="26"/>
       <c r="J793" s="28"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:10" ht="12.5">
       <c r="A794" s="6"/>
       <c r="B794" s="6"/>
       <c r="C794" s="22"/>
@@ -27737,7 +27838,7 @@
       <c r="I794" s="26"/>
       <c r="J794" s="28"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:10" ht="12.5">
       <c r="A795" s="6"/>
       <c r="B795" s="6"/>
       <c r="C795" s="22"/>
@@ -27749,7 +27850,7 @@
       <c r="I795" s="26"/>
       <c r="J795" s="28"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:10" ht="12.5">
       <c r="A796" s="6"/>
       <c r="B796" s="6"/>
       <c r="C796" s="22"/>
@@ -27761,7 +27862,7 @@
       <c r="I796" s="26"/>
       <c r="J796" s="28"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:10" ht="12.5">
       <c r="A797" s="6"/>
       <c r="B797" s="6"/>
       <c r="C797" s="22"/>
@@ -27773,7 +27874,7 @@
       <c r="I797" s="26"/>
       <c r="J797" s="28"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:10" ht="12.5">
       <c r="A798" s="6"/>
       <c r="B798" s="6"/>
       <c r="C798" s="22"/>
@@ -27785,7 +27886,7 @@
       <c r="I798" s="26"/>
       <c r="J798" s="28"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:10" ht="12.5">
       <c r="A799" s="6"/>
       <c r="B799" s="6"/>
       <c r="C799" s="22"/>
@@ -27797,7 +27898,7 @@
       <c r="I799" s="26"/>
       <c r="J799" s="28"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:10" ht="12.5">
       <c r="A800" s="6"/>
       <c r="B800" s="6"/>
       <c r="C800" s="22"/>
@@ -27809,7 +27910,7 @@
       <c r="I800" s="26"/>
       <c r="J800" s="28"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:10" ht="12.5">
       <c r="A801" s="6"/>
       <c r="B801" s="6"/>
       <c r="C801" s="22"/>
@@ -27821,7 +27922,7 @@
       <c r="I801" s="26"/>
       <c r="J801" s="28"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:10" ht="12.5">
       <c r="A802" s="6"/>
       <c r="B802" s="6"/>
       <c r="C802" s="22"/>
@@ -27833,7 +27934,7 @@
       <c r="I802" s="26"/>
       <c r="J802" s="28"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:10" ht="12.5">
       <c r="A803" s="6"/>
       <c r="B803" s="6"/>
       <c r="C803" s="22"/>
@@ -27845,7 +27946,7 @@
       <c r="I803" s="26"/>
       <c r="J803" s="28"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:10" ht="12.5">
       <c r="A804" s="6"/>
       <c r="B804" s="6"/>
       <c r="C804" s="22"/>
@@ -27857,7 +27958,7 @@
       <c r="I804" s="26"/>
       <c r="J804" s="28"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:10" ht="12.5">
       <c r="A805" s="6"/>
       <c r="B805" s="6"/>
       <c r="C805" s="22"/>
@@ -27869,7 +27970,7 @@
       <c r="I805" s="26"/>
       <c r="J805" s="28"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:10" ht="12.5">
       <c r="A806" s="6"/>
       <c r="B806" s="6"/>
       <c r="C806" s="22"/>
@@ -27881,7 +27982,7 @@
       <c r="I806" s="26"/>
       <c r="J806" s="28"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:10" ht="12.5">
       <c r="A807" s="6"/>
       <c r="B807" s="6"/>
       <c r="C807" s="22"/>
@@ -27893,7 +27994,7 @@
       <c r="I807" s="26"/>
       <c r="J807" s="28"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:10" ht="12.5">
       <c r="A808" s="6"/>
       <c r="B808" s="6"/>
       <c r="C808" s="22"/>
@@ -27905,7 +28006,7 @@
       <c r="I808" s="26"/>
       <c r="J808" s="28"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:10" ht="12.5">
       <c r="A809" s="6"/>
       <c r="B809" s="6"/>
       <c r="C809" s="22"/>
@@ -27917,7 +28018,7 @@
       <c r="I809" s="26"/>
       <c r="J809" s="28"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:10" ht="12.5">
       <c r="A810" s="6"/>
       <c r="B810" s="6"/>
       <c r="C810" s="22"/>
@@ -27929,7 +28030,7 @@
       <c r="I810" s="26"/>
       <c r="J810" s="28"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:10" ht="12.5">
       <c r="A811" s="6"/>
       <c r="B811" s="6"/>
       <c r="C811" s="22"/>
@@ -27941,7 +28042,7 @@
       <c r="I811" s="26"/>
       <c r="J811" s="28"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:10" ht="12.5">
       <c r="A812" s="6"/>
       <c r="B812" s="6"/>
       <c r="C812" s="22"/>
@@ -27953,7 +28054,7 @@
       <c r="I812" s="26"/>
       <c r="J812" s="28"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:10" ht="12.5">
       <c r="A813" s="6"/>
       <c r="B813" s="6"/>
       <c r="C813" s="22"/>
@@ -27965,7 +28066,7 @@
       <c r="I813" s="26"/>
       <c r="J813" s="28"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:10" ht="12.5">
       <c r="A814" s="6"/>
       <c r="B814" s="6"/>
       <c r="C814" s="22"/>
@@ -27977,7 +28078,7 @@
       <c r="I814" s="26"/>
       <c r="J814" s="28"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:10" ht="12.5">
       <c r="A815" s="6"/>
       <c r="B815" s="6"/>
       <c r="C815" s="22"/>
@@ -27989,7 +28090,7 @@
       <c r="I815" s="26"/>
       <c r="J815" s="28"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:10" ht="12.5">
       <c r="A816" s="6"/>
       <c r="B816" s="6"/>
       <c r="C816" s="22"/>
@@ -28001,7 +28102,7 @@
       <c r="I816" s="26"/>
       <c r="J816" s="28"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:10" ht="12.5">
       <c r="A817" s="6"/>
       <c r="B817" s="6"/>
       <c r="C817" s="22"/>
@@ -28013,7 +28114,7 @@
       <c r="I817" s="26"/>
       <c r="J817" s="28"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:10" ht="12.5">
       <c r="A818" s="6"/>
       <c r="B818" s="6"/>
       <c r="C818" s="22"/>
@@ -28025,7 +28126,7 @@
       <c r="I818" s="26"/>
       <c r="J818" s="28"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:10" ht="12.5">
       <c r="A819" s="6"/>
       <c r="B819" s="6"/>
       <c r="C819" s="22"/>
@@ -28037,7 +28138,7 @@
       <c r="I819" s="26"/>
       <c r="J819" s="28"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:10" ht="12.5">
       <c r="A820" s="6"/>
       <c r="B820" s="6"/>
       <c r="C820" s="22"/>
@@ -28049,7 +28150,7 @@
       <c r="I820" s="26"/>
       <c r="J820" s="28"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:10" ht="12.5">
       <c r="A821" s="6"/>
       <c r="B821" s="6"/>
       <c r="C821" s="22"/>
@@ -28062,809 +28163,808 @@
       <c r="J821" s="28"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AD$679">
-    <sortState ref="A1:AD679">
-      <sortCondition ref="A1:A679"/>
-      <sortCondition ref="B1:B679"/>
-      <sortCondition ref="C1:C679"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:AD679" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J2"/>
-    <hyperlink r:id="rId2" ref="J3"/>
-    <hyperlink r:id="rId3" ref="J4"/>
-    <hyperlink r:id="rId4" ref="J5"/>
-    <hyperlink r:id="rId5" ref="J6"/>
-    <hyperlink r:id="rId6" ref="J7"/>
-    <hyperlink r:id="rId7" ref="J8"/>
-    <hyperlink r:id="rId8" ref="J9"/>
-    <hyperlink r:id="rId9" ref="J10"/>
-    <hyperlink r:id="rId10" ref="J11"/>
-    <hyperlink r:id="rId11" ref="J12"/>
-    <hyperlink r:id="rId12" ref="J13"/>
-    <hyperlink r:id="rId13" location="/home" ref="J14"/>
-    <hyperlink r:id="rId14" ref="J15"/>
-    <hyperlink r:id="rId15" ref="J16"/>
-    <hyperlink r:id="rId16" ref="J17"/>
-    <hyperlink r:id="rId17" ref="J18"/>
-    <hyperlink r:id="rId18" ref="J19"/>
-    <hyperlink r:id="rId19" ref="J20"/>
-    <hyperlink r:id="rId20" ref="J21"/>
-    <hyperlink r:id="rId21" ref="J22"/>
-    <hyperlink r:id="rId22" location="REC_NAT" ref="J23"/>
-    <hyperlink r:id="rId23" ref="J24"/>
-    <hyperlink r:id="rId24" ref="J25"/>
-    <hyperlink r:id="rId25" ref="J26"/>
-    <hyperlink r:id="rId26" ref="J27"/>
-    <hyperlink r:id="rId27" ref="J28"/>
-    <hyperlink r:id="rId28" ref="J29"/>
-    <hyperlink r:id="rId29" ref="J30"/>
-    <hyperlink r:id="rId30" ref="J31"/>
-    <hyperlink r:id="rId31" ref="J32"/>
-    <hyperlink r:id="rId32" ref="J33"/>
-    <hyperlink r:id="rId33" ref="J34"/>
-    <hyperlink r:id="rId34" ref="J35"/>
-    <hyperlink r:id="rId35" ref="J36"/>
-    <hyperlink r:id="rId36" ref="J37"/>
-    <hyperlink r:id="rId37" ref="J38"/>
-    <hyperlink r:id="rId38" ref="J39"/>
-    <hyperlink r:id="rId39" ref="J40"/>
-    <hyperlink r:id="rId40" ref="J41"/>
-    <hyperlink r:id="rId41" ref="J42"/>
-    <hyperlink r:id="rId42" ref="J43"/>
-    <hyperlink r:id="rId43" location="download" ref="J44"/>
-    <hyperlink r:id="rId44" ref="J45"/>
-    <hyperlink r:id="rId45" ref="J46"/>
-    <hyperlink r:id="rId46" ref="J47"/>
-    <hyperlink r:id="rId47" ref="J48"/>
-    <hyperlink r:id="rId48" ref="J49"/>
-    <hyperlink r:id="rId49" ref="J50"/>
-    <hyperlink r:id="rId50" ref="J51"/>
-    <hyperlink r:id="rId51" ref="J52"/>
-    <hyperlink r:id="rId52" ref="J53"/>
-    <hyperlink r:id="rId53" ref="J54"/>
-    <hyperlink r:id="rId54" ref="J55"/>
-    <hyperlink r:id="rId55" ref="J56"/>
-    <hyperlink r:id="rId56" ref="J57"/>
-    <hyperlink r:id="rId57" ref="J58"/>
-    <hyperlink r:id="rId58" ref="J59"/>
-    <hyperlink r:id="rId59" ref="J60"/>
-    <hyperlink r:id="rId60" ref="J61"/>
-    <hyperlink r:id="rId61" ref="D62"/>
-    <hyperlink r:id="rId62" ref="J62"/>
-    <hyperlink r:id="rId63" ref="J63"/>
-    <hyperlink r:id="rId64" ref="J64"/>
-    <hyperlink r:id="rId65" ref="J65"/>
-    <hyperlink r:id="rId66" ref="J66"/>
-    <hyperlink r:id="rId67" ref="J67"/>
-    <hyperlink r:id="rId68" ref="J68"/>
-    <hyperlink r:id="rId69" ref="J69"/>
-    <hyperlink r:id="rId70" ref="J70"/>
-    <hyperlink r:id="rId71" location="/home" ref="J71"/>
-    <hyperlink r:id="rId72" location="zoom=2&amp;lat=37.17407&amp;lon=69.65&amp;layers=T00000B0" ref="J72"/>
-    <hyperlink r:id="rId73" ref="J73"/>
-    <hyperlink r:id="rId74" ref="J74"/>
-    <hyperlink r:id="rId75" ref="J75"/>
-    <hyperlink r:id="rId76" ref="J76"/>
-    <hyperlink r:id="rId77" ref="J77"/>
-    <hyperlink r:id="rId78" ref="J78"/>
-    <hyperlink r:id="rId79" ref="J79"/>
-    <hyperlink r:id="rId80" ref="J81"/>
-    <hyperlink r:id="rId81" ref="J82"/>
-    <hyperlink r:id="rId82" ref="J83"/>
-    <hyperlink r:id="rId83" ref="J84"/>
-    <hyperlink r:id="rId84" ref="J85"/>
-    <hyperlink r:id="rId85" ref="J86"/>
-    <hyperlink r:id="rId86" ref="J87"/>
-    <hyperlink r:id="rId87" ref="J88"/>
-    <hyperlink r:id="rId88" ref="J89"/>
-    <hyperlink r:id="rId89" ref="J90"/>
-    <hyperlink r:id="rId90" ref="J91"/>
-    <hyperlink r:id="rId91" ref="J92"/>
-    <hyperlink r:id="rId92" ref="J93"/>
-    <hyperlink r:id="rId93" ref="J94"/>
-    <hyperlink r:id="rId94" ref="J95"/>
-    <hyperlink r:id="rId95" ref="J96"/>
-    <hyperlink r:id="rId96" location="charts|929" ref="J97"/>
-    <hyperlink r:id="rId97" ref="J98"/>
-    <hyperlink r:id="rId98" ref="J99"/>
-    <hyperlink r:id="rId99" ref="J100"/>
-    <hyperlink r:id="rId100" ref="J101"/>
-    <hyperlink r:id="rId101" ref="J102"/>
-    <hyperlink r:id="rId102" ref="J103"/>
-    <hyperlink r:id="rId103" ref="J104"/>
-    <hyperlink r:id="rId104" ref="J105"/>
-    <hyperlink r:id="rId105" ref="J106"/>
-    <hyperlink r:id="rId106" ref="J107"/>
-    <hyperlink r:id="rId107" ref="J108"/>
-    <hyperlink r:id="rId108" ref="J109"/>
-    <hyperlink r:id="rId109" ref="J110"/>
-    <hyperlink r:id="rId110" ref="J111"/>
-    <hyperlink r:id="rId111" ref="J112"/>
-    <hyperlink r:id="rId112" ref="J113"/>
-    <hyperlink r:id="rId113" ref="J114"/>
-    <hyperlink r:id="rId114" ref="J115"/>
-    <hyperlink r:id="rId115" ref="J116"/>
-    <hyperlink r:id="rId116" ref="J117"/>
-    <hyperlink r:id="rId117" ref="J118"/>
-    <hyperlink r:id="rId118" ref="J119"/>
-    <hyperlink r:id="rId119" ref="J120"/>
-    <hyperlink r:id="rId120" ref="J121"/>
-    <hyperlink r:id="rId121" ref="J122"/>
-    <hyperlink r:id="rId122" ref="J123"/>
-    <hyperlink r:id="rId123" ref="J124"/>
-    <hyperlink r:id="rId124" ref="J125"/>
-    <hyperlink r:id="rId125" ref="J126"/>
-    <hyperlink r:id="rId126" ref="J127"/>
-    <hyperlink r:id="rId127" ref="J128"/>
-    <hyperlink r:id="rId128" ref="J129"/>
-    <hyperlink r:id="rId129" ref="J130"/>
-    <hyperlink r:id="rId130" ref="J131"/>
-    <hyperlink r:id="rId131" ref="J132"/>
-    <hyperlink r:id="rId132" ref="J133"/>
-    <hyperlink r:id="rId133" ref="J134"/>
-    <hyperlink r:id="rId134" ref="J135"/>
-    <hyperlink r:id="rId135" ref="J136"/>
-    <hyperlink r:id="rId136" ref="J137"/>
-    <hyperlink r:id="rId137" ref="J138"/>
-    <hyperlink r:id="rId138" ref="J139"/>
-    <hyperlink r:id="rId139" ref="J140"/>
-    <hyperlink r:id="rId140" ref="J141"/>
-    <hyperlink r:id="rId141" ref="J142"/>
-    <hyperlink r:id="rId142" ref="J143"/>
-    <hyperlink r:id="rId143" ref="J144"/>
-    <hyperlink r:id="rId144" ref="J145"/>
-    <hyperlink r:id="rId145" ref="J146"/>
-    <hyperlink r:id="rId146" ref="J147"/>
-    <hyperlink r:id="rId147" ref="J148"/>
-    <hyperlink r:id="rId148" ref="J149"/>
-    <hyperlink r:id="rId149" ref="J150"/>
-    <hyperlink r:id="rId150" ref="J151"/>
-    <hyperlink r:id="rId151" ref="J152"/>
-    <hyperlink r:id="rId152" location="menu=topic" ref="J153"/>
-    <hyperlink r:id="rId153" ref="J154"/>
-    <hyperlink r:id="rId154" ref="J155"/>
-    <hyperlink r:id="rId155" ref="J156"/>
-    <hyperlink r:id="rId156" ref="J157"/>
-    <hyperlink r:id="rId157" ref="J158"/>
-    <hyperlink r:id="rId158" ref="I159"/>
-    <hyperlink r:id="rId159" ref="J159"/>
-    <hyperlink r:id="rId160" ref="J160"/>
-    <hyperlink r:id="rId161" ref="J161"/>
-    <hyperlink r:id="rId162" ref="J162"/>
-    <hyperlink r:id="rId163" ref="J163"/>
-    <hyperlink r:id="rId164" ref="J164"/>
-    <hyperlink r:id="rId165" ref="J165"/>
-    <hyperlink r:id="rId166" ref="J166"/>
-    <hyperlink r:id="rId167" ref="J167"/>
-    <hyperlink r:id="rId168" ref="J168"/>
-    <hyperlink r:id="rId169" location="data&amp;maps" ref="J169"/>
-    <hyperlink r:id="rId170" ref="J170"/>
-    <hyperlink r:id="rId171" ref="J171"/>
-    <hyperlink r:id="rId172" ref="J172"/>
-    <hyperlink r:id="rId173" ref="J173"/>
-    <hyperlink r:id="rId174" ref="J174"/>
-    <hyperlink r:id="rId175" ref="J175"/>
-    <hyperlink r:id="rId176" ref="J176"/>
-    <hyperlink r:id="rId177" ref="J177"/>
-    <hyperlink r:id="rId178" ref="J178"/>
-    <hyperlink r:id="rId179" ref="J179"/>
-    <hyperlink r:id="rId180" ref="J180"/>
-    <hyperlink r:id="rId181" ref="J181"/>
-    <hyperlink r:id="rId182" ref="I182"/>
-    <hyperlink r:id="rId183" ref="J182"/>
-    <hyperlink r:id="rId184" ref="J183"/>
-    <hyperlink r:id="rId185" ref="J184"/>
-    <hyperlink r:id="rId186" ref="J185"/>
-    <hyperlink r:id="rId187" ref="J186"/>
-    <hyperlink r:id="rId188" ref="J187"/>
-    <hyperlink r:id="rId189" ref="J188"/>
-    <hyperlink r:id="rId190" ref="J189"/>
-    <hyperlink r:id="rId191" ref="J190"/>
-    <hyperlink r:id="rId192" ref="J191"/>
-    <hyperlink r:id="rId193" ref="J192"/>
-    <hyperlink r:id="rId194" ref="J193"/>
-    <hyperlink r:id="rId195" ref="J194"/>
-    <hyperlink r:id="rId196" ref="J195"/>
-    <hyperlink r:id="rId197" ref="J196"/>
-    <hyperlink r:id="rId198" ref="J197"/>
-    <hyperlink r:id="rId199" ref="J198"/>
-    <hyperlink r:id="rId200" ref="J199"/>
-    <hyperlink r:id="rId201" ref="J200"/>
-    <hyperlink r:id="rId202" ref="J201"/>
-    <hyperlink r:id="rId203" ref="J202"/>
-    <hyperlink r:id="rId204" ref="J203"/>
-    <hyperlink r:id="rId205" ref="J204"/>
-    <hyperlink r:id="rId206" location="data" ref="J205"/>
-    <hyperlink r:id="rId207" ref="J206"/>
-    <hyperlink r:id="rId208" ref="J207"/>
-    <hyperlink r:id="rId209" ref="J208"/>
-    <hyperlink r:id="rId210" ref="J209"/>
-    <hyperlink r:id="rId211" ref="J210"/>
-    <hyperlink r:id="rId212" ref="J211"/>
-    <hyperlink r:id="rId213" ref="J212"/>
-    <hyperlink r:id="rId214" ref="J213"/>
-    <hyperlink r:id="rId215" ref="J214"/>
-    <hyperlink r:id="rId216" ref="J215"/>
-    <hyperlink r:id="rId217" ref="J216"/>
-    <hyperlink r:id="rId218" location="GLOBAL" ref="J217"/>
-    <hyperlink r:id="rId219" ref="J218"/>
-    <hyperlink r:id="rId220" ref="J219"/>
-    <hyperlink r:id="rId221" ref="J220"/>
-    <hyperlink r:id="rId222" ref="J221"/>
-    <hyperlink r:id="rId223" ref="J222"/>
-    <hyperlink r:id="rId224" ref="J223"/>
-    <hyperlink r:id="rId225" location="qt-science_center_objects" ref="J224"/>
-    <hyperlink r:id="rId226" ref="J225"/>
-    <hyperlink r:id="rId227" ref="J226"/>
-    <hyperlink r:id="rId228" ref="J227"/>
-    <hyperlink r:id="rId229" ref="J228"/>
-    <hyperlink r:id="rId230" ref="J229"/>
-    <hyperlink r:id="rId231" location="gid=7" ref="J230"/>
-    <hyperlink r:id="rId232" ref="J231"/>
-    <hyperlink r:id="rId233" ref="J232"/>
-    <hyperlink r:id="rId234" ref="J233"/>
-    <hyperlink r:id="rId235" ref="J234"/>
-    <hyperlink r:id="rId236" ref="J235"/>
-    <hyperlink r:id="rId237" ref="J236"/>
-    <hyperlink r:id="rId238" ref="J237"/>
-    <hyperlink r:id="rId239" ref="J238"/>
-    <hyperlink r:id="rId240" ref="J239"/>
-    <hyperlink r:id="rId241" ref="J240"/>
-    <hyperlink r:id="rId242" ref="J241"/>
-    <hyperlink r:id="rId243" ref="J242"/>
-    <hyperlink r:id="rId244" location="dump" ref="J243"/>
-    <hyperlink r:id="rId245" ref="J244"/>
-    <hyperlink r:id="rId246" ref="J245"/>
-    <hyperlink r:id="rId247" ref="J246"/>
-    <hyperlink r:id="rId248" ref="J247"/>
-    <hyperlink r:id="rId249" ref="J248"/>
-    <hyperlink r:id="rId250" ref="J249"/>
-    <hyperlink r:id="rId251" ref="J250"/>
-    <hyperlink r:id="rId252" ref="J251"/>
-    <hyperlink r:id="rId253" ref="J252"/>
-    <hyperlink r:id="rId254" ref="J253"/>
-    <hyperlink r:id="rId255" ref="J254"/>
-    <hyperlink r:id="rId256" location="tab-data-visualisations" ref="J255"/>
-    <hyperlink r:id="rId257" location="home" ref="J256"/>
-    <hyperlink r:id="rId258" ref="J257"/>
-    <hyperlink r:id="rId259" ref="J258"/>
-    <hyperlink r:id="rId260" ref="J259"/>
-    <hyperlink r:id="rId261" ref="J260"/>
-    <hyperlink r:id="rId262" ref="J261"/>
-    <hyperlink r:id="rId263" ref="J262"/>
-    <hyperlink r:id="rId264" ref="J263"/>
-    <hyperlink r:id="rId265" ref="J264"/>
-    <hyperlink r:id="rId266" ref="J265"/>
-    <hyperlink r:id="rId267" ref="J266"/>
-    <hyperlink r:id="rId268" ref="J267"/>
-    <hyperlink r:id="rId269" ref="J268"/>
-    <hyperlink r:id="rId270" ref="J269"/>
-    <hyperlink r:id="rId271" ref="J270"/>
-    <hyperlink r:id="rId272" ref="J271"/>
-    <hyperlink r:id="rId273" ref="J272"/>
-    <hyperlink r:id="rId274" ref="J273"/>
-    <hyperlink r:id="rId275" ref="J274"/>
-    <hyperlink r:id="rId276" ref="J275"/>
-    <hyperlink r:id="rId277" ref="J276"/>
-    <hyperlink r:id="rId278" ref="J277"/>
-    <hyperlink r:id="rId279" ref="J278"/>
-    <hyperlink r:id="rId280" ref="J279"/>
-    <hyperlink r:id="rId281" ref="J280"/>
-    <hyperlink r:id="rId282" ref="J281"/>
-    <hyperlink r:id="rId283" ref="J282"/>
-    <hyperlink r:id="rId284" ref="J283"/>
-    <hyperlink r:id="rId285" ref="J284"/>
-    <hyperlink r:id="rId286" ref="J285"/>
-    <hyperlink r:id="rId287" ref="J286"/>
-    <hyperlink r:id="rId288" ref="J287"/>
-    <hyperlink r:id="rId289" ref="J288"/>
-    <hyperlink r:id="rId290" ref="J289"/>
-    <hyperlink r:id="rId291" ref="J290"/>
-    <hyperlink r:id="rId292" ref="J291"/>
-    <hyperlink r:id="rId293" ref="J292"/>
-    <hyperlink r:id="rId294" ref="J293"/>
-    <hyperlink r:id="rId295" ref="J294"/>
-    <hyperlink r:id="rId296" ref="J295"/>
-    <hyperlink r:id="rId297" ref="J296"/>
-    <hyperlink r:id="rId298" ref="J297"/>
-    <hyperlink r:id="rId299" ref="J298"/>
-    <hyperlink r:id="rId300" ref="J299"/>
-    <hyperlink r:id="rId301" ref="J300"/>
-    <hyperlink r:id="rId302" location="/line?startYear=2000&amp;endYear=2015" ref="J301"/>
-    <hyperlink r:id="rId303" ref="J302"/>
-    <hyperlink r:id="rId304" ref="J303"/>
-    <hyperlink r:id="rId305" ref="I304"/>
-    <hyperlink r:id="rId306" ref="J304"/>
-    <hyperlink r:id="rId307" ref="J305"/>
-    <hyperlink r:id="rId308" ref="J306"/>
-    <hyperlink r:id="rId309" ref="J307"/>
-    <hyperlink r:id="rId310" ref="J308"/>
-    <hyperlink r:id="rId311" ref="J309"/>
-    <hyperlink r:id="rId312" ref="J310"/>
-    <hyperlink r:id="rId313" ref="J311"/>
-    <hyperlink r:id="rId314" ref="J312"/>
-    <hyperlink r:id="rId315" ref="J313"/>
-    <hyperlink r:id="rId316" location="download" ref="J314"/>
-    <hyperlink r:id="rId317" ref="J315"/>
-    <hyperlink r:id="rId318" ref="J316"/>
-    <hyperlink r:id="rId319" ref="J317"/>
-    <hyperlink r:id="rId320" ref="J318"/>
-    <hyperlink r:id="rId321" ref="J319"/>
-    <hyperlink r:id="rId322" ref="J320"/>
-    <hyperlink r:id="rId323" ref="J321"/>
-    <hyperlink r:id="rId324" ref="J322"/>
-    <hyperlink r:id="rId325" ref="J323"/>
-    <hyperlink r:id="rId326" ref="J324"/>
-    <hyperlink r:id="rId327" ref="J325"/>
-    <hyperlink r:id="rId328" ref="J326"/>
-    <hyperlink r:id="rId329" ref="J327"/>
-    <hyperlink r:id="rId330" ref="J328"/>
-    <hyperlink r:id="rId331" ref="J329"/>
-    <hyperlink r:id="rId332" ref="J330"/>
-    <hyperlink r:id="rId333" ref="J331"/>
-    <hyperlink r:id="rId334" ref="J332"/>
-    <hyperlink r:id="rId335" ref="J333"/>
-    <hyperlink r:id="rId336" ref="J334"/>
-    <hyperlink r:id="rId337" ref="J335"/>
-    <hyperlink r:id="rId338" location="!/home" ref="J336"/>
-    <hyperlink r:id="rId339" ref="J337"/>
-    <hyperlink r:id="rId340" ref="J338"/>
-    <hyperlink r:id="rId341" ref="J339"/>
-    <hyperlink r:id="rId342" location="data" ref="J340"/>
-    <hyperlink r:id="rId343" ref="J341"/>
-    <hyperlink r:id="rId344" ref="J342"/>
-    <hyperlink r:id="rId345" ref="J343"/>
-    <hyperlink r:id="rId346" ref="J344"/>
-    <hyperlink r:id="rId347" ref="J345"/>
-    <hyperlink r:id="rId348" ref="J346"/>
-    <hyperlink r:id="rId349" ref="J347"/>
-    <hyperlink r:id="rId350" ref="J348"/>
-    <hyperlink r:id="rId351" ref="J349"/>
-    <hyperlink r:id="rId352" ref="J350"/>
-    <hyperlink r:id="rId353" ref="J351"/>
-    <hyperlink r:id="rId354" ref="J352"/>
-    <hyperlink r:id="rId355" ref="J353"/>
-    <hyperlink r:id="rId356" ref="J354"/>
-    <hyperlink r:id="rId357" ref="J355"/>
-    <hyperlink r:id="rId358" ref="J356"/>
-    <hyperlink r:id="rId359" ref="J357"/>
-    <hyperlink r:id="rId360" ref="J358"/>
-    <hyperlink r:id="rId361" ref="J359"/>
-    <hyperlink r:id="rId362" ref="J360"/>
-    <hyperlink r:id="rId363" location="data" ref="J361"/>
-    <hyperlink r:id="rId364" ref="J362"/>
-    <hyperlink r:id="rId365" ref="J363"/>
-    <hyperlink r:id="rId366" ref="J364"/>
-    <hyperlink r:id="rId367" ref="J365"/>
-    <hyperlink r:id="rId368" ref="J366"/>
-    <hyperlink r:id="rId369" ref="J367"/>
-    <hyperlink r:id="rId370" ref="J368"/>
-    <hyperlink r:id="rId371" ref="J369"/>
-    <hyperlink r:id="rId372" ref="J370"/>
-    <hyperlink r:id="rId373" ref="J371"/>
-    <hyperlink r:id="rId374" ref="J372"/>
-    <hyperlink r:id="rId375" ref="J373"/>
-    <hyperlink r:id="rId376" ref="J374"/>
-    <hyperlink r:id="rId377" ref="J375"/>
-    <hyperlink r:id="rId378" ref="I376"/>
-    <hyperlink r:id="rId379" ref="J376"/>
-    <hyperlink r:id="rId380" ref="J377"/>
-    <hyperlink r:id="rId381" ref="J378"/>
-    <hyperlink r:id="rId382" ref="J379"/>
-    <hyperlink r:id="rId383" ref="J380"/>
-    <hyperlink r:id="rId384" ref="J381"/>
-    <hyperlink r:id="rId385" ref="J382"/>
-    <hyperlink r:id="rId386" ref="J383"/>
-    <hyperlink r:id="rId387" ref="J384"/>
-    <hyperlink r:id="rId388" ref="J385"/>
-    <hyperlink r:id="rId389" ref="J386"/>
-    <hyperlink r:id="rId390" ref="J387"/>
-    <hyperlink r:id="rId391" ref="J388"/>
-    <hyperlink r:id="rId392" ref="J389"/>
-    <hyperlink r:id="rId393" ref="J390"/>
-    <hyperlink r:id="rId394" ref="J391"/>
-    <hyperlink r:id="rId395" ref="J392"/>
-    <hyperlink r:id="rId396" ref="J393"/>
-    <hyperlink r:id="rId397" ref="J394"/>
-    <hyperlink r:id="rId398" ref="J395"/>
-    <hyperlink r:id="rId399" ref="J396"/>
-    <hyperlink r:id="rId400" ref="J397"/>
-    <hyperlink r:id="rId401" ref="J398"/>
-    <hyperlink r:id="rId402" ref="J399"/>
-    <hyperlink r:id="rId403" ref="J400"/>
-    <hyperlink r:id="rId404" ref="J401"/>
-    <hyperlink r:id="rId405" ref="J402"/>
-    <hyperlink r:id="rId406" ref="J403"/>
-    <hyperlink r:id="rId407" ref="J404"/>
-    <hyperlink r:id="rId408" ref="J405"/>
-    <hyperlink r:id="rId409" ref="J406"/>
-    <hyperlink r:id="rId410" ref="J407"/>
-    <hyperlink r:id="rId411" ref="J408"/>
-    <hyperlink r:id="rId412" ref="J409"/>
-    <hyperlink r:id="rId413" location="qt-science_center_objects" ref="J410"/>
-    <hyperlink r:id="rId414" ref="J411"/>
-    <hyperlink r:id="rId415" ref="J412"/>
-    <hyperlink r:id="rId416" ref="J413"/>
-    <hyperlink r:id="rId417" ref="J414"/>
-    <hyperlink r:id="rId418" ref="J415"/>
-    <hyperlink r:id="rId419" ref="J416"/>
-    <hyperlink r:id="rId420" ref="J417"/>
-    <hyperlink r:id="rId421" ref="J418"/>
-    <hyperlink r:id="rId422" ref="J419"/>
-    <hyperlink r:id="rId423" ref="J420"/>
-    <hyperlink r:id="rId424" ref="J421"/>
-    <hyperlink r:id="rId425" location="qt-science_center_objects" ref="J422"/>
-    <hyperlink r:id="rId426" ref="J423"/>
-    <hyperlink r:id="rId427" ref="J424"/>
-    <hyperlink r:id="rId428" ref="J425"/>
-    <hyperlink r:id="rId429" ref="J426"/>
-    <hyperlink r:id="rId430" ref="J427"/>
-    <hyperlink r:id="rId431" ref="J428"/>
-    <hyperlink r:id="rId432" ref="J429"/>
-    <hyperlink r:id="rId433" ref="J430"/>
-    <hyperlink r:id="rId434" ref="J431"/>
-    <hyperlink r:id="rId435" ref="J432"/>
-    <hyperlink r:id="rId436" ref="J433"/>
-    <hyperlink r:id="rId437" ref="J434"/>
-    <hyperlink r:id="rId438" ref="J435"/>
-    <hyperlink r:id="rId439" ref="J436"/>
-    <hyperlink r:id="rId440" ref="J437"/>
-    <hyperlink r:id="rId441" ref="J438"/>
-    <hyperlink r:id="rId442" ref="J439"/>
-    <hyperlink r:id="rId443" ref="J440"/>
-    <hyperlink r:id="rId444" ref="J441"/>
-    <hyperlink r:id="rId445" ref="J442"/>
-    <hyperlink r:id="rId446" ref="J443"/>
-    <hyperlink r:id="rId447" ref="J444"/>
-    <hyperlink r:id="rId448" ref="J445"/>
-    <hyperlink r:id="rId449" ref="J446"/>
-    <hyperlink r:id="rId450" ref="J447"/>
-    <hyperlink r:id="rId451" ref="J448"/>
-    <hyperlink r:id="rId452" ref="J449"/>
-    <hyperlink r:id="rId453" ref="J450"/>
-    <hyperlink r:id="rId454" ref="J451"/>
-    <hyperlink r:id="rId455" ref="J452"/>
-    <hyperlink r:id="rId456" ref="J453"/>
-    <hyperlink r:id="rId457" ref="J454"/>
-    <hyperlink r:id="rId458" ref="J455"/>
-    <hyperlink r:id="rId459" ref="J456"/>
-    <hyperlink r:id="rId460" ref="J457"/>
-    <hyperlink r:id="rId461" ref="J458"/>
-    <hyperlink r:id="rId462" ref="J459"/>
-    <hyperlink r:id="rId463" ref="J460"/>
-    <hyperlink r:id="rId464" ref="J461"/>
-    <hyperlink r:id="rId465" ref="J462"/>
-    <hyperlink r:id="rId466" ref="J463"/>
-    <hyperlink r:id="rId467" ref="J464"/>
-    <hyperlink r:id="rId468" ref="J465"/>
-    <hyperlink r:id="rId469" ref="J466"/>
-    <hyperlink r:id="rId470" ref="J467"/>
-    <hyperlink r:id="rId471" ref="J468"/>
-    <hyperlink r:id="rId472" ref="J469"/>
-    <hyperlink r:id="rId473" ref="J470"/>
-    <hyperlink r:id="rId474" ref="J471"/>
-    <hyperlink r:id="rId475" ref="J472"/>
-    <hyperlink r:id="rId476" ref="J473"/>
-    <hyperlink r:id="rId477" ref="J474"/>
-    <hyperlink r:id="rId478" ref="J475"/>
-    <hyperlink r:id="rId479" location="atmosphere" ref="J476"/>
-    <hyperlink r:id="rId480" ref="J477"/>
-    <hyperlink r:id="rId481" ref="J478"/>
-    <hyperlink r:id="rId482" ref="J479"/>
-    <hyperlink r:id="rId483" ref="J480"/>
-    <hyperlink r:id="rId484" ref="J481"/>
-    <hyperlink r:id="rId485" ref="J482"/>
-    <hyperlink r:id="rId486" ref="J483"/>
-    <hyperlink r:id="rId487" location="fq=datasource%3A%22NGEE%20Arctic%22&amp;q=*%3A*" ref="J484"/>
-    <hyperlink r:id="rId488" ref="J485"/>
-    <hyperlink r:id="rId489" ref="J486"/>
-    <hyperlink r:id="rId490" ref="J487"/>
-    <hyperlink r:id="rId491" ref="J488"/>
-    <hyperlink r:id="rId492" ref="J489"/>
-    <hyperlink r:id="rId493" ref="J490"/>
-    <hyperlink r:id="rId494" ref="J491"/>
-    <hyperlink r:id="rId495" ref="J492"/>
-    <hyperlink r:id="rId496" ref="J493"/>
-    <hyperlink r:id="rId497" location=".XcmC_DNKiUm" ref="J494"/>
-    <hyperlink r:id="rId498" ref="J495"/>
-    <hyperlink r:id="rId499" ref="J496"/>
-    <hyperlink r:id="rId500" ref="J497"/>
-    <hyperlink r:id="rId501" ref="J498"/>
-    <hyperlink r:id="rId502" ref="J499"/>
-    <hyperlink r:id="rId503" ref="J500"/>
-    <hyperlink r:id="rId504" ref="J501"/>
-    <hyperlink r:id="rId505" ref="J502"/>
-    <hyperlink r:id="rId506" ref="J503"/>
-    <hyperlink r:id="rId507" ref="J504"/>
-    <hyperlink r:id="rId508" ref="J505"/>
-    <hyperlink r:id="rId509" ref="J506"/>
-    <hyperlink r:id="rId510" ref="J507"/>
-    <hyperlink r:id="rId511" ref="J508"/>
-    <hyperlink r:id="rId512" ref="J509"/>
-    <hyperlink r:id="rId513" ref="J510"/>
-    <hyperlink r:id="rId514" ref="J511"/>
-    <hyperlink r:id="rId515" ref="J512"/>
-    <hyperlink r:id="rId516" ref="J513"/>
-    <hyperlink r:id="rId517" ref="J514"/>
-    <hyperlink r:id="rId518" ref="J515"/>
-    <hyperlink r:id="rId519" ref="J516"/>
-    <hyperlink r:id="rId520" ref="J517"/>
-    <hyperlink r:id="rId521" ref="J518"/>
-    <hyperlink r:id="rId522" ref="J519"/>
-    <hyperlink r:id="rId523" ref="J520"/>
-    <hyperlink r:id="rId524" ref="J521"/>
-    <hyperlink r:id="rId525" ref="J522"/>
-    <hyperlink r:id="rId526" ref="J523"/>
-    <hyperlink r:id="rId527" ref="J524"/>
-    <hyperlink r:id="rId528" ref="J525"/>
-    <hyperlink r:id="rId529" ref="J526"/>
-    <hyperlink r:id="rId530" ref="J527"/>
-    <hyperlink r:id="rId531" ref="J528"/>
-    <hyperlink r:id="rId532" ref="J529"/>
-    <hyperlink r:id="rId533" ref="J530"/>
-    <hyperlink r:id="rId534" ref="J531"/>
-    <hyperlink r:id="rId535" ref="J532"/>
-    <hyperlink r:id="rId536" ref="J533"/>
-    <hyperlink r:id="rId537" ref="J534"/>
-    <hyperlink r:id="rId538" ref="J535"/>
-    <hyperlink r:id="rId539" ref="J536"/>
-    <hyperlink r:id="rId540" ref="J537"/>
-    <hyperlink r:id="rId541" ref="J538"/>
-    <hyperlink r:id="rId542" ref="J539"/>
-    <hyperlink r:id="rId543" ref="J540"/>
-    <hyperlink r:id="rId544" ref="J541"/>
-    <hyperlink r:id="rId545" ref="J542"/>
-    <hyperlink r:id="rId546" ref="J543"/>
-    <hyperlink r:id="rId547" ref="J544"/>
-    <hyperlink r:id="rId548" ref="J545"/>
-    <hyperlink r:id="rId549" ref="J546"/>
-    <hyperlink r:id="rId550" ref="J547"/>
-    <hyperlink r:id="rId551" ref="J548"/>
-    <hyperlink r:id="rId552" ref="J549"/>
-    <hyperlink r:id="rId553" ref="J550"/>
-    <hyperlink r:id="rId554" ref="J551"/>
-    <hyperlink r:id="rId555" ref="J552"/>
-    <hyperlink r:id="rId556" ref="J553"/>
-    <hyperlink r:id="rId557" ref="J554"/>
-    <hyperlink r:id="rId558" ref="J555"/>
-    <hyperlink r:id="rId559" ref="J556"/>
-    <hyperlink r:id="rId560" ref="J557"/>
-    <hyperlink r:id="rId561" ref="J558"/>
-    <hyperlink r:id="rId562" ref="J559"/>
-    <hyperlink r:id="rId563" ref="J560"/>
-    <hyperlink r:id="rId564" ref="J561"/>
-    <hyperlink r:id="rId565" ref="J562"/>
-    <hyperlink r:id="rId566" ref="J563"/>
-    <hyperlink r:id="rId567" ref="J564"/>
-    <hyperlink r:id="rId568" location="/" ref="J565"/>
-    <hyperlink r:id="rId569" ref="J566"/>
-    <hyperlink r:id="rId570" ref="J567"/>
-    <hyperlink r:id="rId571" ref="J568"/>
-    <hyperlink r:id="rId572" ref="J569"/>
-    <hyperlink r:id="rId573" ref="J570"/>
-    <hyperlink r:id="rId574" ref="J571"/>
-    <hyperlink r:id="rId575" ref="J572"/>
-    <hyperlink r:id="rId576" ref="J573"/>
-    <hyperlink r:id="rId577" ref="J574"/>
-    <hyperlink r:id="rId578" ref="J575"/>
-    <hyperlink r:id="rId579" ref="J576"/>
-    <hyperlink r:id="rId580" ref="J577"/>
-    <hyperlink r:id="rId581" ref="J578"/>
-    <hyperlink r:id="rId582" location="/" ref="J579"/>
-    <hyperlink r:id="rId583" ref="J580"/>
-    <hyperlink r:id="rId584" ref="J581"/>
-    <hyperlink r:id="rId585" ref="J582"/>
-    <hyperlink r:id="rId586" ref="J583"/>
-    <hyperlink r:id="rId587" ref="J584"/>
-    <hyperlink r:id="rId588" ref="J585"/>
-    <hyperlink r:id="rId589" ref="J586"/>
-    <hyperlink r:id="rId590" ref="J587"/>
-    <hyperlink r:id="rId591" ref="J588"/>
-    <hyperlink r:id="rId592" ref="J589"/>
-    <hyperlink r:id="rId593" ref="J590"/>
-    <hyperlink r:id="rId594" ref="J591"/>
-    <hyperlink r:id="rId595" ref="J592"/>
-    <hyperlink r:id="rId596" ref="J593"/>
-    <hyperlink r:id="rId597" ref="J594"/>
-    <hyperlink r:id="rId598" ref="J595"/>
-    <hyperlink r:id="rId599" ref="J596"/>
-    <hyperlink r:id="rId600" ref="J597"/>
-    <hyperlink r:id="rId601" location="index" ref="J598"/>
-    <hyperlink r:id="rId602" ref="J599"/>
-    <hyperlink r:id="rId603" ref="J600"/>
-    <hyperlink r:id="rId604" ref="J601"/>
-    <hyperlink r:id="rId605" ref="J602"/>
-    <hyperlink r:id="rId606" ref="J603"/>
-    <hyperlink r:id="rId607" location="/home" ref="J604"/>
-    <hyperlink r:id="rId608" ref="J605"/>
-    <hyperlink r:id="rId609" ref="J606"/>
-    <hyperlink r:id="rId610" ref="J607"/>
-    <hyperlink r:id="rId611" location="data" ref="J608"/>
-    <hyperlink r:id="rId612" ref="J609"/>
-    <hyperlink r:id="rId613" ref="J610"/>
-    <hyperlink r:id="rId614" ref="J611"/>
-    <hyperlink r:id="rId615" ref="J612"/>
-    <hyperlink r:id="rId616" ref="J613"/>
-    <hyperlink r:id="rId617" ref="J614"/>
-    <hyperlink r:id="rId618" ref="J615"/>
-    <hyperlink r:id="rId619" ref="J616"/>
-    <hyperlink r:id="rId620" ref="J617"/>
-    <hyperlink r:id="rId621" ref="J618"/>
-    <hyperlink r:id="rId622" ref="J619"/>
-    <hyperlink r:id="rId623" ref="J620"/>
-    <hyperlink r:id="rId624" ref="J621"/>
-    <hyperlink r:id="rId625" ref="J622"/>
-    <hyperlink r:id="rId626" ref="J623"/>
-    <hyperlink r:id="rId627" ref="J624"/>
-    <hyperlink r:id="rId628" ref="J625"/>
-    <hyperlink r:id="rId629" ref="J626"/>
-    <hyperlink r:id="rId630" ref="J627"/>
-    <hyperlink r:id="rId631" ref="J628"/>
-    <hyperlink r:id="rId632" ref="J629"/>
-    <hyperlink r:id="rId633" ref="J630"/>
-    <hyperlink r:id="rId634" ref="J631"/>
-    <hyperlink r:id="rId635" ref="J632"/>
-    <hyperlink r:id="rId636" ref="J633"/>
-    <hyperlink r:id="rId637" location="/" ref="J634"/>
-    <hyperlink r:id="rId638" ref="J635"/>
-    <hyperlink r:id="rId639" ref="J636"/>
-    <hyperlink r:id="rId640" ref="J637"/>
-    <hyperlink r:id="rId641" ref="J638"/>
-    <hyperlink r:id="rId642" ref="J639"/>
-    <hyperlink r:id="rId643" ref="J640"/>
-    <hyperlink r:id="rId644" ref="J641"/>
-    <hyperlink r:id="rId645" ref="J642"/>
-    <hyperlink r:id="rId646" ref="J643"/>
-    <hyperlink r:id="rId647" ref="J644"/>
-    <hyperlink r:id="rId648" ref="J645"/>
-    <hyperlink r:id="rId649" ref="J646"/>
-    <hyperlink r:id="rId650" ref="J647"/>
-    <hyperlink r:id="rId651" ref="J648"/>
-    <hyperlink r:id="rId652" ref="J649"/>
-    <hyperlink r:id="rId653" ref="J650"/>
-    <hyperlink r:id="rId654" ref="J651"/>
-    <hyperlink r:id="rId655" ref="J652"/>
-    <hyperlink r:id="rId656" ref="J653"/>
-    <hyperlink r:id="rId657" ref="J654"/>
-    <hyperlink r:id="rId658" ref="J655"/>
-    <hyperlink r:id="rId659" ref="J656"/>
-    <hyperlink r:id="rId660" ref="J657"/>
-    <hyperlink r:id="rId661" ref="J658"/>
-    <hyperlink r:id="rId662" ref="J659"/>
-    <hyperlink r:id="rId663" ref="J660"/>
-    <hyperlink r:id="rId664" ref="J661"/>
-    <hyperlink r:id="rId665" ref="J662"/>
-    <hyperlink r:id="rId666" ref="J663"/>
-    <hyperlink r:id="rId667" ref="J664"/>
-    <hyperlink r:id="rId668" ref="J665"/>
-    <hyperlink r:id="rId669" ref="J666"/>
-    <hyperlink r:id="rId670" ref="J667"/>
-    <hyperlink r:id="rId671" ref="J668"/>
-    <hyperlink r:id="rId672" ref="J669"/>
-    <hyperlink r:id="rId673" ref="J670"/>
-    <hyperlink r:id="rId674" ref="J671"/>
-    <hyperlink r:id="rId675" ref="J672"/>
-    <hyperlink r:id="rId676" ref="J673"/>
-    <hyperlink r:id="rId677" ref="J674"/>
-    <hyperlink r:id="rId678" ref="J675"/>
-    <hyperlink r:id="rId679" ref="J676"/>
-    <hyperlink r:id="rId680" ref="J677"/>
-    <hyperlink r:id="rId681" location="/" ref="J678"/>
-    <hyperlink r:id="rId682" ref="J679"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="J5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="J7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="J11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="J12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J14" r:id="rId13" location="/home" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="J15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="J17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="J23" r:id="rId22" location="REC_NAT" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="J25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="J27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J44" r:id="rId43" location="download" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J62" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J63" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J64" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J65" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J66" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J67" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="J68" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="J69" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="J70" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="J71" r:id="rId71" location="/home" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="J72" r:id="rId72" location="zoom=2&amp;lat=37.17407&amp;lon=69.65&amp;layers=T00000B0" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J73" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="J74" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="J75" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="J76" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="J77" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="J78" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="J79" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="J81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="J83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="J84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="J85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="J86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="J87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="J88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="J90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="J91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="J92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="J93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="J94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="J95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="J97" r:id="rId96" location="charts|929" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="J98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="J99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="J100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="J101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="J102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="J104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="J105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="J106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="J107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="J108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="J109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="J111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="J112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="J113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="J115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="J116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="J117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="J119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="J120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="J121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="J122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="J123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="J124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="J125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="J126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="J127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="J129" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J130" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J131" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J132" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J133" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J134" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J135" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="J136" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="J137" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="J138" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="J139" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="J140" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="J141" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J142" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="J143" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="J144" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J145" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="J146" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="J147" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="J148" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="J149" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J150" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="J151" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="J152" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J153" r:id="rId152" location="menu=topic" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="J154" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="J155" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="J156" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="J157" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J158" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="I159" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J159" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="J160" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="J161" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="J162" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="J163" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="J164" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="J165" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J166" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="J167" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="J168" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="J169" r:id="rId169" location="data&amp;maps" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="J170" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="J171" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J172" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="J173" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="J174" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="J175" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="J176" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="J177" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="J178" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="J179" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="J180" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="J181" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="I182" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="J182" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="J183" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="J184" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="J185" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="J186" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="J187" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="J188" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="J189" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="J190" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="J191" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="J192" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="J193" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="J194" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="J195" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="J196" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="J197" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="J198" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="J199" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="J200" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="J201" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="J202" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="J203" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="J204" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="J205" r:id="rId206" location="data" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="J206" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="J207" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="J208" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="J209" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="J210" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="J211" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="J212" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="J213" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="J214" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="J215" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="J216" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="J217" r:id="rId218" location="GLOBAL" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="J218" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="J219" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="J220" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="J221" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="J222" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="J223" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="J224" r:id="rId225" location="qt-science_center_objects" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="J225" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="J226" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="J227" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="J228" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="J229" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="J230" r:id="rId231" location="gid=7" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="J231" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="J232" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="J233" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="J234" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="J235" r:id="rId236" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="J236" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="J237" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="J238" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="J239" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="J240" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="J241" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="J242" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="J243" r:id="rId244" location="dump" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="J244" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="J245" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="J246" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="J247" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="J248" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="J249" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="J250" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="J251" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="J252" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="J253" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="J254" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="J255" r:id="rId256" location="tab-data-visualisations" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="J256" r:id="rId257" location="home" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="J257" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="J258" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="J259" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="J260" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="J261" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="J262" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="J263" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="J264" r:id="rId265" xr:uid="{00000000-0004-0000-0000-000008010000}"/>
+    <hyperlink ref="J265" r:id="rId266" xr:uid="{00000000-0004-0000-0000-000009010000}"/>
+    <hyperlink ref="J266" r:id="rId267" xr:uid="{00000000-0004-0000-0000-00000A010000}"/>
+    <hyperlink ref="J267" r:id="rId268" xr:uid="{00000000-0004-0000-0000-00000B010000}"/>
+    <hyperlink ref="J268" r:id="rId269" xr:uid="{00000000-0004-0000-0000-00000C010000}"/>
+    <hyperlink ref="J269" r:id="rId270" xr:uid="{00000000-0004-0000-0000-00000D010000}"/>
+    <hyperlink ref="J270" r:id="rId271" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="J271" r:id="rId272" xr:uid="{00000000-0004-0000-0000-00000F010000}"/>
+    <hyperlink ref="J272" r:id="rId273" xr:uid="{00000000-0004-0000-0000-000010010000}"/>
+    <hyperlink ref="J273" r:id="rId274" xr:uid="{00000000-0004-0000-0000-000011010000}"/>
+    <hyperlink ref="J274" r:id="rId275" xr:uid="{00000000-0004-0000-0000-000012010000}"/>
+    <hyperlink ref="J275" r:id="rId276" xr:uid="{00000000-0004-0000-0000-000013010000}"/>
+    <hyperlink ref="J276" r:id="rId277" xr:uid="{00000000-0004-0000-0000-000014010000}"/>
+    <hyperlink ref="J277" r:id="rId278" xr:uid="{00000000-0004-0000-0000-000015010000}"/>
+    <hyperlink ref="J278" r:id="rId279" xr:uid="{00000000-0004-0000-0000-000016010000}"/>
+    <hyperlink ref="J279" r:id="rId280" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="J280" r:id="rId281" xr:uid="{00000000-0004-0000-0000-000018010000}"/>
+    <hyperlink ref="J281" r:id="rId282" xr:uid="{00000000-0004-0000-0000-000019010000}"/>
+    <hyperlink ref="J282" r:id="rId283" xr:uid="{00000000-0004-0000-0000-00001A010000}"/>
+    <hyperlink ref="J283" r:id="rId284" xr:uid="{00000000-0004-0000-0000-00001B010000}"/>
+    <hyperlink ref="J284" r:id="rId285" xr:uid="{00000000-0004-0000-0000-00001C010000}"/>
+    <hyperlink ref="J285" r:id="rId286" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="J286" r:id="rId287" xr:uid="{00000000-0004-0000-0000-00001E010000}"/>
+    <hyperlink ref="J287" r:id="rId288" xr:uid="{00000000-0004-0000-0000-00001F010000}"/>
+    <hyperlink ref="J288" r:id="rId289" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="J289" r:id="rId290" xr:uid="{00000000-0004-0000-0000-000021010000}"/>
+    <hyperlink ref="J290" r:id="rId291" xr:uid="{00000000-0004-0000-0000-000022010000}"/>
+    <hyperlink ref="J291" r:id="rId292" xr:uid="{00000000-0004-0000-0000-000023010000}"/>
+    <hyperlink ref="J292" r:id="rId293" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="J293" r:id="rId294" xr:uid="{00000000-0004-0000-0000-000025010000}"/>
+    <hyperlink ref="J294" r:id="rId295" xr:uid="{00000000-0004-0000-0000-000026010000}"/>
+    <hyperlink ref="J295" r:id="rId296" xr:uid="{00000000-0004-0000-0000-000027010000}"/>
+    <hyperlink ref="J296" r:id="rId297" xr:uid="{00000000-0004-0000-0000-000028010000}"/>
+    <hyperlink ref="J297" r:id="rId298" xr:uid="{00000000-0004-0000-0000-000029010000}"/>
+    <hyperlink ref="J298" r:id="rId299" xr:uid="{00000000-0004-0000-0000-00002A010000}"/>
+    <hyperlink ref="J299" r:id="rId300" xr:uid="{00000000-0004-0000-0000-00002B010000}"/>
+    <hyperlink ref="J300" r:id="rId301" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="J301" r:id="rId302" location="/line?startYear=2000&amp;endYear=2015" xr:uid="{00000000-0004-0000-0000-00002D010000}"/>
+    <hyperlink ref="J302" r:id="rId303" xr:uid="{00000000-0004-0000-0000-00002E010000}"/>
+    <hyperlink ref="J303" r:id="rId304" xr:uid="{00000000-0004-0000-0000-00002F010000}"/>
+    <hyperlink ref="I304" r:id="rId305" xr:uid="{00000000-0004-0000-0000-000030010000}"/>
+    <hyperlink ref="J304" r:id="rId306" xr:uid="{00000000-0004-0000-0000-000031010000}"/>
+    <hyperlink ref="J305" r:id="rId307" xr:uid="{00000000-0004-0000-0000-000032010000}"/>
+    <hyperlink ref="J306" r:id="rId308" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="J307" r:id="rId309" xr:uid="{00000000-0004-0000-0000-000034010000}"/>
+    <hyperlink ref="J308" r:id="rId310" xr:uid="{00000000-0004-0000-0000-000035010000}"/>
+    <hyperlink ref="J309" r:id="rId311" xr:uid="{00000000-0004-0000-0000-000036010000}"/>
+    <hyperlink ref="J310" r:id="rId312" xr:uid="{00000000-0004-0000-0000-000037010000}"/>
+    <hyperlink ref="J311" r:id="rId313" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="J312" r:id="rId314" xr:uid="{00000000-0004-0000-0000-000039010000}"/>
+    <hyperlink ref="J313" r:id="rId315" xr:uid="{00000000-0004-0000-0000-00003A010000}"/>
+    <hyperlink ref="J314" r:id="rId316" location="download" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="J315" r:id="rId317" xr:uid="{00000000-0004-0000-0000-00003C010000}"/>
+    <hyperlink ref="J316" r:id="rId318" xr:uid="{00000000-0004-0000-0000-00003D010000}"/>
+    <hyperlink ref="J317" r:id="rId319" xr:uid="{00000000-0004-0000-0000-00003E010000}"/>
+    <hyperlink ref="J318" r:id="rId320" xr:uid="{00000000-0004-0000-0000-00003F010000}"/>
+    <hyperlink ref="J319" r:id="rId321" xr:uid="{00000000-0004-0000-0000-000040010000}"/>
+    <hyperlink ref="J320" r:id="rId322" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="J321" r:id="rId323" xr:uid="{00000000-0004-0000-0000-000042010000}"/>
+    <hyperlink ref="J322" r:id="rId324" xr:uid="{00000000-0004-0000-0000-000043010000}"/>
+    <hyperlink ref="J323" r:id="rId325" xr:uid="{00000000-0004-0000-0000-000044010000}"/>
+    <hyperlink ref="J324" r:id="rId326" xr:uid="{00000000-0004-0000-0000-000045010000}"/>
+    <hyperlink ref="J325" r:id="rId327" xr:uid="{00000000-0004-0000-0000-000046010000}"/>
+    <hyperlink ref="J326" r:id="rId328" xr:uid="{00000000-0004-0000-0000-000047010000}"/>
+    <hyperlink ref="J327" r:id="rId329" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="J328" r:id="rId330" xr:uid="{00000000-0004-0000-0000-000049010000}"/>
+    <hyperlink ref="J329" r:id="rId331" xr:uid="{00000000-0004-0000-0000-00004A010000}"/>
+    <hyperlink ref="J330" r:id="rId332" xr:uid="{00000000-0004-0000-0000-00004B010000}"/>
+    <hyperlink ref="J331" r:id="rId333" xr:uid="{00000000-0004-0000-0000-00004C010000}"/>
+    <hyperlink ref="J332" r:id="rId334" xr:uid="{00000000-0004-0000-0000-00004D010000}"/>
+    <hyperlink ref="J333" r:id="rId335" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="J334" r:id="rId336" xr:uid="{00000000-0004-0000-0000-00004F010000}"/>
+    <hyperlink ref="J335" r:id="rId337" xr:uid="{00000000-0004-0000-0000-000050010000}"/>
+    <hyperlink ref="J336" r:id="rId338" location="!/home" xr:uid="{00000000-0004-0000-0000-000051010000}"/>
+    <hyperlink ref="J337" r:id="rId339" xr:uid="{00000000-0004-0000-0000-000052010000}"/>
+    <hyperlink ref="J338" r:id="rId340" xr:uid="{00000000-0004-0000-0000-000053010000}"/>
+    <hyperlink ref="J339" r:id="rId341" xr:uid="{00000000-0004-0000-0000-000054010000}"/>
+    <hyperlink ref="J340" r:id="rId342" location="data" xr:uid="{00000000-0004-0000-0000-000055010000}"/>
+    <hyperlink ref="J341" r:id="rId343" xr:uid="{00000000-0004-0000-0000-000056010000}"/>
+    <hyperlink ref="J342" r:id="rId344" xr:uid="{00000000-0004-0000-0000-000057010000}"/>
+    <hyperlink ref="J343" r:id="rId345" xr:uid="{00000000-0004-0000-0000-000058010000}"/>
+    <hyperlink ref="J344" r:id="rId346" xr:uid="{00000000-0004-0000-0000-000059010000}"/>
+    <hyperlink ref="J345" r:id="rId347" xr:uid="{00000000-0004-0000-0000-00005A010000}"/>
+    <hyperlink ref="J346" r:id="rId348" xr:uid="{00000000-0004-0000-0000-00005B010000}"/>
+    <hyperlink ref="J347" r:id="rId349" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="J348" r:id="rId350" xr:uid="{00000000-0004-0000-0000-00005D010000}"/>
+    <hyperlink ref="J349" r:id="rId351" xr:uid="{00000000-0004-0000-0000-00005E010000}"/>
+    <hyperlink ref="J350" r:id="rId352" xr:uid="{00000000-0004-0000-0000-00005F010000}"/>
+    <hyperlink ref="J351" r:id="rId353" xr:uid="{00000000-0004-0000-0000-000060010000}"/>
+    <hyperlink ref="J352" r:id="rId354" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="J353" r:id="rId355" xr:uid="{00000000-0004-0000-0000-000062010000}"/>
+    <hyperlink ref="J354" r:id="rId356" xr:uid="{00000000-0004-0000-0000-000063010000}"/>
+    <hyperlink ref="J355" r:id="rId357" xr:uid="{00000000-0004-0000-0000-000064010000}"/>
+    <hyperlink ref="J356" r:id="rId358" xr:uid="{00000000-0004-0000-0000-000065010000}"/>
+    <hyperlink ref="J357" r:id="rId359" xr:uid="{00000000-0004-0000-0000-000066010000}"/>
+    <hyperlink ref="J358" r:id="rId360" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="J359" r:id="rId361" xr:uid="{00000000-0004-0000-0000-000068010000}"/>
+    <hyperlink ref="J360" r:id="rId362" xr:uid="{00000000-0004-0000-0000-000069010000}"/>
+    <hyperlink ref="J361" r:id="rId363" location="data" xr:uid="{00000000-0004-0000-0000-00006A010000}"/>
+    <hyperlink ref="J362" r:id="rId364" xr:uid="{00000000-0004-0000-0000-00006B010000}"/>
+    <hyperlink ref="J363" r:id="rId365" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="J364" r:id="rId366" xr:uid="{00000000-0004-0000-0000-00006D010000}"/>
+    <hyperlink ref="J365" r:id="rId367" xr:uid="{00000000-0004-0000-0000-00006E010000}"/>
+    <hyperlink ref="J366" r:id="rId368" xr:uid="{00000000-0004-0000-0000-00006F010000}"/>
+    <hyperlink ref="J367" r:id="rId369" xr:uid="{00000000-0004-0000-0000-000070010000}"/>
+    <hyperlink ref="J368" r:id="rId370" xr:uid="{00000000-0004-0000-0000-000071010000}"/>
+    <hyperlink ref="J369" r:id="rId371" xr:uid="{00000000-0004-0000-0000-000072010000}"/>
+    <hyperlink ref="J370" r:id="rId372" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="J371" r:id="rId373" xr:uid="{00000000-0004-0000-0000-000074010000}"/>
+    <hyperlink ref="J372" r:id="rId374" xr:uid="{00000000-0004-0000-0000-000075010000}"/>
+    <hyperlink ref="J373" r:id="rId375" xr:uid="{00000000-0004-0000-0000-000076010000}"/>
+    <hyperlink ref="J374" r:id="rId376" xr:uid="{00000000-0004-0000-0000-000077010000}"/>
+    <hyperlink ref="J375" r:id="rId377" xr:uid="{00000000-0004-0000-0000-000078010000}"/>
+    <hyperlink ref="I376" r:id="rId378" xr:uid="{00000000-0004-0000-0000-000079010000}"/>
+    <hyperlink ref="J376" r:id="rId379" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="J377" r:id="rId380" xr:uid="{00000000-0004-0000-0000-00007B010000}"/>
+    <hyperlink ref="J378" r:id="rId381" xr:uid="{00000000-0004-0000-0000-00007C010000}"/>
+    <hyperlink ref="J379" r:id="rId382" xr:uid="{00000000-0004-0000-0000-00007D010000}"/>
+    <hyperlink ref="J380" r:id="rId383" xr:uid="{00000000-0004-0000-0000-00007E010000}"/>
+    <hyperlink ref="J381" r:id="rId384" xr:uid="{00000000-0004-0000-0000-00007F010000}"/>
+    <hyperlink ref="J382" r:id="rId385" xr:uid="{00000000-0004-0000-0000-000080010000}"/>
+    <hyperlink ref="J383" r:id="rId386" xr:uid="{00000000-0004-0000-0000-000081010000}"/>
+    <hyperlink ref="J384" r:id="rId387" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="J385" r:id="rId388" xr:uid="{00000000-0004-0000-0000-000083010000}"/>
+    <hyperlink ref="J386" r:id="rId389" xr:uid="{00000000-0004-0000-0000-000084010000}"/>
+    <hyperlink ref="J387" r:id="rId390" xr:uid="{00000000-0004-0000-0000-000085010000}"/>
+    <hyperlink ref="J388" r:id="rId391" xr:uid="{00000000-0004-0000-0000-000086010000}"/>
+    <hyperlink ref="J389" r:id="rId392" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="J390" r:id="rId393" xr:uid="{00000000-0004-0000-0000-000088010000}"/>
+    <hyperlink ref="J391" r:id="rId394" xr:uid="{00000000-0004-0000-0000-000089010000}"/>
+    <hyperlink ref="J392" r:id="rId395" xr:uid="{00000000-0004-0000-0000-00008A010000}"/>
+    <hyperlink ref="J393" r:id="rId396" xr:uid="{00000000-0004-0000-0000-00008B010000}"/>
+    <hyperlink ref="J394" r:id="rId397" xr:uid="{00000000-0004-0000-0000-00008C010000}"/>
+    <hyperlink ref="J395" r:id="rId398" xr:uid="{00000000-0004-0000-0000-00008D010000}"/>
+    <hyperlink ref="J396" r:id="rId399" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="J397" r:id="rId400" xr:uid="{00000000-0004-0000-0000-00008F010000}"/>
+    <hyperlink ref="J398" r:id="rId401" xr:uid="{00000000-0004-0000-0000-000090010000}"/>
+    <hyperlink ref="J399" r:id="rId402" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="J400" r:id="rId403" xr:uid="{00000000-0004-0000-0000-000092010000}"/>
+    <hyperlink ref="J401" r:id="rId404" xr:uid="{00000000-0004-0000-0000-000093010000}"/>
+    <hyperlink ref="J402" r:id="rId405" xr:uid="{00000000-0004-0000-0000-000094010000}"/>
+    <hyperlink ref="J403" r:id="rId406" xr:uid="{00000000-0004-0000-0000-000095010000}"/>
+    <hyperlink ref="J404" r:id="rId407" xr:uid="{00000000-0004-0000-0000-000096010000}"/>
+    <hyperlink ref="J405" r:id="rId408" xr:uid="{00000000-0004-0000-0000-000097010000}"/>
+    <hyperlink ref="J406" r:id="rId409" xr:uid="{00000000-0004-0000-0000-000098010000}"/>
+    <hyperlink ref="J407" r:id="rId410" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="J408" r:id="rId411" xr:uid="{00000000-0004-0000-0000-00009A010000}"/>
+    <hyperlink ref="J409" r:id="rId412" xr:uid="{00000000-0004-0000-0000-00009B010000}"/>
+    <hyperlink ref="J410" r:id="rId413" location="qt-science_center_objects" xr:uid="{00000000-0004-0000-0000-00009C010000}"/>
+    <hyperlink ref="J411" r:id="rId414" xr:uid="{00000000-0004-0000-0000-00009D010000}"/>
+    <hyperlink ref="J412" r:id="rId415" xr:uid="{00000000-0004-0000-0000-00009E010000}"/>
+    <hyperlink ref="J413" r:id="rId416" xr:uid="{00000000-0004-0000-0000-00009F010000}"/>
+    <hyperlink ref="J414" r:id="rId417" xr:uid="{00000000-0004-0000-0000-0000A0010000}"/>
+    <hyperlink ref="J415" r:id="rId418" xr:uid="{00000000-0004-0000-0000-0000A1010000}"/>
+    <hyperlink ref="J416" r:id="rId419" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="J417" r:id="rId420" xr:uid="{00000000-0004-0000-0000-0000A3010000}"/>
+    <hyperlink ref="J418" r:id="rId421" xr:uid="{00000000-0004-0000-0000-0000A4010000}"/>
+    <hyperlink ref="J419" r:id="rId422" xr:uid="{00000000-0004-0000-0000-0000A5010000}"/>
+    <hyperlink ref="J420" r:id="rId423" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="J421" r:id="rId424" xr:uid="{00000000-0004-0000-0000-0000A7010000}"/>
+    <hyperlink ref="J422" r:id="rId425" location="qt-science_center_objects" xr:uid="{00000000-0004-0000-0000-0000A8010000}"/>
+    <hyperlink ref="J423" r:id="rId426" xr:uid="{00000000-0004-0000-0000-0000A9010000}"/>
+    <hyperlink ref="J424" r:id="rId427" xr:uid="{00000000-0004-0000-0000-0000AA010000}"/>
+    <hyperlink ref="J425" r:id="rId428" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="J426" r:id="rId429" xr:uid="{00000000-0004-0000-0000-0000AC010000}"/>
+    <hyperlink ref="J427" r:id="rId430" xr:uid="{00000000-0004-0000-0000-0000AD010000}"/>
+    <hyperlink ref="J428" r:id="rId431" xr:uid="{00000000-0004-0000-0000-0000AE010000}"/>
+    <hyperlink ref="J429" r:id="rId432" xr:uid="{00000000-0004-0000-0000-0000AF010000}"/>
+    <hyperlink ref="J430" r:id="rId433" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="J431" r:id="rId434" xr:uid="{00000000-0004-0000-0000-0000B1010000}"/>
+    <hyperlink ref="J432" r:id="rId435" xr:uid="{00000000-0004-0000-0000-0000B2010000}"/>
+    <hyperlink ref="J433" r:id="rId436" xr:uid="{00000000-0004-0000-0000-0000B3010000}"/>
+    <hyperlink ref="J434" r:id="rId437" xr:uid="{00000000-0004-0000-0000-0000B4010000}"/>
+    <hyperlink ref="J435" r:id="rId438" xr:uid="{00000000-0004-0000-0000-0000B5010000}"/>
+    <hyperlink ref="J436" r:id="rId439" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="J437" r:id="rId440" xr:uid="{00000000-0004-0000-0000-0000B7010000}"/>
+    <hyperlink ref="J438" r:id="rId441" xr:uid="{00000000-0004-0000-0000-0000B8010000}"/>
+    <hyperlink ref="J439" r:id="rId442" xr:uid="{00000000-0004-0000-0000-0000B9010000}"/>
+    <hyperlink ref="J440" r:id="rId443" xr:uid="{00000000-0004-0000-0000-0000BA010000}"/>
+    <hyperlink ref="J441" r:id="rId444" xr:uid="{00000000-0004-0000-0000-0000BB010000}"/>
+    <hyperlink ref="J442" r:id="rId445" xr:uid="{00000000-0004-0000-0000-0000BC010000}"/>
+    <hyperlink ref="J443" r:id="rId446" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="J444" r:id="rId447" xr:uid="{00000000-0004-0000-0000-0000BE010000}"/>
+    <hyperlink ref="J445" r:id="rId448" xr:uid="{00000000-0004-0000-0000-0000BF010000}"/>
+    <hyperlink ref="J446" r:id="rId449" xr:uid="{00000000-0004-0000-0000-0000C0010000}"/>
+    <hyperlink ref="J447" r:id="rId450" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="J448" r:id="rId451" xr:uid="{00000000-0004-0000-0000-0000C2010000}"/>
+    <hyperlink ref="J449" r:id="rId452" xr:uid="{00000000-0004-0000-0000-0000C3010000}"/>
+    <hyperlink ref="J450" r:id="rId453" xr:uid="{00000000-0004-0000-0000-0000C4010000}"/>
+    <hyperlink ref="J451" r:id="rId454" xr:uid="{00000000-0004-0000-0000-0000C5010000}"/>
+    <hyperlink ref="J452" r:id="rId455" xr:uid="{00000000-0004-0000-0000-0000C6010000}"/>
+    <hyperlink ref="J453" r:id="rId456" xr:uid="{00000000-0004-0000-0000-0000C7010000}"/>
+    <hyperlink ref="J454" r:id="rId457" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="J455" r:id="rId458" xr:uid="{00000000-0004-0000-0000-0000C9010000}"/>
+    <hyperlink ref="J456" r:id="rId459" xr:uid="{00000000-0004-0000-0000-0000CA010000}"/>
+    <hyperlink ref="J457" r:id="rId460" xr:uid="{00000000-0004-0000-0000-0000CB010000}"/>
+    <hyperlink ref="J458" r:id="rId461" xr:uid="{00000000-0004-0000-0000-0000CC010000}"/>
+    <hyperlink ref="J459" r:id="rId462" xr:uid="{00000000-0004-0000-0000-0000CD010000}"/>
+    <hyperlink ref="J460" r:id="rId463" xr:uid="{00000000-0004-0000-0000-0000CE010000}"/>
+    <hyperlink ref="J461" r:id="rId464" xr:uid="{00000000-0004-0000-0000-0000CF010000}"/>
+    <hyperlink ref="J462" r:id="rId465" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="J463" r:id="rId466" xr:uid="{00000000-0004-0000-0000-0000D1010000}"/>
+    <hyperlink ref="J464" r:id="rId467" xr:uid="{00000000-0004-0000-0000-0000D2010000}"/>
+    <hyperlink ref="J465" r:id="rId468" xr:uid="{00000000-0004-0000-0000-0000D3010000}"/>
+    <hyperlink ref="J466" r:id="rId469" xr:uid="{00000000-0004-0000-0000-0000D4010000}"/>
+    <hyperlink ref="J467" r:id="rId470" xr:uid="{00000000-0004-0000-0000-0000D5010000}"/>
+    <hyperlink ref="J468" r:id="rId471" xr:uid="{00000000-0004-0000-0000-0000D6010000}"/>
+    <hyperlink ref="J469" r:id="rId472" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="J470" r:id="rId473" xr:uid="{00000000-0004-0000-0000-0000D8010000}"/>
+    <hyperlink ref="J471" r:id="rId474" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="J472" r:id="rId475" xr:uid="{00000000-0004-0000-0000-0000DA010000}"/>
+    <hyperlink ref="J473" r:id="rId476" xr:uid="{00000000-0004-0000-0000-0000DB010000}"/>
+    <hyperlink ref="J474" r:id="rId477" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="J475" r:id="rId478" xr:uid="{00000000-0004-0000-0000-0000DD010000}"/>
+    <hyperlink ref="J476" r:id="rId479" location="atmosphere" xr:uid="{00000000-0004-0000-0000-0000DE010000}"/>
+    <hyperlink ref="J477" r:id="rId480" xr:uid="{00000000-0004-0000-0000-0000DF010000}"/>
+    <hyperlink ref="J478" r:id="rId481" xr:uid="{00000000-0004-0000-0000-0000E0010000}"/>
+    <hyperlink ref="J479" r:id="rId482" xr:uid="{00000000-0004-0000-0000-0000E1010000}"/>
+    <hyperlink ref="J480" r:id="rId483" xr:uid="{00000000-0004-0000-0000-0000E2010000}"/>
+    <hyperlink ref="J481" r:id="rId484" xr:uid="{00000000-0004-0000-0000-0000E3010000}"/>
+    <hyperlink ref="J482" r:id="rId485" xr:uid="{00000000-0004-0000-0000-0000E4010000}"/>
+    <hyperlink ref="J483" r:id="rId486" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="J484" r:id="rId487" location="fq=datasource%3A%22NGEE%20Arctic%22&amp;q=*%3A*" xr:uid="{00000000-0004-0000-0000-0000E6010000}"/>
+    <hyperlink ref="J485" r:id="rId488" xr:uid="{00000000-0004-0000-0000-0000E7010000}"/>
+    <hyperlink ref="J486" r:id="rId489" xr:uid="{00000000-0004-0000-0000-0000E8010000}"/>
+    <hyperlink ref="J487" r:id="rId490" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="J488" r:id="rId491" xr:uid="{00000000-0004-0000-0000-0000EA010000}"/>
+    <hyperlink ref="J489" r:id="rId492" xr:uid="{00000000-0004-0000-0000-0000EB010000}"/>
+    <hyperlink ref="J490" r:id="rId493" xr:uid="{00000000-0004-0000-0000-0000EC010000}"/>
+    <hyperlink ref="J491" r:id="rId494" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="J492" r:id="rId495" xr:uid="{00000000-0004-0000-0000-0000EE010000}"/>
+    <hyperlink ref="J493" r:id="rId496" xr:uid="{00000000-0004-0000-0000-0000EF010000}"/>
+    <hyperlink ref="J494" r:id="rId497" location=".XcmC_DNKiUm" xr:uid="{00000000-0004-0000-0000-0000F0010000}"/>
+    <hyperlink ref="J495" r:id="rId498" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="J496" r:id="rId499" xr:uid="{00000000-0004-0000-0000-0000F2010000}"/>
+    <hyperlink ref="J497" r:id="rId500" xr:uid="{00000000-0004-0000-0000-0000F3010000}"/>
+    <hyperlink ref="J498" r:id="rId501" xr:uid="{00000000-0004-0000-0000-0000F4010000}"/>
+    <hyperlink ref="J499" r:id="rId502" xr:uid="{00000000-0004-0000-0000-0000F5010000}"/>
+    <hyperlink ref="J500" r:id="rId503" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="J501" r:id="rId504" xr:uid="{00000000-0004-0000-0000-0000F7010000}"/>
+    <hyperlink ref="J502" r:id="rId505" xr:uid="{00000000-0004-0000-0000-0000F8010000}"/>
+    <hyperlink ref="J503" r:id="rId506" xr:uid="{00000000-0004-0000-0000-0000F9010000}"/>
+    <hyperlink ref="J504" r:id="rId507" xr:uid="{00000000-0004-0000-0000-0000FA010000}"/>
+    <hyperlink ref="J505" r:id="rId508" xr:uid="{00000000-0004-0000-0000-0000FB010000}"/>
+    <hyperlink ref="J506" r:id="rId509" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="J507" r:id="rId510" xr:uid="{00000000-0004-0000-0000-0000FD010000}"/>
+    <hyperlink ref="J508" r:id="rId511" xr:uid="{00000000-0004-0000-0000-0000FE010000}"/>
+    <hyperlink ref="J509" r:id="rId512" xr:uid="{00000000-0004-0000-0000-0000FF010000}"/>
+    <hyperlink ref="J510" r:id="rId513" xr:uid="{00000000-0004-0000-0000-000000020000}"/>
+    <hyperlink ref="J511" r:id="rId514" xr:uid="{00000000-0004-0000-0000-000001020000}"/>
+    <hyperlink ref="J512" r:id="rId515" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="J513" r:id="rId516" xr:uid="{00000000-0004-0000-0000-000003020000}"/>
+    <hyperlink ref="J514" r:id="rId517" xr:uid="{00000000-0004-0000-0000-000004020000}"/>
+    <hyperlink ref="J515" r:id="rId518" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="J516" r:id="rId519" xr:uid="{00000000-0004-0000-0000-000006020000}"/>
+    <hyperlink ref="J517" r:id="rId520" xr:uid="{00000000-0004-0000-0000-000007020000}"/>
+    <hyperlink ref="J518" r:id="rId521" xr:uid="{00000000-0004-0000-0000-000008020000}"/>
+    <hyperlink ref="J519" r:id="rId522" xr:uid="{00000000-0004-0000-0000-000009020000}"/>
+    <hyperlink ref="J520" r:id="rId523" xr:uid="{00000000-0004-0000-0000-00000A020000}"/>
+    <hyperlink ref="J521" r:id="rId524" xr:uid="{00000000-0004-0000-0000-00000B020000}"/>
+    <hyperlink ref="J522" r:id="rId525" xr:uid="{00000000-0004-0000-0000-00000C020000}"/>
+    <hyperlink ref="J523" r:id="rId526" xr:uid="{00000000-0004-0000-0000-00000D020000}"/>
+    <hyperlink ref="J524" r:id="rId527" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="J525" r:id="rId528" xr:uid="{00000000-0004-0000-0000-00000F020000}"/>
+    <hyperlink ref="J526" r:id="rId529" xr:uid="{00000000-0004-0000-0000-000010020000}"/>
+    <hyperlink ref="J527" r:id="rId530" xr:uid="{00000000-0004-0000-0000-000011020000}"/>
+    <hyperlink ref="J528" r:id="rId531" xr:uid="{00000000-0004-0000-0000-000012020000}"/>
+    <hyperlink ref="J529" r:id="rId532" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="J530" r:id="rId533" xr:uid="{00000000-0004-0000-0000-000014020000}"/>
+    <hyperlink ref="J531" r:id="rId534" xr:uid="{00000000-0004-0000-0000-000015020000}"/>
+    <hyperlink ref="J532" r:id="rId535" xr:uid="{00000000-0004-0000-0000-000016020000}"/>
+    <hyperlink ref="J533" r:id="rId536" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="J534" r:id="rId537" xr:uid="{00000000-0004-0000-0000-000018020000}"/>
+    <hyperlink ref="J535" r:id="rId538" xr:uid="{00000000-0004-0000-0000-000019020000}"/>
+    <hyperlink ref="J536" r:id="rId539" xr:uid="{00000000-0004-0000-0000-00001A020000}"/>
+    <hyperlink ref="J537" r:id="rId540" xr:uid="{00000000-0004-0000-0000-00001B020000}"/>
+    <hyperlink ref="J538" r:id="rId541" xr:uid="{00000000-0004-0000-0000-00001C020000}"/>
+    <hyperlink ref="J539" r:id="rId542" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="J540" r:id="rId543" xr:uid="{00000000-0004-0000-0000-00001E020000}"/>
+    <hyperlink ref="J541" r:id="rId544" xr:uid="{00000000-0004-0000-0000-00001F020000}"/>
+    <hyperlink ref="J542" r:id="rId545" xr:uid="{00000000-0004-0000-0000-000020020000}"/>
+    <hyperlink ref="J543" r:id="rId546" xr:uid="{00000000-0004-0000-0000-000021020000}"/>
+    <hyperlink ref="J544" r:id="rId547" xr:uid="{00000000-0004-0000-0000-000022020000}"/>
+    <hyperlink ref="J545" r:id="rId548" xr:uid="{00000000-0004-0000-0000-000023020000}"/>
+    <hyperlink ref="J546" r:id="rId549" xr:uid="{00000000-0004-0000-0000-000024020000}"/>
+    <hyperlink ref="J547" r:id="rId550" xr:uid="{00000000-0004-0000-0000-000025020000}"/>
+    <hyperlink ref="J548" r:id="rId551" xr:uid="{00000000-0004-0000-0000-000026020000}"/>
+    <hyperlink ref="J549" r:id="rId552" xr:uid="{00000000-0004-0000-0000-000027020000}"/>
+    <hyperlink ref="J550" r:id="rId553" xr:uid="{00000000-0004-0000-0000-000028020000}"/>
+    <hyperlink ref="J551" r:id="rId554" xr:uid="{00000000-0004-0000-0000-000029020000}"/>
+    <hyperlink ref="J552" r:id="rId555" xr:uid="{00000000-0004-0000-0000-00002A020000}"/>
+    <hyperlink ref="J553" r:id="rId556" xr:uid="{00000000-0004-0000-0000-00002B020000}"/>
+    <hyperlink ref="J554" r:id="rId557" xr:uid="{00000000-0004-0000-0000-00002C020000}"/>
+    <hyperlink ref="J555" r:id="rId558" xr:uid="{00000000-0004-0000-0000-00002D020000}"/>
+    <hyperlink ref="J556" r:id="rId559" xr:uid="{00000000-0004-0000-0000-00002E020000}"/>
+    <hyperlink ref="J557" r:id="rId560" xr:uid="{00000000-0004-0000-0000-00002F020000}"/>
+    <hyperlink ref="J558" r:id="rId561" xr:uid="{00000000-0004-0000-0000-000030020000}"/>
+    <hyperlink ref="J559" r:id="rId562" xr:uid="{00000000-0004-0000-0000-000031020000}"/>
+    <hyperlink ref="J560" r:id="rId563" xr:uid="{00000000-0004-0000-0000-000032020000}"/>
+    <hyperlink ref="J561" r:id="rId564" xr:uid="{00000000-0004-0000-0000-000033020000}"/>
+    <hyperlink ref="J562" r:id="rId565" xr:uid="{00000000-0004-0000-0000-000034020000}"/>
+    <hyperlink ref="J563" r:id="rId566" xr:uid="{00000000-0004-0000-0000-000035020000}"/>
+    <hyperlink ref="J564" r:id="rId567" xr:uid="{00000000-0004-0000-0000-000036020000}"/>
+    <hyperlink ref="J565" r:id="rId568" location="/" xr:uid="{00000000-0004-0000-0000-000037020000}"/>
+    <hyperlink ref="J566" r:id="rId569" xr:uid="{00000000-0004-0000-0000-000038020000}"/>
+    <hyperlink ref="J567" r:id="rId570" xr:uid="{00000000-0004-0000-0000-000039020000}"/>
+    <hyperlink ref="J568" r:id="rId571" xr:uid="{00000000-0004-0000-0000-00003A020000}"/>
+    <hyperlink ref="J569" r:id="rId572" xr:uid="{00000000-0004-0000-0000-00003B020000}"/>
+    <hyperlink ref="J570" r:id="rId573" xr:uid="{00000000-0004-0000-0000-00003C020000}"/>
+    <hyperlink ref="J571" r:id="rId574" xr:uid="{00000000-0004-0000-0000-00003D020000}"/>
+    <hyperlink ref="J572" r:id="rId575" xr:uid="{00000000-0004-0000-0000-00003E020000}"/>
+    <hyperlink ref="J573" r:id="rId576" xr:uid="{00000000-0004-0000-0000-00003F020000}"/>
+    <hyperlink ref="J574" r:id="rId577" xr:uid="{00000000-0004-0000-0000-000040020000}"/>
+    <hyperlink ref="J575" r:id="rId578" xr:uid="{00000000-0004-0000-0000-000041020000}"/>
+    <hyperlink ref="J576" r:id="rId579" xr:uid="{00000000-0004-0000-0000-000042020000}"/>
+    <hyperlink ref="J577" r:id="rId580" xr:uid="{00000000-0004-0000-0000-000043020000}"/>
+    <hyperlink ref="J578" r:id="rId581" xr:uid="{00000000-0004-0000-0000-000044020000}"/>
+    <hyperlink ref="J579" r:id="rId582" location="/" xr:uid="{00000000-0004-0000-0000-000045020000}"/>
+    <hyperlink ref="J580" r:id="rId583" xr:uid="{00000000-0004-0000-0000-000046020000}"/>
+    <hyperlink ref="J581" r:id="rId584" xr:uid="{00000000-0004-0000-0000-000047020000}"/>
+    <hyperlink ref="J582" r:id="rId585" xr:uid="{00000000-0004-0000-0000-000048020000}"/>
+    <hyperlink ref="J583" r:id="rId586" xr:uid="{00000000-0004-0000-0000-000049020000}"/>
+    <hyperlink ref="J584" r:id="rId587" xr:uid="{00000000-0004-0000-0000-00004A020000}"/>
+    <hyperlink ref="J585" r:id="rId588" xr:uid="{00000000-0004-0000-0000-00004B020000}"/>
+    <hyperlink ref="J586" r:id="rId589" xr:uid="{00000000-0004-0000-0000-00004C020000}"/>
+    <hyperlink ref="J587" r:id="rId590" xr:uid="{00000000-0004-0000-0000-00004D020000}"/>
+    <hyperlink ref="J588" r:id="rId591" xr:uid="{00000000-0004-0000-0000-00004E020000}"/>
+    <hyperlink ref="J589" r:id="rId592" xr:uid="{00000000-0004-0000-0000-00004F020000}"/>
+    <hyperlink ref="J590" r:id="rId593" xr:uid="{00000000-0004-0000-0000-000050020000}"/>
+    <hyperlink ref="J591" r:id="rId594" xr:uid="{00000000-0004-0000-0000-000051020000}"/>
+    <hyperlink ref="J592" r:id="rId595" xr:uid="{00000000-0004-0000-0000-000052020000}"/>
+    <hyperlink ref="J593" r:id="rId596" xr:uid="{00000000-0004-0000-0000-000053020000}"/>
+    <hyperlink ref="J594" r:id="rId597" xr:uid="{00000000-0004-0000-0000-000054020000}"/>
+    <hyperlink ref="J595" r:id="rId598" xr:uid="{00000000-0004-0000-0000-000055020000}"/>
+    <hyperlink ref="J596" r:id="rId599" xr:uid="{00000000-0004-0000-0000-000056020000}"/>
+    <hyperlink ref="J597" r:id="rId600" xr:uid="{00000000-0004-0000-0000-000057020000}"/>
+    <hyperlink ref="J598" r:id="rId601" location="index" xr:uid="{00000000-0004-0000-0000-000058020000}"/>
+    <hyperlink ref="J599" r:id="rId602" xr:uid="{00000000-0004-0000-0000-000059020000}"/>
+    <hyperlink ref="J600" r:id="rId603" xr:uid="{00000000-0004-0000-0000-00005A020000}"/>
+    <hyperlink ref="J601" r:id="rId604" xr:uid="{00000000-0004-0000-0000-00005B020000}"/>
+    <hyperlink ref="J602" r:id="rId605" xr:uid="{00000000-0004-0000-0000-00005C020000}"/>
+    <hyperlink ref="J603" r:id="rId606" xr:uid="{00000000-0004-0000-0000-00005D020000}"/>
+    <hyperlink ref="J604" r:id="rId607" location="/home" xr:uid="{00000000-0004-0000-0000-00005E020000}"/>
+    <hyperlink ref="J605" r:id="rId608" xr:uid="{00000000-0004-0000-0000-00005F020000}"/>
+    <hyperlink ref="J606" r:id="rId609" xr:uid="{00000000-0004-0000-0000-000060020000}"/>
+    <hyperlink ref="J607" r:id="rId610" xr:uid="{00000000-0004-0000-0000-000061020000}"/>
+    <hyperlink ref="J608" r:id="rId611" location="data" xr:uid="{00000000-0004-0000-0000-000062020000}"/>
+    <hyperlink ref="J609" r:id="rId612" xr:uid="{00000000-0004-0000-0000-000063020000}"/>
+    <hyperlink ref="J610" r:id="rId613" xr:uid="{00000000-0004-0000-0000-000064020000}"/>
+    <hyperlink ref="J611" r:id="rId614" xr:uid="{00000000-0004-0000-0000-000065020000}"/>
+    <hyperlink ref="J612" r:id="rId615" xr:uid="{00000000-0004-0000-0000-000066020000}"/>
+    <hyperlink ref="J613" r:id="rId616" xr:uid="{00000000-0004-0000-0000-000067020000}"/>
+    <hyperlink ref="J614" r:id="rId617" xr:uid="{00000000-0004-0000-0000-000068020000}"/>
+    <hyperlink ref="J615" r:id="rId618" xr:uid="{00000000-0004-0000-0000-000069020000}"/>
+    <hyperlink ref="J616" r:id="rId619" xr:uid="{00000000-0004-0000-0000-00006A020000}"/>
+    <hyperlink ref="J617" r:id="rId620" xr:uid="{00000000-0004-0000-0000-00006B020000}"/>
+    <hyperlink ref="J618" r:id="rId621" xr:uid="{00000000-0004-0000-0000-00006C020000}"/>
+    <hyperlink ref="J619" r:id="rId622" xr:uid="{00000000-0004-0000-0000-00006D020000}"/>
+    <hyperlink ref="J620" r:id="rId623" xr:uid="{00000000-0004-0000-0000-00006E020000}"/>
+    <hyperlink ref="J621" r:id="rId624" xr:uid="{00000000-0004-0000-0000-00006F020000}"/>
+    <hyperlink ref="J622" r:id="rId625" xr:uid="{00000000-0004-0000-0000-000070020000}"/>
+    <hyperlink ref="J623" r:id="rId626" xr:uid="{00000000-0004-0000-0000-000071020000}"/>
+    <hyperlink ref="J624" r:id="rId627" xr:uid="{00000000-0004-0000-0000-000072020000}"/>
+    <hyperlink ref="J625" r:id="rId628" xr:uid="{00000000-0004-0000-0000-000073020000}"/>
+    <hyperlink ref="J626" r:id="rId629" xr:uid="{00000000-0004-0000-0000-000074020000}"/>
+    <hyperlink ref="J627" r:id="rId630" xr:uid="{00000000-0004-0000-0000-000075020000}"/>
+    <hyperlink ref="J628" r:id="rId631" xr:uid="{00000000-0004-0000-0000-000076020000}"/>
+    <hyperlink ref="J629" r:id="rId632" xr:uid="{00000000-0004-0000-0000-000077020000}"/>
+    <hyperlink ref="J630" r:id="rId633" xr:uid="{00000000-0004-0000-0000-000078020000}"/>
+    <hyperlink ref="J631" r:id="rId634" xr:uid="{00000000-0004-0000-0000-000079020000}"/>
+    <hyperlink ref="J632" r:id="rId635" xr:uid="{00000000-0004-0000-0000-00007A020000}"/>
+    <hyperlink ref="J633" r:id="rId636" xr:uid="{00000000-0004-0000-0000-00007B020000}"/>
+    <hyperlink ref="J634" r:id="rId637" location="/" xr:uid="{00000000-0004-0000-0000-00007C020000}"/>
+    <hyperlink ref="J635" r:id="rId638" xr:uid="{00000000-0004-0000-0000-00007D020000}"/>
+    <hyperlink ref="J636" r:id="rId639" xr:uid="{00000000-0004-0000-0000-00007E020000}"/>
+    <hyperlink ref="J637" r:id="rId640" xr:uid="{00000000-0004-0000-0000-00007F020000}"/>
+    <hyperlink ref="J638" r:id="rId641" xr:uid="{00000000-0004-0000-0000-000080020000}"/>
+    <hyperlink ref="J639" r:id="rId642" xr:uid="{00000000-0004-0000-0000-000081020000}"/>
+    <hyperlink ref="J640" r:id="rId643" xr:uid="{00000000-0004-0000-0000-000082020000}"/>
+    <hyperlink ref="J641" r:id="rId644" xr:uid="{00000000-0004-0000-0000-000083020000}"/>
+    <hyperlink ref="J642" r:id="rId645" xr:uid="{00000000-0004-0000-0000-000084020000}"/>
+    <hyperlink ref="J643" r:id="rId646" xr:uid="{00000000-0004-0000-0000-000085020000}"/>
+    <hyperlink ref="J644" r:id="rId647" xr:uid="{00000000-0004-0000-0000-000086020000}"/>
+    <hyperlink ref="J645" r:id="rId648" xr:uid="{00000000-0004-0000-0000-000087020000}"/>
+    <hyperlink ref="J646" r:id="rId649" xr:uid="{00000000-0004-0000-0000-000088020000}"/>
+    <hyperlink ref="J647" r:id="rId650" xr:uid="{00000000-0004-0000-0000-000089020000}"/>
+    <hyperlink ref="J648" r:id="rId651" xr:uid="{00000000-0004-0000-0000-00008A020000}"/>
+    <hyperlink ref="J649" r:id="rId652" xr:uid="{00000000-0004-0000-0000-00008B020000}"/>
+    <hyperlink ref="J650" r:id="rId653" xr:uid="{00000000-0004-0000-0000-00008C020000}"/>
+    <hyperlink ref="J651" r:id="rId654" xr:uid="{00000000-0004-0000-0000-00008D020000}"/>
+    <hyperlink ref="J652" r:id="rId655" xr:uid="{00000000-0004-0000-0000-00008E020000}"/>
+    <hyperlink ref="J653" r:id="rId656" xr:uid="{00000000-0004-0000-0000-00008F020000}"/>
+    <hyperlink ref="J654" r:id="rId657" xr:uid="{00000000-0004-0000-0000-000090020000}"/>
+    <hyperlink ref="J655" r:id="rId658" xr:uid="{00000000-0004-0000-0000-000091020000}"/>
+    <hyperlink ref="J656" r:id="rId659" xr:uid="{00000000-0004-0000-0000-000092020000}"/>
+    <hyperlink ref="J657" r:id="rId660" xr:uid="{00000000-0004-0000-0000-000093020000}"/>
+    <hyperlink ref="J658" r:id="rId661" xr:uid="{00000000-0004-0000-0000-000094020000}"/>
+    <hyperlink ref="J659" r:id="rId662" xr:uid="{00000000-0004-0000-0000-000095020000}"/>
+    <hyperlink ref="J660" r:id="rId663" xr:uid="{00000000-0004-0000-0000-000096020000}"/>
+    <hyperlink ref="J661" r:id="rId664" xr:uid="{00000000-0004-0000-0000-000097020000}"/>
+    <hyperlink ref="J662" r:id="rId665" xr:uid="{00000000-0004-0000-0000-000098020000}"/>
+    <hyperlink ref="J663" r:id="rId666" xr:uid="{00000000-0004-0000-0000-000099020000}"/>
+    <hyperlink ref="J664" r:id="rId667" xr:uid="{00000000-0004-0000-0000-00009A020000}"/>
+    <hyperlink ref="J665" r:id="rId668" xr:uid="{00000000-0004-0000-0000-00009B020000}"/>
+    <hyperlink ref="J666" r:id="rId669" xr:uid="{00000000-0004-0000-0000-00009C020000}"/>
+    <hyperlink ref="J667" r:id="rId670" xr:uid="{00000000-0004-0000-0000-00009D020000}"/>
+    <hyperlink ref="J668" r:id="rId671" xr:uid="{00000000-0004-0000-0000-00009E020000}"/>
+    <hyperlink ref="J669" r:id="rId672" xr:uid="{00000000-0004-0000-0000-00009F020000}"/>
+    <hyperlink ref="J670" r:id="rId673" xr:uid="{00000000-0004-0000-0000-0000A0020000}"/>
+    <hyperlink ref="J671" r:id="rId674" xr:uid="{00000000-0004-0000-0000-0000A1020000}"/>
+    <hyperlink ref="J672" r:id="rId675" xr:uid="{00000000-0004-0000-0000-0000A2020000}"/>
+    <hyperlink ref="J673" r:id="rId676" xr:uid="{00000000-0004-0000-0000-0000A3020000}"/>
+    <hyperlink ref="J674" r:id="rId677" xr:uid="{00000000-0004-0000-0000-0000A4020000}"/>
+    <hyperlink ref="J675" r:id="rId678" xr:uid="{00000000-0004-0000-0000-0000A5020000}"/>
+    <hyperlink ref="J676" r:id="rId679" xr:uid="{00000000-0004-0000-0000-0000A6020000}"/>
+    <hyperlink ref="J677" r:id="rId680" xr:uid="{00000000-0004-0000-0000-0000A7020000}"/>
+    <hyperlink ref="J678" r:id="rId681" location="/" xr:uid="{00000000-0004-0000-0000-0000A8020000}"/>
+    <hyperlink ref="J679" r:id="rId682" xr:uid="{00000000-0004-0000-0000-0000A9020000}"/>
+    <hyperlink ref="J680" r:id="rId683" display="https://www.google.com/url?q=http://geosampa.prefeitura.sp.gov.br/PaginasPublicas/_SBC.aspx&amp;sa=D&amp;source=editors&amp;ust=1649796434823457&amp;usg=AOvVaw3Ua-SMLnnmRMHBj0s805WK" xr:uid="{14AB3AE2-CC67-48A8-93AA-C1CA133BEBD7}"/>
+    <hyperlink ref="J681" r:id="rId684" xr:uid="{200B9D2F-D462-483B-BEA1-9F052B83C261}"/>
+    <hyperlink ref="J682" r:id="rId685" display="https://www.google.com/url?q=http://datapoa.com.br/&amp;sa=D&amp;source=editors&amp;ust=1649796434823574&amp;usg=AOvVaw2_4Qb9gWyUuM7_FrG4-87O" xr:uid="{0A1ABF94-9A20-4EC4-BE63-ECD46550BA38}"/>
   </hyperlinks>
-  <drawing r:id="rId683"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId686"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.43"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" ht="15.75" customHeight="1">
       <c r="A4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" ht="15.75" customHeight="1">
       <c r="A13" s="9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" ht="15.75" customHeight="1">
       <c r="A14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" ht="15.75" customHeight="1">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" ht="15.75" customHeight="1">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" ht="15.75" customHeight="1">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" ht="15.75" customHeight="1">
       <c r="A18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" ht="15.75" customHeight="1">
       <c r="A19" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A4"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>